--- a/baseline_data.xlsx
+++ b/baseline_data.xlsx
@@ -1,21 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sd282\Desktop\covid_price_tag_map\covid_price_7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915CF941-BE09-4808-8925-1A320753C3B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -28,7 +20,7 @@
     <t>COVAX AMC eligible?</t>
   </si>
   <si>
-    <t>Baseline spending on Immunization (2020 US$)</t>
+    <t>Baseline spending on Immunization</t>
   </si>
   <si>
     <t>Year</t>
@@ -2506,10 +2498,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2521,7 +2514,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -2539,328 +2532,18 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2910,7 +2593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2920,8 +2603,8 @@
       <c r="C2" t="s">
         <v>135</v>
       </c>
-      <c r="D2">
-        <v>2018</v>
+      <c r="D2" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E2" t="s">
         <v>251</v>
@@ -2932,35 +2615,35 @@
       <c r="G2" t="s">
         <v>485</v>
       </c>
-      <c r="H2">
-        <v>2.8000000000000001E-2</v>
+      <c r="H2" t="n">
+        <v>2.8000000000000003</v>
       </c>
       <c r="I2" t="s">
         <v>602</v>
       </c>
-      <c r="J2">
-        <v>70</v>
-      </c>
-      <c r="K2">
-        <v>22</v>
-      </c>
-      <c r="L2">
-        <v>55</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>13.6</v>
+      <c r="J2" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9.95</v>
       </c>
       <c r="P2" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2970,8 +2653,8 @@
       <c r="C3" t="s">
         <v>136</v>
       </c>
-      <c r="D3">
-        <v>2019</v>
+      <c r="D3" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E3" t="s">
         <v>252</v>
@@ -2982,35 +2665,35 @@
       <c r="G3" t="s">
         <v>486</v>
       </c>
-      <c r="H3">
-        <v>2.4E-2</v>
+      <c r="H3" t="n">
+        <v>2.4</v>
       </c>
       <c r="I3" t="s">
         <v>603</v>
       </c>
-      <c r="J3">
-        <v>70</v>
-      </c>
-      <c r="K3">
-        <v>22</v>
-      </c>
-      <c r="L3">
-        <v>55</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>13.6</v>
+      <c r="J3" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>9.95</v>
       </c>
       <c r="P3" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3020,8 +2703,8 @@
       <c r="C4" t="s">
         <v>137</v>
       </c>
-      <c r="D4">
-        <v>2018</v>
+      <c r="D4" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E4" t="s">
         <v>253</v>
@@ -3032,35 +2715,35 @@
       <c r="G4" t="s">
         <v>487</v>
       </c>
-      <c r="H4">
-        <v>2.1999999999999999E-2</v>
+      <c r="H4" t="n">
+        <v>2.1999999999999997</v>
       </c>
       <c r="I4" t="s">
         <v>604</v>
       </c>
-      <c r="J4">
-        <v>70</v>
-      </c>
-      <c r="K4">
-        <v>22</v>
-      </c>
-      <c r="L4">
-        <v>55</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <v>13.6</v>
+      <c r="J4" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9.95</v>
       </c>
       <c r="P4" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3070,8 +2753,8 @@
       <c r="C5" t="s">
         <v>138</v>
       </c>
-      <c r="D5">
-        <v>2018</v>
+      <c r="D5" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E5" t="s">
         <v>254</v>
@@ -3082,35 +2765,35 @@
       <c r="G5" t="s">
         <v>488</v>
       </c>
-      <c r="H5">
-        <v>3.2000000000000001E-2</v>
+      <c r="H5" t="n">
+        <v>3.2</v>
       </c>
       <c r="I5" t="s">
         <v>605</v>
       </c>
-      <c r="J5">
-        <v>70</v>
-      </c>
-      <c r="K5">
-        <v>22</v>
-      </c>
-      <c r="L5">
-        <v>55</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>13.6</v>
+      <c r="J5" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>9.95</v>
       </c>
       <c r="P5" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3120,8 +2803,8 @@
       <c r="C6" t="s">
         <v>139</v>
       </c>
-      <c r="D6">
-        <v>2019</v>
+      <c r="D6" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E6" t="s">
         <v>255</v>
@@ -3132,35 +2815,35 @@
       <c r="G6" t="s">
         <v>489</v>
       </c>
-      <c r="H6">
-        <v>2.1999999999999999E-2</v>
+      <c r="H6" t="n">
+        <v>2.1999999999999997</v>
       </c>
       <c r="I6" t="s">
         <v>606</v>
       </c>
-      <c r="J6">
-        <v>70</v>
-      </c>
-      <c r="K6">
-        <v>22</v>
-      </c>
-      <c r="L6">
-        <v>55</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="O6">
-        <v>13.6</v>
+      <c r="J6" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9.95</v>
       </c>
       <c r="P6" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3170,8 +2853,8 @@
       <c r="C7" t="s">
         <v>140</v>
       </c>
-      <c r="D7">
-        <v>2019</v>
+      <c r="D7" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E7" t="s">
         <v>256</v>
@@ -3182,35 +2865,35 @@
       <c r="G7" t="s">
         <v>490</v>
       </c>
-      <c r="H7">
-        <v>2.7E-2</v>
+      <c r="H7" t="n">
+        <v>2.7</v>
       </c>
       <c r="I7" t="s">
         <v>607</v>
       </c>
-      <c r="J7">
-        <v>70</v>
-      </c>
-      <c r="K7">
-        <v>22</v>
-      </c>
-      <c r="L7">
-        <v>55</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <v>13.6</v>
+      <c r="J7" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9.95</v>
       </c>
       <c r="P7" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3220,8 +2903,8 @@
       <c r="C8" t="s">
         <v>141</v>
       </c>
-      <c r="D8">
-        <v>2019</v>
+      <c r="D8" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E8" t="s">
         <v>257</v>
@@ -3232,35 +2915,35 @@
       <c r="G8" t="s">
         <v>491</v>
       </c>
-      <c r="H8">
-        <v>2.5000000000000001E-2</v>
+      <c r="H8" t="n">
+        <v>2.5</v>
       </c>
       <c r="I8" t="s">
         <v>608</v>
       </c>
-      <c r="J8">
-        <v>70</v>
-      </c>
-      <c r="K8">
-        <v>22</v>
-      </c>
-      <c r="L8">
-        <v>55</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <v>13.6</v>
+      <c r="J8" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9.95</v>
       </c>
       <c r="P8" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3270,8 +2953,8 @@
       <c r="C9" t="s">
         <v>142</v>
       </c>
-      <c r="D9">
-        <v>2019</v>
+      <c r="D9" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E9" t="s">
         <v>258</v>
@@ -3282,35 +2965,35 @@
       <c r="G9" t="s">
         <v>492</v>
       </c>
-      <c r="H9">
-        <v>0.03</v>
+      <c r="H9" t="n">
+        <v>3.0</v>
       </c>
       <c r="I9" t="s">
         <v>609</v>
       </c>
-      <c r="J9">
-        <v>70</v>
-      </c>
-      <c r="K9">
-        <v>22</v>
-      </c>
-      <c r="L9">
-        <v>55</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="O9">
-        <v>13.6</v>
+      <c r="J9" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9.95</v>
       </c>
       <c r="P9" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3320,8 +3003,8 @@
       <c r="C10" t="s">
         <v>143</v>
       </c>
-      <c r="D10">
-        <v>2019</v>
+      <c r="D10" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E10" t="s">
         <v>259</v>
@@ -3332,35 +3015,35 @@
       <c r="G10" t="s">
         <v>493</v>
       </c>
-      <c r="H10">
-        <v>2.3E-2</v>
+      <c r="H10" t="n">
+        <v>2.3</v>
       </c>
       <c r="I10" t="s">
         <v>610</v>
       </c>
-      <c r="J10">
-        <v>70</v>
-      </c>
-      <c r="K10">
-        <v>22</v>
-      </c>
-      <c r="L10">
-        <v>55</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <v>13.6</v>
+      <c r="J10" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>9.95</v>
       </c>
       <c r="P10" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3370,8 +3053,8 @@
       <c r="C11" t="s">
         <v>144</v>
       </c>
-      <c r="D11">
-        <v>2018</v>
+      <c r="D11" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E11" t="s">
         <v>260</v>
@@ -3382,35 +3065,35 @@
       <c r="G11" t="s">
         <v>494</v>
       </c>
-      <c r="H11">
-        <v>2.7E-2</v>
+      <c r="H11" t="n">
+        <v>2.7</v>
       </c>
       <c r="I11" t="s">
         <v>611</v>
       </c>
-      <c r="J11">
-        <v>70</v>
-      </c>
-      <c r="K11">
-        <v>22</v>
-      </c>
-      <c r="L11">
-        <v>55</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-      <c r="O11">
-        <v>13.6</v>
+      <c r="J11" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>9.95</v>
       </c>
       <c r="P11" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3420,8 +3103,8 @@
       <c r="C12" t="s">
         <v>145</v>
       </c>
-      <c r="D12">
-        <v>2019</v>
+      <c r="D12" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E12" t="s">
         <v>261</v>
@@ -3432,35 +3115,35 @@
       <c r="G12" t="s">
         <v>495</v>
       </c>
-      <c r="H12">
-        <v>2.5000000000000001E-2</v>
+      <c r="H12" t="n">
+        <v>2.5</v>
       </c>
       <c r="I12" t="s">
         <v>612</v>
       </c>
-      <c r="J12">
-        <v>70</v>
-      </c>
-      <c r="K12">
-        <v>22</v>
-      </c>
-      <c r="L12">
-        <v>55</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12">
-        <v>13.6</v>
+      <c r="J12" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>9.95</v>
       </c>
       <c r="P12" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -3470,8 +3153,8 @@
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13">
-        <v>2019</v>
+      <c r="D13" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E13" t="s">
         <v>262</v>
@@ -3482,35 +3165,35 @@
       <c r="G13" t="s">
         <v>496</v>
       </c>
-      <c r="H13">
-        <v>3.2000000000000001E-2</v>
+      <c r="H13" t="n">
+        <v>3.2</v>
       </c>
       <c r="I13" t="s">
         <v>613</v>
       </c>
-      <c r="J13">
-        <v>70</v>
-      </c>
-      <c r="K13">
-        <v>22</v>
-      </c>
-      <c r="L13">
-        <v>55</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13">
-        <v>13.6</v>
+      <c r="J13" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>9.95</v>
       </c>
       <c r="P13" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3520,8 +3203,8 @@
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14">
-        <v>2018</v>
+      <c r="D14" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E14" t="s">
         <v>263</v>
@@ -3532,35 +3215,35 @@
       <c r="G14" t="s">
         <v>497</v>
       </c>
-      <c r="H14">
-        <v>3.5000000000000003E-2</v>
+      <c r="H14" t="n">
+        <v>3.5000000000000004</v>
       </c>
       <c r="I14" t="s">
         <v>614</v>
       </c>
-      <c r="J14">
-        <v>70</v>
-      </c>
-      <c r="K14">
-        <v>22</v>
-      </c>
-      <c r="L14">
-        <v>55</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <v>13.6</v>
+      <c r="J14" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>9.95</v>
       </c>
       <c r="P14" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3570,8 +3253,8 @@
       <c r="C15" t="s">
         <v>148</v>
       </c>
-      <c r="D15">
-        <v>2019</v>
+      <c r="D15" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E15" t="s">
         <v>264</v>
@@ -3582,35 +3265,35 @@
       <c r="G15" t="s">
         <v>498</v>
       </c>
-      <c r="H15">
-        <v>2.8000000000000001E-2</v>
+      <c r="H15" t="n">
+        <v>2.8000000000000003</v>
       </c>
       <c r="I15" t="s">
         <v>615</v>
       </c>
-      <c r="J15">
-        <v>70</v>
-      </c>
-      <c r="K15">
-        <v>22</v>
-      </c>
-      <c r="L15">
-        <v>55</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <v>3</v>
-      </c>
-      <c r="O15">
-        <v>13.6</v>
+      <c r="J15" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>9.95</v>
       </c>
       <c r="P15" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -3620,8 +3303,8 @@
       <c r="C16" t="s">
         <v>149</v>
       </c>
-      <c r="D16">
-        <v>2019</v>
+      <c r="D16" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E16" t="s">
         <v>265</v>
@@ -3632,35 +3315,35 @@
       <c r="G16" t="s">
         <v>499</v>
       </c>
-      <c r="H16">
-        <v>2.5000000000000001E-2</v>
+      <c r="H16" t="n">
+        <v>2.5</v>
       </c>
       <c r="I16" t="s">
         <v>616</v>
       </c>
-      <c r="J16">
-        <v>70</v>
-      </c>
-      <c r="K16">
-        <v>22</v>
-      </c>
-      <c r="L16">
-        <v>55</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>13.6</v>
+      <c r="J16" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>9.95</v>
       </c>
       <c r="P16" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -3670,8 +3353,8 @@
       <c r="C17" t="s">
         <v>150</v>
       </c>
-      <c r="D17">
-        <v>2019</v>
+      <c r="D17" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E17" t="s">
         <v>266</v>
@@ -3682,35 +3365,35 @@
       <c r="G17" t="s">
         <v>500</v>
       </c>
-      <c r="H17">
-        <v>2.5000000000000001E-2</v>
+      <c r="H17" t="n">
+        <v>2.5</v>
       </c>
       <c r="I17" t="s">
         <v>617</v>
       </c>
-      <c r="J17">
-        <v>70</v>
-      </c>
-      <c r="K17">
-        <v>22</v>
-      </c>
-      <c r="L17">
-        <v>55</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <v>13.6</v>
+      <c r="J17" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>9.95</v>
       </c>
       <c r="P17" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -3720,8 +3403,8 @@
       <c r="C18" t="s">
         <v>151</v>
       </c>
-      <c r="D18">
-        <v>2019</v>
+      <c r="D18" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E18" t="s">
         <v>267</v>
@@ -3732,35 +3415,35 @@
       <c r="G18" t="s">
         <v>501</v>
       </c>
-      <c r="H18">
-        <v>2.3E-2</v>
+      <c r="H18" t="n">
+        <v>2.3</v>
       </c>
       <c r="I18" t="s">
         <v>618</v>
       </c>
-      <c r="J18">
-        <v>70</v>
-      </c>
-      <c r="K18">
-        <v>22</v>
-      </c>
-      <c r="L18">
-        <v>55</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18">
-        <v>3</v>
-      </c>
-      <c r="O18">
-        <v>13.6</v>
+      <c r="J18" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>9.95</v>
       </c>
       <c r="P18" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -3770,8 +3453,8 @@
       <c r="C19" t="s">
         <v>152</v>
       </c>
-      <c r="D19">
-        <v>2019</v>
+      <c r="D19" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E19" t="s">
         <v>268</v>
@@ -3782,35 +3465,35 @@
       <c r="G19" t="s">
         <v>502</v>
       </c>
-      <c r="H19">
-        <v>2.5999999999999999E-2</v>
+      <c r="H19" t="n">
+        <v>2.6</v>
       </c>
       <c r="I19" t="s">
         <v>619</v>
       </c>
-      <c r="J19">
-        <v>70</v>
-      </c>
-      <c r="K19">
-        <v>22</v>
-      </c>
-      <c r="L19">
-        <v>55</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-      <c r="O19">
-        <v>13.6</v>
+      <c r="J19" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>9.95</v>
       </c>
       <c r="P19" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -3820,8 +3503,8 @@
       <c r="C20" t="s">
         <v>153</v>
       </c>
-      <c r="D20">
-        <v>2019</v>
+      <c r="D20" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E20" t="s">
         <v>269</v>
@@ -3832,35 +3515,35 @@
       <c r="G20" t="s">
         <v>503</v>
       </c>
-      <c r="H20">
-        <v>2.1000000000000001E-2</v>
+      <c r="H20" t="n">
+        <v>2.1</v>
       </c>
       <c r="I20" t="s">
         <v>620</v>
       </c>
-      <c r="J20">
-        <v>70</v>
-      </c>
-      <c r="K20">
-        <v>22</v>
-      </c>
-      <c r="L20">
-        <v>55</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <v>13.6</v>
+      <c r="J20" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>9.95</v>
       </c>
       <c r="P20" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -3870,8 +3553,8 @@
       <c r="C21" t="s">
         <v>154</v>
       </c>
-      <c r="D21">
-        <v>2019</v>
+      <c r="D21" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E21" t="s">
         <v>270</v>
@@ -3882,35 +3565,35 @@
       <c r="G21" t="s">
         <v>504</v>
       </c>
-      <c r="H21">
-        <v>2.5000000000000001E-2</v>
+      <c r="H21" t="n">
+        <v>2.5</v>
       </c>
       <c r="I21" t="s">
         <v>621</v>
       </c>
-      <c r="J21">
-        <v>70</v>
-      </c>
-      <c r="K21">
-        <v>22</v>
-      </c>
-      <c r="L21">
-        <v>55</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>3</v>
-      </c>
-      <c r="O21">
-        <v>13.6</v>
+      <c r="J21" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>9.95</v>
       </c>
       <c r="P21" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3920,8 +3603,8 @@
       <c r="C22" t="s">
         <v>155</v>
       </c>
-      <c r="D22">
-        <v>2019</v>
+      <c r="D22" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E22" t="s">
         <v>271</v>
@@ -3932,35 +3615,35 @@
       <c r="G22" t="s">
         <v>505</v>
       </c>
-      <c r="H22">
-        <v>0.3</v>
+      <c r="H22" t="n">
+        <v>30.0</v>
       </c>
       <c r="I22" t="s">
         <v>622</v>
       </c>
-      <c r="J22">
-        <v>70</v>
-      </c>
-      <c r="K22">
-        <v>22</v>
-      </c>
-      <c r="L22">
-        <v>55</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-      <c r="N22">
-        <v>3</v>
-      </c>
-      <c r="O22">
-        <v>13.6</v>
+      <c r="J22" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>9.95</v>
       </c>
       <c r="P22" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -3970,8 +3653,8 @@
       <c r="C23" t="s">
         <v>156</v>
       </c>
-      <c r="D23">
-        <v>2018</v>
+      <c r="D23" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E23" t="s">
         <v>272</v>
@@ -3982,35 +3665,35 @@
       <c r="G23" t="s">
         <v>506</v>
       </c>
-      <c r="H23">
-        <v>2.3E-2</v>
+      <c r="H23" t="n">
+        <v>2.3</v>
       </c>
       <c r="I23" t="s">
         <v>623</v>
       </c>
-      <c r="J23">
-        <v>70</v>
-      </c>
-      <c r="K23">
-        <v>22</v>
-      </c>
-      <c r="L23">
-        <v>55</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-      <c r="N23">
-        <v>3</v>
-      </c>
-      <c r="O23">
-        <v>13.6</v>
+      <c r="J23" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>9.95</v>
       </c>
       <c r="P23" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -4020,8 +3703,8 @@
       <c r="C24" t="s">
         <v>157</v>
       </c>
-      <c r="D24">
-        <v>2017</v>
+      <c r="D24" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E24" t="s">
         <v>273</v>
@@ -4032,35 +3715,35 @@
       <c r="G24" t="s">
         <v>507</v>
       </c>
-      <c r="H24">
-        <v>2.7E-2</v>
+      <c r="H24" t="n">
+        <v>2.7</v>
       </c>
       <c r="I24" t="s">
         <v>624</v>
       </c>
-      <c r="J24">
-        <v>70</v>
-      </c>
-      <c r="K24">
-        <v>22</v>
-      </c>
-      <c r="L24">
-        <v>55</v>
-      </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24">
-        <v>3</v>
-      </c>
-      <c r="O24">
-        <v>13.6</v>
+      <c r="J24" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>9.95</v>
       </c>
       <c r="P24" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -4070,8 +3753,8 @@
       <c r="C25" t="s">
         <v>158</v>
       </c>
-      <c r="D25">
-        <v>2019</v>
+      <c r="D25" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E25" t="s">
         <v>274</v>
@@ -4082,35 +3765,35 @@
       <c r="G25" t="s">
         <v>508</v>
       </c>
-      <c r="H25">
-        <v>2.9000000000000001E-2</v>
+      <c r="H25" t="n">
+        <v>2.9000000000000004</v>
       </c>
       <c r="I25" t="s">
         <v>625</v>
       </c>
-      <c r="J25">
-        <v>70</v>
-      </c>
-      <c r="K25">
-        <v>22</v>
-      </c>
-      <c r="L25">
-        <v>55</v>
-      </c>
-      <c r="M25">
-        <v>2</v>
-      </c>
-      <c r="N25">
-        <v>3</v>
-      </c>
-      <c r="O25">
-        <v>13.6</v>
+      <c r="J25" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>9.95</v>
       </c>
       <c r="P25" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -4120,8 +3803,8 @@
       <c r="C26" t="s">
         <v>159</v>
       </c>
-      <c r="D26">
-        <v>2019</v>
+      <c r="D26" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E26" t="s">
         <v>275</v>
@@ -4132,35 +3815,35 @@
       <c r="G26" t="s">
         <v>509</v>
       </c>
-      <c r="H26">
-        <v>3.5999999999999997E-2</v>
+      <c r="H26" t="n">
+        <v>3.5999999999999996</v>
       </c>
       <c r="I26" t="s">
         <v>626</v>
       </c>
-      <c r="J26">
-        <v>70</v>
-      </c>
-      <c r="K26">
-        <v>22</v>
-      </c>
-      <c r="L26">
-        <v>55</v>
-      </c>
-      <c r="M26">
-        <v>2</v>
-      </c>
-      <c r="N26">
-        <v>3</v>
-      </c>
-      <c r="O26">
-        <v>13.6</v>
+      <c r="J26" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>9.95</v>
       </c>
       <c r="P26" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -4170,8 +3853,8 @@
       <c r="C27" t="s">
         <v>160</v>
       </c>
-      <c r="D27">
-        <v>2019</v>
+      <c r="D27" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E27" t="s">
         <v>276</v>
@@ -4182,35 +3865,35 @@
       <c r="G27" t="s">
         <v>510</v>
       </c>
-      <c r="H27">
-        <v>3.1E-2</v>
+      <c r="H27" t="n">
+        <v>3.1</v>
       </c>
       <c r="I27" t="s">
         <v>627</v>
       </c>
-      <c r="J27">
-        <v>70</v>
-      </c>
-      <c r="K27">
-        <v>22</v>
-      </c>
-      <c r="L27">
-        <v>55</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-      <c r="N27">
-        <v>3</v>
-      </c>
-      <c r="O27">
-        <v>13.6</v>
+      <c r="J27" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>9.95</v>
       </c>
       <c r="P27" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -4220,8 +3903,8 @@
       <c r="C28" t="s">
         <v>161</v>
       </c>
-      <c r="D28">
-        <v>2019</v>
+      <c r="D28" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E28" t="s">
         <v>277</v>
@@ -4232,35 +3915,35 @@
       <c r="G28" t="s">
         <v>511</v>
       </c>
-      <c r="H28">
-        <v>3.1E-2</v>
+      <c r="H28" t="n">
+        <v>3.1</v>
       </c>
       <c r="I28" t="s">
         <v>628</v>
       </c>
-      <c r="J28">
-        <v>70</v>
-      </c>
-      <c r="K28">
-        <v>22</v>
-      </c>
-      <c r="L28">
-        <v>55</v>
-      </c>
-      <c r="M28">
-        <v>2</v>
-      </c>
-      <c r="N28">
-        <v>3</v>
-      </c>
-      <c r="O28">
-        <v>13.6</v>
+      <c r="J28" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>9.95</v>
       </c>
       <c r="P28" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -4270,8 +3953,8 @@
       <c r="C29" t="s">
         <v>162</v>
       </c>
-      <c r="D29">
-        <v>2019</v>
+      <c r="D29" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E29" t="s">
         <v>278</v>
@@ -4282,35 +3965,35 @@
       <c r="G29" t="s">
         <v>512</v>
       </c>
-      <c r="H29">
-        <v>2.1000000000000001E-2</v>
+      <c r="H29" t="n">
+        <v>2.1</v>
       </c>
       <c r="I29" t="s">
         <v>629</v>
       </c>
-      <c r="J29">
-        <v>70</v>
-      </c>
-      <c r="K29">
-        <v>22</v>
-      </c>
-      <c r="L29">
-        <v>55</v>
-      </c>
-      <c r="M29">
-        <v>2</v>
-      </c>
-      <c r="N29">
-        <v>3</v>
-      </c>
-      <c r="O29">
-        <v>13.6</v>
+      <c r="J29" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>9.95</v>
       </c>
       <c r="P29" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -4320,8 +4003,8 @@
       <c r="C30" t="s">
         <v>163</v>
       </c>
-      <c r="D30">
-        <v>2019</v>
+      <c r="D30" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E30" t="s">
         <v>279</v>
@@ -4332,35 +4015,35 @@
       <c r="G30" t="s">
         <v>513</v>
       </c>
-      <c r="H30">
-        <v>2.9000000000000001E-2</v>
+      <c r="H30" t="n">
+        <v>2.9000000000000004</v>
       </c>
       <c r="I30" t="s">
         <v>630</v>
       </c>
-      <c r="J30">
-        <v>70</v>
-      </c>
-      <c r="K30">
-        <v>22</v>
-      </c>
-      <c r="L30">
-        <v>55</v>
-      </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="N30">
-        <v>3</v>
-      </c>
-      <c r="O30">
-        <v>13.6</v>
+      <c r="J30" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>9.95</v>
       </c>
       <c r="P30" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -4370,8 +4053,8 @@
       <c r="C31" t="s">
         <v>164</v>
       </c>
-      <c r="D31">
-        <v>2018</v>
+      <c r="D31" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
@@ -4382,35 +4065,35 @@
       <c r="G31" t="s">
         <v>514</v>
       </c>
-      <c r="H31">
-        <v>3.5999999999999997E-2</v>
+      <c r="H31" t="n">
+        <v>3.5999999999999996</v>
       </c>
       <c r="I31" t="s">
         <v>631</v>
       </c>
-      <c r="J31">
-        <v>70</v>
-      </c>
-      <c r="K31">
-        <v>22</v>
-      </c>
-      <c r="L31">
-        <v>55</v>
-      </c>
-      <c r="M31">
-        <v>2</v>
-      </c>
-      <c r="N31">
-        <v>3</v>
-      </c>
-      <c r="O31">
-        <v>13.6</v>
+      <c r="J31" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>9.95</v>
       </c>
       <c r="P31" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -4420,8 +4103,8 @@
       <c r="C32" t="s">
         <v>165</v>
       </c>
-      <c r="D32">
-        <v>2019</v>
+      <c r="D32" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E32" t="s">
         <v>281</v>
@@ -4432,35 +4115,35 @@
       <c r="G32" t="s">
         <v>515</v>
       </c>
-      <c r="H32">
-        <v>2.5000000000000001E-2</v>
+      <c r="H32" t="n">
+        <v>2.5</v>
       </c>
       <c r="I32" t="s">
         <v>632</v>
       </c>
-      <c r="J32">
-        <v>70</v>
-      </c>
-      <c r="K32">
-        <v>22</v>
-      </c>
-      <c r="L32">
-        <v>55</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-      <c r="N32">
-        <v>3</v>
-      </c>
-      <c r="O32">
-        <v>13.6</v>
+      <c r="J32" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>9.95</v>
       </c>
       <c r="P32" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -4470,8 +4153,8 @@
       <c r="C33" t="s">
         <v>166</v>
       </c>
-      <c r="D33">
-        <v>2019</v>
+      <c r="D33" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E33" t="s">
         <v>282</v>
@@ -4482,35 +4165,35 @@
       <c r="G33" t="s">
         <v>516</v>
       </c>
-      <c r="H33">
-        <v>3.3000000000000002E-2</v>
+      <c r="H33" t="n">
+        <v>3.3000000000000003</v>
       </c>
       <c r="I33" t="s">
         <v>633</v>
       </c>
-      <c r="J33">
-        <v>70</v>
-      </c>
-      <c r="K33">
-        <v>22</v>
-      </c>
-      <c r="L33">
-        <v>55</v>
-      </c>
-      <c r="M33">
-        <v>2</v>
-      </c>
-      <c r="N33">
-        <v>3</v>
-      </c>
-      <c r="O33">
-        <v>13.6</v>
+      <c r="J33" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>9.95</v>
       </c>
       <c r="P33" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -4520,8 +4203,8 @@
       <c r="C34" t="s">
         <v>167</v>
       </c>
-      <c r="D34">
-        <v>2019</v>
+      <c r="D34" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E34" t="s">
         <v>283</v>
@@ -4532,35 +4215,35 @@
       <c r="G34" t="s">
         <v>517</v>
       </c>
-      <c r="H34">
-        <v>2.8000000000000001E-2</v>
+      <c r="H34" t="n">
+        <v>2.8000000000000003</v>
       </c>
       <c r="I34" t="s">
         <v>634</v>
       </c>
-      <c r="J34">
-        <v>70</v>
-      </c>
-      <c r="K34">
-        <v>22</v>
-      </c>
-      <c r="L34">
-        <v>55</v>
-      </c>
-      <c r="M34">
-        <v>2</v>
-      </c>
-      <c r="N34">
-        <v>3</v>
-      </c>
-      <c r="O34">
-        <v>13.6</v>
+      <c r="J34" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>9.95</v>
       </c>
       <c r="P34" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -4570,8 +4253,8 @@
       <c r="C35" t="s">
         <v>168</v>
       </c>
-      <c r="D35">
-        <v>2019</v>
+      <c r="D35" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E35" t="s">
         <v>284</v>
@@ -4582,35 +4265,35 @@
       <c r="G35" t="s">
         <v>518</v>
       </c>
-      <c r="H35">
-        <v>3.3000000000000002E-2</v>
+      <c r="H35" t="n">
+        <v>3.3000000000000003</v>
       </c>
       <c r="I35" t="s">
         <v>635</v>
       </c>
-      <c r="J35">
-        <v>70</v>
-      </c>
-      <c r="K35">
-        <v>22</v>
-      </c>
-      <c r="L35">
-        <v>55</v>
-      </c>
-      <c r="M35">
-        <v>2</v>
-      </c>
-      <c r="N35">
-        <v>3</v>
-      </c>
-      <c r="O35">
-        <v>13.6</v>
+      <c r="J35" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>9.95</v>
       </c>
       <c r="P35" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -4620,8 +4303,8 @@
       <c r="C36" t="s">
         <v>169</v>
       </c>
-      <c r="D36">
-        <v>2019</v>
+      <c r="D36" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E36" t="s">
         <v>285</v>
@@ -4632,35 +4315,35 @@
       <c r="G36" t="s">
         <v>519</v>
       </c>
-      <c r="H36">
-        <v>2.9000000000000001E-2</v>
+      <c r="H36" t="n">
+        <v>2.9000000000000004</v>
       </c>
       <c r="I36" t="s">
         <v>636</v>
       </c>
-      <c r="J36">
-        <v>70</v>
-      </c>
-      <c r="K36">
-        <v>22</v>
-      </c>
-      <c r="L36">
-        <v>55</v>
-      </c>
-      <c r="M36">
-        <v>2</v>
-      </c>
-      <c r="N36">
-        <v>3</v>
-      </c>
-      <c r="O36">
-        <v>13.6</v>
+      <c r="J36" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>9.95</v>
       </c>
       <c r="P36" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -4670,8 +4353,8 @@
       <c r="C37" t="s">
         <v>170</v>
       </c>
-      <c r="D37">
-        <v>2019</v>
+      <c r="D37" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E37" t="s">
         <v>286</v>
@@ -4682,35 +4365,35 @@
       <c r="G37" t="s">
         <v>520</v>
       </c>
-      <c r="H37">
-        <v>3.7999999999999999E-2</v>
+      <c r="H37" t="n">
+        <v>3.8</v>
       </c>
       <c r="I37" t="s">
         <v>637</v>
       </c>
-      <c r="J37">
-        <v>70</v>
-      </c>
-      <c r="K37">
-        <v>22</v>
-      </c>
-      <c r="L37">
-        <v>55</v>
-      </c>
-      <c r="M37">
-        <v>2</v>
-      </c>
-      <c r="N37">
-        <v>3</v>
-      </c>
-      <c r="O37">
-        <v>13.6</v>
+      <c r="J37" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>9.95</v>
       </c>
       <c r="P37" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -4720,8 +4403,8 @@
       <c r="C38" t="s">
         <v>171</v>
       </c>
-      <c r="D38">
-        <v>2019</v>
+      <c r="D38" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E38" t="s">
         <v>287</v>
@@ -4732,35 +4415,35 @@
       <c r="G38" t="s">
         <v>521</v>
       </c>
-      <c r="H38">
-        <v>2.9000000000000001E-2</v>
+      <c r="H38" t="n">
+        <v>2.9000000000000004</v>
       </c>
       <c r="I38" t="s">
         <v>638</v>
       </c>
-      <c r="J38">
-        <v>70</v>
-      </c>
-      <c r="K38">
-        <v>22</v>
-      </c>
-      <c r="L38">
-        <v>55</v>
-      </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
-      <c r="N38">
-        <v>3</v>
-      </c>
-      <c r="O38">
-        <v>13.6</v>
+      <c r="J38" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>9.95</v>
       </c>
       <c r="P38" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -4770,8 +4453,8 @@
       <c r="C39" t="s">
         <v>172</v>
       </c>
-      <c r="D39">
-        <v>2019</v>
+      <c r="D39" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E39" t="s">
         <v>288</v>
@@ -4782,35 +4465,35 @@
       <c r="G39" t="s">
         <v>522</v>
       </c>
-      <c r="H39">
-        <v>3.2000000000000001E-2</v>
+      <c r="H39" t="n">
+        <v>3.2</v>
       </c>
       <c r="I39" t="s">
         <v>639</v>
       </c>
-      <c r="J39">
-        <v>70</v>
-      </c>
-      <c r="K39">
-        <v>22</v>
-      </c>
-      <c r="L39">
-        <v>55</v>
-      </c>
-      <c r="M39">
-        <v>2</v>
-      </c>
-      <c r="N39">
-        <v>3</v>
-      </c>
-      <c r="O39">
-        <v>13.6</v>
+      <c r="J39" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>9.95</v>
       </c>
       <c r="P39" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -4820,8 +4503,8 @@
       <c r="C40" t="s">
         <v>173</v>
       </c>
-      <c r="D40">
-        <v>2019</v>
+      <c r="D40" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E40" t="s">
         <v>289</v>
@@ -4832,35 +4515,35 @@
       <c r="G40" t="s">
         <v>523</v>
       </c>
-      <c r="H40">
-        <v>0.03</v>
+      <c r="H40" t="n">
+        <v>3.0</v>
       </c>
       <c r="I40" t="s">
         <v>640</v>
       </c>
-      <c r="J40">
-        <v>70</v>
-      </c>
-      <c r="K40">
-        <v>22</v>
-      </c>
-      <c r="L40">
-        <v>55</v>
-      </c>
-      <c r="M40">
-        <v>2</v>
-      </c>
-      <c r="N40">
-        <v>3</v>
-      </c>
-      <c r="O40">
-        <v>13.6</v>
+      <c r="J40" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>9.95</v>
       </c>
       <c r="P40" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -4870,8 +4553,8 @@
       <c r="C41" t="s">
         <v>174</v>
       </c>
-      <c r="D41">
-        <v>2019</v>
+      <c r="D41" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E41" t="s">
         <v>290</v>
@@ -4882,35 +4565,35 @@
       <c r="G41" t="s">
         <v>524</v>
       </c>
-      <c r="H41">
-        <v>3.6999999999999998E-2</v>
+      <c r="H41" t="n">
+        <v>3.6999999999999997</v>
       </c>
       <c r="I41" t="s">
         <v>641</v>
       </c>
-      <c r="J41">
-        <v>70</v>
-      </c>
-      <c r="K41">
-        <v>22</v>
-      </c>
-      <c r="L41">
-        <v>55</v>
-      </c>
-      <c r="M41">
-        <v>2</v>
-      </c>
-      <c r="N41">
-        <v>3</v>
-      </c>
-      <c r="O41">
-        <v>13.6</v>
+      <c r="J41" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>9.95</v>
       </c>
       <c r="P41" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -4920,8 +4603,8 @@
       <c r="C42" t="s">
         <v>175</v>
       </c>
-      <c r="D42">
-        <v>2017</v>
+      <c r="D42" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E42" t="s">
         <v>291</v>
@@ -4932,35 +4615,35 @@
       <c r="G42" t="s">
         <v>525</v>
       </c>
-      <c r="H42">
-        <v>4.1000000000000002E-2</v>
+      <c r="H42" t="n">
+        <v>4.1000000000000005</v>
       </c>
       <c r="I42" t="s">
         <v>642</v>
       </c>
-      <c r="J42">
-        <v>70</v>
-      </c>
-      <c r="K42">
-        <v>22</v>
-      </c>
-      <c r="L42">
-        <v>55</v>
-      </c>
-      <c r="M42">
-        <v>2</v>
-      </c>
-      <c r="N42">
-        <v>3</v>
-      </c>
-      <c r="O42">
-        <v>13.6</v>
+      <c r="J42" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>9.95</v>
       </c>
       <c r="P42" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -4970,8 +4653,8 @@
       <c r="C43" t="s">
         <v>176</v>
       </c>
-      <c r="D43">
-        <v>2019</v>
+      <c r="D43" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E43" t="s">
         <v>292</v>
@@ -4982,35 +4665,35 @@
       <c r="G43" t="s">
         <v>526</v>
       </c>
-      <c r="H43">
-        <v>3.9E-2</v>
+      <c r="H43" t="n">
+        <v>3.9</v>
       </c>
       <c r="I43" t="s">
         <v>643</v>
       </c>
-      <c r="J43">
-        <v>70</v>
-      </c>
-      <c r="K43">
-        <v>22</v>
-      </c>
-      <c r="L43">
-        <v>55</v>
-      </c>
-      <c r="M43">
-        <v>2</v>
-      </c>
-      <c r="N43">
-        <v>3</v>
-      </c>
-      <c r="O43">
-        <v>13.6</v>
+      <c r="J43" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>9.95</v>
       </c>
       <c r="P43" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -5020,8 +4703,8 @@
       <c r="C44" t="s">
         <v>177</v>
       </c>
-      <c r="D44">
-        <v>2019</v>
+      <c r="D44" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E44" t="s">
         <v>293</v>
@@ -5032,35 +4715,35 @@
       <c r="G44" t="s">
         <v>527</v>
       </c>
-      <c r="H44">
-        <v>3.1E-2</v>
+      <c r="H44" t="n">
+        <v>3.1</v>
       </c>
       <c r="I44" t="s">
         <v>644</v>
       </c>
-      <c r="J44">
-        <v>70</v>
-      </c>
-      <c r="K44">
-        <v>22</v>
-      </c>
-      <c r="L44">
-        <v>55</v>
-      </c>
-      <c r="M44">
-        <v>2</v>
-      </c>
-      <c r="N44">
-        <v>3</v>
-      </c>
-      <c r="O44">
-        <v>13.6</v>
+      <c r="J44" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>9.95</v>
       </c>
       <c r="P44" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -5070,8 +4753,8 @@
       <c r="C45" t="s">
         <v>178</v>
       </c>
-      <c r="D45">
-        <v>2019</v>
+      <c r="D45" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E45" t="s">
         <v>294</v>
@@ -5082,35 +4765,35 @@
       <c r="G45" t="s">
         <v>528</v>
       </c>
-      <c r="H45">
-        <v>2.9000000000000001E-2</v>
+      <c r="H45" t="n">
+        <v>2.9000000000000004</v>
       </c>
       <c r="I45" t="s">
         <v>645</v>
       </c>
-      <c r="J45">
-        <v>70</v>
-      </c>
-      <c r="K45">
-        <v>22</v>
-      </c>
-      <c r="L45">
-        <v>55</v>
-      </c>
-      <c r="M45">
-        <v>2</v>
-      </c>
-      <c r="N45">
-        <v>3</v>
-      </c>
-      <c r="O45">
-        <v>13.6</v>
+      <c r="J45" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>9.95</v>
       </c>
       <c r="P45" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -5120,8 +4803,8 @@
       <c r="C46" t="s">
         <v>179</v>
       </c>
-      <c r="D46">
-        <v>2019</v>
+      <c r="D46" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E46" t="s">
         <v>295</v>
@@ -5132,35 +4815,35 @@
       <c r="G46" t="s">
         <v>529</v>
       </c>
-      <c r="H46">
-        <v>0.04</v>
+      <c r="H46" t="n">
+        <v>4.0</v>
       </c>
       <c r="I46" t="s">
         <v>646</v>
       </c>
-      <c r="J46">
-        <v>70</v>
-      </c>
-      <c r="K46">
-        <v>22</v>
-      </c>
-      <c r="L46">
-        <v>55</v>
-      </c>
-      <c r="M46">
-        <v>2</v>
-      </c>
-      <c r="N46">
-        <v>3</v>
-      </c>
-      <c r="O46">
-        <v>13.6</v>
+      <c r="J46" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>9.95</v>
       </c>
       <c r="P46" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -5170,8 +4853,8 @@
       <c r="C47" t="s">
         <v>180</v>
       </c>
-      <c r="D47">
-        <v>2019</v>
+      <c r="D47" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E47" t="s">
         <v>296</v>
@@ -5182,35 +4865,35 @@
       <c r="G47" t="s">
         <v>530</v>
       </c>
-      <c r="H47">
-        <v>2.5000000000000001E-2</v>
+      <c r="H47" t="n">
+        <v>2.5</v>
       </c>
       <c r="I47" t="s">
         <v>647</v>
       </c>
-      <c r="J47">
-        <v>70</v>
-      </c>
-      <c r="K47">
-        <v>22</v>
-      </c>
-      <c r="L47">
-        <v>55</v>
-      </c>
-      <c r="M47">
-        <v>2</v>
-      </c>
-      <c r="N47">
-        <v>3</v>
-      </c>
-      <c r="O47">
-        <v>13.6</v>
+      <c r="J47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>9.95</v>
       </c>
       <c r="P47" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -5220,8 +4903,8 @@
       <c r="C48" t="s">
         <v>181</v>
       </c>
-      <c r="D48">
-        <v>2017</v>
+      <c r="D48" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E48" t="s">
         <v>297</v>
@@ -5232,35 +4915,35 @@
       <c r="G48" t="s">
         <v>531</v>
       </c>
-      <c r="H48">
-        <v>3.9E-2</v>
+      <c r="H48" t="n">
+        <v>3.9</v>
       </c>
       <c r="I48" t="s">
         <v>648</v>
       </c>
-      <c r="J48">
-        <v>70</v>
-      </c>
-      <c r="K48">
-        <v>22</v>
-      </c>
-      <c r="L48">
-        <v>55</v>
-      </c>
-      <c r="M48">
-        <v>2</v>
-      </c>
-      <c r="N48">
-        <v>3</v>
-      </c>
-      <c r="O48">
-        <v>13.6</v>
+      <c r="J48" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>9.95</v>
       </c>
       <c r="P48" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -5270,8 +4953,8 @@
       <c r="C49" t="s">
         <v>182</v>
       </c>
-      <c r="D49">
-        <v>2019</v>
+      <c r="D49" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E49" t="s">
         <v>298</v>
@@ -5282,35 +4965,35 @@
       <c r="G49" t="s">
         <v>532</v>
       </c>
-      <c r="H49">
-        <v>3.7999999999999999E-2</v>
+      <c r="H49" t="n">
+        <v>3.8</v>
       </c>
       <c r="I49" t="s">
         <v>649</v>
       </c>
-      <c r="J49">
-        <v>70</v>
-      </c>
-      <c r="K49">
-        <v>22</v>
-      </c>
-      <c r="L49">
-        <v>55</v>
-      </c>
-      <c r="M49">
-        <v>2</v>
-      </c>
-      <c r="N49">
-        <v>3</v>
-      </c>
-      <c r="O49">
-        <v>13.6</v>
+      <c r="J49" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>9.95</v>
       </c>
       <c r="P49" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -5320,8 +5003,8 @@
       <c r="C50" t="s">
         <v>183</v>
       </c>
-      <c r="D50">
-        <v>2019</v>
+      <c r="D50" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E50" t="s">
         <v>299</v>
@@ -5332,35 +5015,35 @@
       <c r="G50" t="s">
         <v>533</v>
       </c>
-      <c r="H50">
-        <v>5.7000000000000002E-2</v>
+      <c r="H50" t="n">
+        <v>5.7</v>
       </c>
       <c r="I50" t="s">
         <v>650</v>
       </c>
-      <c r="J50">
-        <v>70</v>
-      </c>
-      <c r="K50">
-        <v>22</v>
-      </c>
-      <c r="L50">
-        <v>55</v>
-      </c>
-      <c r="M50">
-        <v>2</v>
-      </c>
-      <c r="N50">
-        <v>3</v>
-      </c>
-      <c r="O50">
-        <v>13.6</v>
+      <c r="J50" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>9.95</v>
       </c>
       <c r="P50" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -5370,8 +5053,8 @@
       <c r="C51" t="s">
         <v>184</v>
       </c>
-      <c r="D51">
-        <v>2019</v>
+      <c r="D51" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E51" t="s">
         <v>300</v>
@@ -5382,35 +5065,35 @@
       <c r="G51" t="s">
         <v>534</v>
       </c>
-      <c r="H51">
-        <v>0.03</v>
+      <c r="H51" t="n">
+        <v>3.0</v>
       </c>
       <c r="I51" t="s">
         <v>651</v>
       </c>
-      <c r="J51">
-        <v>70</v>
-      </c>
-      <c r="K51">
-        <v>22</v>
-      </c>
-      <c r="L51">
-        <v>55</v>
-      </c>
-      <c r="M51">
-        <v>2</v>
-      </c>
-      <c r="N51">
-        <v>3</v>
-      </c>
-      <c r="O51">
-        <v>13.6</v>
+      <c r="J51" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>9.95</v>
       </c>
       <c r="P51" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -5420,8 +5103,8 @@
       <c r="C52" t="s">
         <v>185</v>
       </c>
-      <c r="D52">
-        <v>2010</v>
+      <c r="D52" t="n">
+        <v>2010.0</v>
       </c>
       <c r="E52" t="s">
         <v>301</v>
@@ -5432,35 +5115,35 @@
       <c r="G52" t="s">
         <v>535</v>
       </c>
-      <c r="H52">
-        <v>5.8000000000000003E-2</v>
+      <c r="H52" t="n">
+        <v>5.800000000000001</v>
       </c>
       <c r="I52" t="s">
         <v>652</v>
       </c>
-      <c r="J52">
-        <v>70</v>
-      </c>
-      <c r="K52">
-        <v>22</v>
-      </c>
-      <c r="L52">
-        <v>55</v>
-      </c>
-      <c r="M52">
-        <v>2</v>
-      </c>
-      <c r="N52">
-        <v>3</v>
-      </c>
-      <c r="O52">
-        <v>13.6</v>
+      <c r="J52" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>9.95</v>
       </c>
       <c r="P52" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -5470,8 +5153,8 @@
       <c r="C53" t="s">
         <v>186</v>
       </c>
-      <c r="D53">
-        <v>2018</v>
+      <c r="D53" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E53" t="s">
         <v>302</v>
@@ -5482,35 +5165,35 @@
       <c r="G53" t="s">
         <v>536</v>
       </c>
-      <c r="H53">
-        <v>4.1000000000000002E-2</v>
+      <c r="H53" t="n">
+        <v>4.1000000000000005</v>
       </c>
       <c r="I53" t="s">
         <v>653</v>
       </c>
-      <c r="J53">
-        <v>70</v>
-      </c>
-      <c r="K53">
-        <v>22</v>
-      </c>
-      <c r="L53">
-        <v>55</v>
-      </c>
-      <c r="M53">
-        <v>2</v>
-      </c>
-      <c r="N53">
-        <v>3</v>
-      </c>
-      <c r="O53">
-        <v>13.6</v>
+      <c r="J53" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>9.95</v>
       </c>
       <c r="P53" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -5520,8 +5203,8 @@
       <c r="C54" t="s">
         <v>187</v>
       </c>
-      <c r="D54">
-        <v>2009</v>
+      <c r="D54" t="n">
+        <v>2009.0</v>
       </c>
       <c r="E54" t="s">
         <v>303</v>
@@ -5532,35 +5215,35 @@
       <c r="G54" t="s">
         <v>537</v>
       </c>
-      <c r="H54">
-        <v>4.5999999999999999E-2</v>
+      <c r="H54" t="n">
+        <v>4.6</v>
       </c>
       <c r="I54" t="s">
         <v>654</v>
       </c>
-      <c r="J54">
-        <v>70</v>
-      </c>
-      <c r="K54">
-        <v>22</v>
-      </c>
-      <c r="L54">
-        <v>55</v>
-      </c>
-      <c r="M54">
-        <v>2</v>
-      </c>
-      <c r="N54">
-        <v>3</v>
-      </c>
-      <c r="O54">
-        <v>13.6</v>
+      <c r="J54" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>9.95</v>
       </c>
       <c r="P54" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -5570,8 +5253,8 @@
       <c r="C55" t="s">
         <v>188</v>
       </c>
-      <c r="D55">
-        <v>2019</v>
+      <c r="D55" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E55" t="s">
         <v>304</v>
@@ -5582,35 +5265,35 @@
       <c r="G55" t="s">
         <v>538</v>
       </c>
-      <c r="H55">
-        <v>4.9000000000000002E-2</v>
+      <c r="H55" t="n">
+        <v>4.9</v>
       </c>
       <c r="I55" t="s">
         <v>655</v>
       </c>
-      <c r="J55">
-        <v>70</v>
-      </c>
-      <c r="K55">
-        <v>22</v>
-      </c>
-      <c r="L55">
-        <v>55</v>
-      </c>
-      <c r="M55">
-        <v>2</v>
-      </c>
-      <c r="N55">
-        <v>3</v>
-      </c>
-      <c r="O55">
-        <v>13.6</v>
+      <c r="J55" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>9.95</v>
       </c>
       <c r="P55" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -5620,8 +5303,8 @@
       <c r="C56" t="s">
         <v>189</v>
       </c>
-      <c r="D56">
-        <v>2019</v>
+      <c r="D56" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E56" t="s">
         <v>305</v>
@@ -5632,35 +5315,35 @@
       <c r="G56" t="s">
         <v>539</v>
       </c>
-      <c r="H56">
-        <v>3.5000000000000003E-2</v>
+      <c r="H56" t="n">
+        <v>3.5000000000000004</v>
       </c>
       <c r="I56" t="s">
         <v>656</v>
       </c>
-      <c r="J56">
-        <v>70</v>
-      </c>
-      <c r="K56">
-        <v>22</v>
-      </c>
-      <c r="L56">
-        <v>55</v>
-      </c>
-      <c r="M56">
-        <v>2</v>
-      </c>
-      <c r="N56">
-        <v>3</v>
-      </c>
-      <c r="O56">
-        <v>13.6</v>
+      <c r="J56" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>9.95</v>
       </c>
       <c r="P56" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -5670,8 +5353,8 @@
       <c r="C57" t="s">
         <v>190</v>
       </c>
-      <c r="D57">
-        <v>2019</v>
+      <c r="D57" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E57" t="s">
         <v>306</v>
@@ -5682,35 +5365,35 @@
       <c r="G57" t="s">
         <v>540</v>
       </c>
-      <c r="H57">
-        <v>3.4000000000000002E-2</v>
+      <c r="H57" t="n">
+        <v>3.4000000000000004</v>
       </c>
       <c r="I57" t="s">
         <v>657</v>
       </c>
-      <c r="J57">
-        <v>70</v>
-      </c>
-      <c r="K57">
-        <v>22</v>
-      </c>
-      <c r="L57">
-        <v>55</v>
-      </c>
-      <c r="M57">
-        <v>2</v>
-      </c>
-      <c r="N57">
-        <v>3</v>
-      </c>
-      <c r="O57">
-        <v>13.6</v>
+      <c r="J57" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>9.95</v>
       </c>
       <c r="P57" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -5720,8 +5403,8 @@
       <c r="C58" t="s">
         <v>191</v>
       </c>
-      <c r="D58">
-        <v>2018</v>
+      <c r="D58" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E58" t="s">
         <v>307</v>
@@ -5732,35 +5415,35 @@
       <c r="G58" t="s">
         <v>541</v>
       </c>
-      <c r="H58">
-        <v>2.8000000000000001E-2</v>
+      <c r="H58" t="n">
+        <v>2.8000000000000003</v>
       </c>
       <c r="I58" t="s">
         <v>658</v>
       </c>
-      <c r="J58">
-        <v>70</v>
-      </c>
-      <c r="K58">
-        <v>22</v>
-      </c>
-      <c r="L58">
-        <v>55</v>
-      </c>
-      <c r="M58">
-        <v>2</v>
-      </c>
-      <c r="N58">
-        <v>3</v>
-      </c>
-      <c r="O58">
-        <v>13.6</v>
+      <c r="J58" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>9.95</v>
       </c>
       <c r="P58" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -5770,8 +5453,8 @@
       <c r="C59" t="s">
         <v>192</v>
       </c>
-      <c r="D59">
-        <v>2019</v>
+      <c r="D59" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E59" t="s">
         <v>308</v>
@@ -5782,35 +5465,35 @@
       <c r="G59" t="s">
         <v>542</v>
       </c>
-      <c r="H59">
-        <v>3.2000000000000001E-2</v>
+      <c r="H59" t="n">
+        <v>3.2</v>
       </c>
       <c r="I59" t="s">
         <v>659</v>
       </c>
-      <c r="J59">
-        <v>70</v>
-      </c>
-      <c r="K59">
-        <v>22</v>
-      </c>
-      <c r="L59">
-        <v>55</v>
-      </c>
-      <c r="M59">
-        <v>2</v>
-      </c>
-      <c r="N59">
-        <v>3</v>
-      </c>
-      <c r="O59">
-        <v>13.6</v>
+      <c r="J59" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>9.95</v>
       </c>
       <c r="P59" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -5820,8 +5503,8 @@
       <c r="C60" t="s">
         <v>193</v>
       </c>
-      <c r="D60">
-        <v>2017</v>
+      <c r="D60" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E60" t="s">
         <v>309</v>
@@ -5832,35 +5515,35 @@
       <c r="G60" t="s">
         <v>543</v>
       </c>
-      <c r="H60">
-        <v>4.7E-2</v>
+      <c r="H60" t="n">
+        <v>4.7</v>
       </c>
       <c r="I60" t="s">
         <v>660</v>
       </c>
-      <c r="J60">
-        <v>70</v>
-      </c>
-      <c r="K60">
-        <v>22</v>
-      </c>
-      <c r="L60">
-        <v>55</v>
-      </c>
-      <c r="M60">
-        <v>2</v>
-      </c>
-      <c r="N60">
-        <v>3</v>
-      </c>
-      <c r="O60">
-        <v>13.6</v>
+      <c r="J60" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>9.95</v>
       </c>
       <c r="P60" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -5870,8 +5553,8 @@
       <c r="C61" t="s">
         <v>194</v>
       </c>
-      <c r="D61">
-        <v>2018</v>
+      <c r="D61" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E61" t="s">
         <v>310</v>
@@ -5882,35 +5565,35 @@
       <c r="G61" t="s">
         <v>544</v>
       </c>
-      <c r="H61">
-        <v>3.7999999999999999E-2</v>
+      <c r="H61" t="n">
+        <v>3.8</v>
       </c>
       <c r="I61" t="s">
         <v>661</v>
       </c>
-      <c r="J61">
-        <v>70</v>
-      </c>
-      <c r="K61">
-        <v>22</v>
-      </c>
-      <c r="L61">
-        <v>55</v>
-      </c>
-      <c r="M61">
-        <v>2</v>
-      </c>
-      <c r="N61">
-        <v>3</v>
-      </c>
-      <c r="O61">
-        <v>13.6</v>
+      <c r="J61" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>9.95</v>
       </c>
       <c r="P61" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -5920,8 +5603,8 @@
       <c r="C62" t="s">
         <v>195</v>
       </c>
-      <c r="D62">
-        <v>2019</v>
+      <c r="D62" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E62" t="s">
         <v>311</v>
@@ -5932,35 +5615,35 @@
       <c r="G62" t="s">
         <v>545</v>
       </c>
-      <c r="H62">
-        <v>7.0999999999999994E-2</v>
+      <c r="H62" t="n">
+        <v>7.1</v>
       </c>
       <c r="I62" t="s">
         <v>662</v>
       </c>
-      <c r="J62">
-        <v>70</v>
-      </c>
-      <c r="K62">
-        <v>22</v>
-      </c>
-      <c r="L62">
-        <v>55</v>
-      </c>
-      <c r="M62">
-        <v>2</v>
-      </c>
-      <c r="N62">
-        <v>3</v>
-      </c>
-      <c r="O62">
-        <v>13.6</v>
+      <c r="J62" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>9.95</v>
       </c>
       <c r="P62" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -5970,8 +5653,8 @@
       <c r="C63" t="s">
         <v>196</v>
       </c>
-      <c r="D63">
-        <v>2019</v>
+      <c r="D63" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E63" t="s">
         <v>312</v>
@@ -5982,35 +5665,35 @@
       <c r="G63" t="s">
         <v>546</v>
       </c>
-      <c r="H63">
-        <v>2.8000000000000001E-2</v>
+      <c r="H63" t="n">
+        <v>2.8000000000000003</v>
       </c>
       <c r="I63" t="s">
         <v>663</v>
       </c>
-      <c r="J63">
-        <v>70</v>
-      </c>
-      <c r="K63">
-        <v>22</v>
-      </c>
-      <c r="L63">
-        <v>55</v>
-      </c>
-      <c r="M63">
-        <v>2</v>
-      </c>
-      <c r="N63">
-        <v>3</v>
-      </c>
-      <c r="O63">
-        <v>13.6</v>
+      <c r="J63" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>9.95</v>
       </c>
       <c r="P63" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -6020,8 +5703,8 @@
       <c r="C64" t="s">
         <v>197</v>
       </c>
-      <c r="D64">
-        <v>2017</v>
+      <c r="D64" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E64" t="s">
         <v>313</v>
@@ -6032,35 +5715,35 @@
       <c r="G64" t="s">
         <v>547</v>
       </c>
-      <c r="H64">
-        <v>3.4000000000000002E-2</v>
+      <c r="H64" t="n">
+        <v>3.4000000000000004</v>
       </c>
       <c r="I64" t="s">
         <v>664</v>
       </c>
-      <c r="J64">
-        <v>70</v>
-      </c>
-      <c r="K64">
-        <v>22</v>
-      </c>
-      <c r="L64">
-        <v>55</v>
-      </c>
-      <c r="M64">
-        <v>2</v>
-      </c>
-      <c r="N64">
-        <v>3</v>
-      </c>
-      <c r="O64">
-        <v>13.6</v>
+      <c r="J64" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>9.95</v>
       </c>
       <c r="P64" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -6070,8 +5753,8 @@
       <c r="C65" t="s">
         <v>198</v>
       </c>
-      <c r="D65">
-        <v>2016</v>
+      <c r="D65" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E65" t="s">
         <v>314</v>
@@ -6082,35 +5765,35 @@
       <c r="G65" t="s">
         <v>548</v>
       </c>
-      <c r="H65">
-        <v>5.1999999999999998E-2</v>
+      <c r="H65" t="n">
+        <v>5.2</v>
       </c>
       <c r="I65" t="s">
         <v>665</v>
       </c>
-      <c r="J65">
-        <v>70</v>
-      </c>
-      <c r="K65">
-        <v>22</v>
-      </c>
-      <c r="L65">
-        <v>55</v>
-      </c>
-      <c r="M65">
-        <v>2</v>
-      </c>
-      <c r="N65">
-        <v>3</v>
-      </c>
-      <c r="O65">
-        <v>13.6</v>
+      <c r="J65" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>9.95</v>
       </c>
       <c r="P65" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -6120,8 +5803,8 @@
       <c r="C66" t="s">
         <v>199</v>
       </c>
-      <c r="D66">
-        <v>2019</v>
+      <c r="D66" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E66" t="s">
         <v>315</v>
@@ -6132,35 +5815,35 @@
       <c r="G66" t="s">
         <v>549</v>
       </c>
-      <c r="H66">
-        <v>3.3000000000000002E-2</v>
+      <c r="H66" t="n">
+        <v>3.3000000000000003</v>
       </c>
       <c r="I66" t="s">
         <v>666</v>
       </c>
-      <c r="J66">
-        <v>70</v>
-      </c>
-      <c r="K66">
-        <v>22</v>
-      </c>
-      <c r="L66">
-        <v>55</v>
-      </c>
-      <c r="M66">
-        <v>2</v>
-      </c>
-      <c r="N66">
-        <v>3</v>
-      </c>
-      <c r="O66">
-        <v>13.6</v>
+      <c r="J66" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>9.95</v>
       </c>
       <c r="P66" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -6170,8 +5853,8 @@
       <c r="C67" t="s">
         <v>200</v>
       </c>
-      <c r="D67">
-        <v>2017</v>
+      <c r="D67" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E67" t="s">
         <v>316</v>
@@ -6182,35 +5865,35 @@
       <c r="G67" t="s">
         <v>550</v>
       </c>
-      <c r="H67">
-        <v>0.05</v>
+      <c r="H67" t="n">
+        <v>5.0</v>
       </c>
       <c r="I67" t="s">
         <v>667</v>
       </c>
-      <c r="J67">
-        <v>70</v>
-      </c>
-      <c r="K67">
-        <v>22</v>
-      </c>
-      <c r="L67">
-        <v>55</v>
-      </c>
-      <c r="M67">
-        <v>2</v>
-      </c>
-      <c r="N67">
-        <v>3</v>
-      </c>
-      <c r="O67">
-        <v>13.6</v>
+      <c r="J67" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>9.95</v>
       </c>
       <c r="P67" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -6220,8 +5903,8 @@
       <c r="C68" t="s">
         <v>201</v>
       </c>
-      <c r="D68">
-        <v>2017</v>
+      <c r="D68" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E68" t="s">
         <v>317</v>
@@ -6232,35 +5915,35 @@
       <c r="G68" t="s">
         <v>551</v>
       </c>
-      <c r="H68">
-        <v>0.08</v>
+      <c r="H68" t="n">
+        <v>8.0</v>
       </c>
       <c r="I68" t="s">
         <v>668</v>
       </c>
-      <c r="J68">
-        <v>70</v>
-      </c>
-      <c r="K68">
-        <v>22</v>
-      </c>
-      <c r="L68">
-        <v>55</v>
-      </c>
-      <c r="M68">
-        <v>2</v>
-      </c>
-      <c r="N68">
-        <v>3</v>
-      </c>
-      <c r="O68">
-        <v>13.6</v>
+      <c r="J68" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>9.95</v>
       </c>
       <c r="P68" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -6270,8 +5953,8 @@
       <c r="C69" t="s">
         <v>202</v>
       </c>
-      <c r="D69">
-        <v>2019</v>
+      <c r="D69" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E69" t="s">
         <v>318</v>
@@ -6282,35 +5965,35 @@
       <c r="G69" t="s">
         <v>552</v>
       </c>
-      <c r="H69">
-        <v>2.1999999999999999E-2</v>
+      <c r="H69" t="n">
+        <v>2.1999999999999997</v>
       </c>
       <c r="I69" t="s">
         <v>669</v>
       </c>
-      <c r="J69">
-        <v>70</v>
-      </c>
-      <c r="K69">
-        <v>22</v>
-      </c>
-      <c r="L69">
-        <v>55</v>
-      </c>
-      <c r="M69">
-        <v>2</v>
-      </c>
-      <c r="N69">
-        <v>3</v>
-      </c>
-      <c r="O69">
-        <v>13.6</v>
+      <c r="J69" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>9.95</v>
       </c>
       <c r="P69" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -6320,8 +6003,8 @@
       <c r="C70" t="s">
         <v>203</v>
       </c>
-      <c r="D70">
-        <v>2019</v>
+      <c r="D70" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E70" t="s">
         <v>319</v>
@@ -6332,35 +6015,35 @@
       <c r="G70" t="s">
         <v>553</v>
       </c>
-      <c r="H70">
-        <v>4.3999999999999997E-2</v>
+      <c r="H70" t="n">
+        <v>4.3999999999999995</v>
       </c>
       <c r="I70" t="s">
         <v>670</v>
       </c>
-      <c r="J70">
-        <v>70</v>
-      </c>
-      <c r="K70">
-        <v>22</v>
-      </c>
-      <c r="L70">
-        <v>55</v>
-      </c>
-      <c r="M70">
-        <v>2</v>
-      </c>
-      <c r="N70">
-        <v>3</v>
-      </c>
-      <c r="O70">
-        <v>13.6</v>
+      <c r="J70" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>9.95</v>
       </c>
       <c r="P70" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -6370,8 +6053,8 @@
       <c r="C71" t="s">
         <v>204</v>
       </c>
-      <c r="D71">
-        <v>2019</v>
+      <c r="D71" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E71" t="s">
         <v>320</v>
@@ -6382,35 +6065,35 @@
       <c r="G71" t="s">
         <v>554</v>
       </c>
-      <c r="H71">
-        <v>4.2000000000000003E-2</v>
+      <c r="H71" t="n">
+        <v>4.2</v>
       </c>
       <c r="I71" t="s">
         <v>671</v>
       </c>
-      <c r="J71">
-        <v>70</v>
-      </c>
-      <c r="K71">
-        <v>22</v>
-      </c>
-      <c r="L71">
-        <v>55</v>
-      </c>
-      <c r="M71">
-        <v>2</v>
-      </c>
-      <c r="N71">
-        <v>3</v>
-      </c>
-      <c r="O71">
-        <v>13.6</v>
+      <c r="J71" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>9.95</v>
       </c>
       <c r="P71" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -6420,8 +6103,8 @@
       <c r="C72" t="s">
         <v>205</v>
       </c>
-      <c r="D72">
-        <v>2018</v>
+      <c r="D72" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E72" t="s">
         <v>321</v>
@@ -6432,35 +6115,35 @@
       <c r="G72" t="s">
         <v>555</v>
       </c>
-      <c r="H72">
-        <v>4.1000000000000002E-2</v>
+      <c r="H72" t="n">
+        <v>4.1000000000000005</v>
       </c>
       <c r="I72" t="s">
         <v>672</v>
       </c>
-      <c r="J72">
-        <v>70</v>
-      </c>
-      <c r="K72">
-        <v>22</v>
-      </c>
-      <c r="L72">
-        <v>55</v>
-      </c>
-      <c r="M72">
-        <v>2</v>
-      </c>
-      <c r="N72">
-        <v>3</v>
-      </c>
-      <c r="O72">
-        <v>13.6</v>
+      <c r="J72" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>9.95</v>
       </c>
       <c r="P72" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -6470,8 +6153,8 @@
       <c r="C73" t="s">
         <v>206</v>
       </c>
-      <c r="D73">
-        <v>2019</v>
+      <c r="D73" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E73" t="s">
         <v>322</v>
@@ -6482,35 +6165,35 @@
       <c r="G73" t="s">
         <v>556</v>
       </c>
-      <c r="H73">
-        <v>2.5000000000000001E-2</v>
+      <c r="H73" t="n">
+        <v>2.5</v>
       </c>
       <c r="I73" t="s">
         <v>673</v>
       </c>
-      <c r="J73">
-        <v>70</v>
-      </c>
-      <c r="K73">
-        <v>22</v>
-      </c>
-      <c r="L73">
-        <v>55</v>
-      </c>
-      <c r="M73">
-        <v>2</v>
-      </c>
-      <c r="N73">
-        <v>3</v>
-      </c>
-      <c r="O73">
-        <v>13.6</v>
+      <c r="J73" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>9.95</v>
       </c>
       <c r="P73" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -6520,8 +6203,8 @@
       <c r="C74" t="s">
         <v>207</v>
       </c>
-      <c r="D74">
-        <v>2019</v>
+      <c r="D74" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E74" t="s">
         <v>323</v>
@@ -6532,35 +6215,35 @@
       <c r="G74" t="s">
         <v>557</v>
       </c>
-      <c r="H74">
-        <v>3.5000000000000003E-2</v>
+      <c r="H74" t="n">
+        <v>3.5000000000000004</v>
       </c>
       <c r="I74" t="s">
         <v>674</v>
       </c>
-      <c r="J74">
-        <v>70</v>
-      </c>
-      <c r="K74">
-        <v>22</v>
-      </c>
-      <c r="L74">
-        <v>55</v>
-      </c>
-      <c r="M74">
-        <v>2</v>
-      </c>
-      <c r="N74">
-        <v>3</v>
-      </c>
-      <c r="O74">
-        <v>13.6</v>
+      <c r="J74" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>9.95</v>
       </c>
       <c r="P74" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" t="s">
         <v>89</v>
       </c>
@@ -6570,8 +6253,8 @@
       <c r="C75" t="s">
         <v>208</v>
       </c>
-      <c r="D75">
-        <v>2016</v>
+      <c r="D75" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E75" t="s">
         <v>324</v>
@@ -6582,35 +6265,35 @@
       <c r="G75" t="s">
         <v>558</v>
       </c>
-      <c r="H75">
-        <v>5.6000000000000001E-2</v>
+      <c r="H75" t="n">
+        <v>5.6000000000000005</v>
       </c>
       <c r="I75" t="s">
         <v>675</v>
       </c>
-      <c r="J75">
-        <v>70</v>
-      </c>
-      <c r="K75">
-        <v>22</v>
-      </c>
-      <c r="L75">
-        <v>55</v>
-      </c>
-      <c r="M75">
-        <v>2</v>
-      </c>
-      <c r="N75">
-        <v>3</v>
-      </c>
-      <c r="O75">
-        <v>13.6</v>
+      <c r="J75" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>9.95</v>
       </c>
       <c r="P75" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -6620,8 +6303,8 @@
       <c r="C76" t="s">
         <v>209</v>
       </c>
-      <c r="D76">
-        <v>2019</v>
+      <c r="D76" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E76" t="s">
         <v>325</v>
@@ -6632,35 +6315,35 @@
       <c r="G76" t="s">
         <v>559</v>
       </c>
-      <c r="H76">
-        <v>4.2999999999999997E-2</v>
+      <c r="H76" t="n">
+        <v>4.3</v>
       </c>
       <c r="I76" t="s">
         <v>676</v>
       </c>
-      <c r="J76">
-        <v>70</v>
-      </c>
-      <c r="K76">
-        <v>22</v>
-      </c>
-      <c r="L76">
-        <v>55</v>
-      </c>
-      <c r="M76">
-        <v>2</v>
-      </c>
-      <c r="N76">
-        <v>3</v>
-      </c>
-      <c r="O76">
-        <v>13.6</v>
+      <c r="J76" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>9.95</v>
       </c>
       <c r="P76" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -6670,8 +6353,8 @@
       <c r="C77" t="s">
         <v>210</v>
       </c>
-      <c r="D77">
-        <v>2019</v>
+      <c r="D77" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E77" t="s">
         <v>326</v>
@@ -6682,35 +6365,35 @@
       <c r="G77" t="s">
         <v>560</v>
       </c>
-      <c r="H77">
-        <v>6.6000000000000003E-2</v>
+      <c r="H77" t="n">
+        <v>6.6000000000000005</v>
       </c>
       <c r="I77" t="s">
         <v>677</v>
       </c>
-      <c r="J77">
-        <v>70</v>
-      </c>
-      <c r="K77">
-        <v>22</v>
-      </c>
-      <c r="L77">
-        <v>55</v>
-      </c>
-      <c r="M77">
-        <v>2</v>
-      </c>
-      <c r="N77">
-        <v>3</v>
-      </c>
-      <c r="O77">
-        <v>13.6</v>
+      <c r="J77" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>9.95</v>
       </c>
       <c r="P77" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -6720,8 +6403,8 @@
       <c r="C78" t="s">
         <v>211</v>
       </c>
-      <c r="D78">
-        <v>2019</v>
+      <c r="D78" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E78" t="s">
         <v>327</v>
@@ -6732,35 +6415,35 @@
       <c r="G78" t="s">
         <v>561</v>
       </c>
-      <c r="H78">
-        <v>5.1999999999999998E-2</v>
+      <c r="H78" t="n">
+        <v>5.2</v>
       </c>
       <c r="I78" t="s">
         <v>678</v>
       </c>
-      <c r="J78">
-        <v>70</v>
-      </c>
-      <c r="K78">
-        <v>22</v>
-      </c>
-      <c r="L78">
-        <v>55</v>
-      </c>
-      <c r="M78">
-        <v>2</v>
-      </c>
-      <c r="N78">
-        <v>3</v>
-      </c>
-      <c r="O78">
-        <v>13.6</v>
+      <c r="J78" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>9.95</v>
       </c>
       <c r="P78" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -6770,8 +6453,8 @@
       <c r="C79" t="s">
         <v>212</v>
       </c>
-      <c r="D79">
-        <v>2017</v>
+      <c r="D79" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E79" t="s">
         <v>328</v>
@@ -6782,35 +6465,35 @@
       <c r="G79" t="s">
         <v>562</v>
       </c>
-      <c r="H79">
-        <v>7.0999999999999994E-2</v>
+      <c r="H79" t="n">
+        <v>7.1</v>
       </c>
       <c r="I79" t="s">
         <v>679</v>
       </c>
-      <c r="J79">
-        <v>70</v>
-      </c>
-      <c r="K79">
-        <v>22</v>
-      </c>
-      <c r="L79">
-        <v>55</v>
-      </c>
-      <c r="M79">
-        <v>2</v>
-      </c>
-      <c r="N79">
-        <v>3</v>
-      </c>
-      <c r="O79">
-        <v>13.6</v>
+      <c r="J79" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>9.95</v>
       </c>
       <c r="P79" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -6820,8 +6503,8 @@
       <c r="C80" t="s">
         <v>213</v>
       </c>
-      <c r="D80">
-        <v>2018</v>
+      <c r="D80" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E80" t="s">
         <v>329</v>
@@ -6832,35 +6515,35 @@
       <c r="G80" t="s">
         <v>563</v>
       </c>
-      <c r="H80">
-        <v>3.3000000000000002E-2</v>
+      <c r="H80" t="n">
+        <v>3.3000000000000003</v>
       </c>
       <c r="I80" t="s">
         <v>680</v>
       </c>
-      <c r="J80">
-        <v>70</v>
-      </c>
-      <c r="K80">
-        <v>22</v>
-      </c>
-      <c r="L80">
-        <v>55</v>
-      </c>
-      <c r="M80">
-        <v>2</v>
-      </c>
-      <c r="N80">
-        <v>3</v>
-      </c>
-      <c r="O80">
-        <v>13.6</v>
+      <c r="J80" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>9.95</v>
       </c>
       <c r="P80" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -6870,8 +6553,8 @@
       <c r="C81" t="s">
         <v>214</v>
       </c>
-      <c r="D81">
-        <v>2016</v>
+      <c r="D81" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E81" t="s">
         <v>330</v>
@@ -6882,35 +6565,35 @@
       <c r="G81" t="s">
         <v>564</v>
       </c>
-      <c r="H81">
-        <v>0.08</v>
+      <c r="H81" t="n">
+        <v>8.0</v>
       </c>
       <c r="I81" t="s">
         <v>681</v>
       </c>
-      <c r="J81">
-        <v>70</v>
-      </c>
-      <c r="K81">
-        <v>22</v>
-      </c>
-      <c r="L81">
-        <v>55</v>
-      </c>
-      <c r="M81">
-        <v>2</v>
-      </c>
-      <c r="N81">
-        <v>3</v>
-      </c>
-      <c r="O81">
-        <v>13.6</v>
+      <c r="J81" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>9.95</v>
       </c>
       <c r="P81" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -6920,8 +6603,8 @@
       <c r="C82" t="s">
         <v>215</v>
       </c>
-      <c r="D82">
-        <v>2017</v>
+      <c r="D82" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E82" t="s">
         <v>331</v>
@@ -6932,35 +6615,35 @@
       <c r="G82" t="s">
         <v>565</v>
       </c>
-      <c r="H82">
-        <v>4.1000000000000002E-2</v>
+      <c r="H82" t="n">
+        <v>4.1000000000000005</v>
       </c>
       <c r="I82" t="s">
         <v>682</v>
       </c>
-      <c r="J82">
-        <v>70</v>
-      </c>
-      <c r="K82">
-        <v>22</v>
-      </c>
-      <c r="L82">
-        <v>55</v>
-      </c>
-      <c r="M82">
-        <v>2</v>
-      </c>
-      <c r="N82">
-        <v>3</v>
-      </c>
-      <c r="O82">
-        <v>13.6</v>
+      <c r="J82" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>9.95</v>
       </c>
       <c r="P82" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -6970,8 +6653,8 @@
       <c r="C83" t="s">
         <v>216</v>
       </c>
-      <c r="D83">
-        <v>2017</v>
+      <c r="D83" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E83" t="s">
         <v>332</v>
@@ -6982,35 +6665,35 @@
       <c r="G83" t="s">
         <v>566</v>
       </c>
-      <c r="H83">
-        <v>3.5999999999999997E-2</v>
+      <c r="H83" t="n">
+        <v>3.5999999999999996</v>
       </c>
       <c r="I83" t="s">
         <v>683</v>
       </c>
-      <c r="J83">
-        <v>70</v>
-      </c>
-      <c r="K83">
-        <v>22</v>
-      </c>
-      <c r="L83">
-        <v>55</v>
-      </c>
-      <c r="M83">
-        <v>2</v>
-      </c>
-      <c r="N83">
-        <v>3</v>
-      </c>
-      <c r="O83">
-        <v>13.6</v>
+      <c r="J83" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>9.95</v>
       </c>
       <c r="P83" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -7020,8 +6703,8 @@
       <c r="C84" t="s">
         <v>217</v>
       </c>
-      <c r="D84">
-        <v>2017</v>
+      <c r="D84" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E84" t="s">
         <v>333</v>
@@ -7032,35 +6715,35 @@
       <c r="G84" t="s">
         <v>567</v>
       </c>
-      <c r="H84">
-        <v>8.5000000000000006E-2</v>
+      <c r="H84" t="n">
+        <v>8.5</v>
       </c>
       <c r="I84" t="s">
         <v>684</v>
       </c>
-      <c r="J84">
-        <v>70</v>
-      </c>
-      <c r="K84">
-        <v>22</v>
-      </c>
-      <c r="L84">
-        <v>55</v>
-      </c>
-      <c r="M84">
-        <v>2</v>
-      </c>
-      <c r="N84">
-        <v>3</v>
-      </c>
-      <c r="O84">
-        <v>13.6</v>
+      <c r="J84" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>9.95</v>
       </c>
       <c r="P84" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -7070,8 +6753,8 @@
       <c r="C85" t="s">
         <v>218</v>
       </c>
-      <c r="D85">
-        <v>2017</v>
+      <c r="D85" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E85" t="s">
         <v>334</v>
@@ -7082,35 +6765,35 @@
       <c r="G85" t="s">
         <v>568</v>
       </c>
-      <c r="H85">
-        <v>4.8000000000000001E-2</v>
+      <c r="H85" t="n">
+        <v>4.8</v>
       </c>
       <c r="I85" t="s">
         <v>685</v>
       </c>
-      <c r="J85">
-        <v>70</v>
-      </c>
-      <c r="K85">
-        <v>22</v>
-      </c>
-      <c r="L85">
-        <v>55</v>
-      </c>
-      <c r="M85">
-        <v>2</v>
-      </c>
-      <c r="N85">
-        <v>3</v>
-      </c>
-      <c r="O85">
-        <v>13.6</v>
+      <c r="J85" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>9.95</v>
       </c>
       <c r="P85" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -7120,8 +6803,8 @@
       <c r="C86" t="s">
         <v>219</v>
       </c>
-      <c r="D86">
-        <v>2019</v>
+      <c r="D86" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E86" t="s">
         <v>335</v>
@@ -7132,35 +6815,35 @@
       <c r="G86" t="s">
         <v>569</v>
       </c>
-      <c r="H86">
-        <v>3.5000000000000003E-2</v>
+      <c r="H86" t="n">
+        <v>3.5000000000000004</v>
       </c>
       <c r="I86" t="s">
         <v>686</v>
       </c>
-      <c r="J86">
-        <v>70</v>
-      </c>
-      <c r="K86">
-        <v>22</v>
-      </c>
-      <c r="L86">
-        <v>55</v>
-      </c>
-      <c r="M86">
-        <v>2</v>
-      </c>
-      <c r="N86">
-        <v>3</v>
-      </c>
-      <c r="O86">
-        <v>13.6</v>
+      <c r="J86" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>9.95</v>
       </c>
       <c r="P86" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -7170,8 +6853,8 @@
       <c r="C87" t="s">
         <v>220</v>
       </c>
-      <c r="D87">
-        <v>2018</v>
+      <c r="D87" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E87" t="s">
         <v>336</v>
@@ -7182,35 +6865,35 @@
       <c r="G87" t="s">
         <v>570</v>
       </c>
-      <c r="H87">
-        <v>4.1000000000000002E-2</v>
+      <c r="H87" t="n">
+        <v>4.1000000000000005</v>
       </c>
       <c r="I87" t="s">
         <v>687</v>
       </c>
-      <c r="J87">
-        <v>70</v>
-      </c>
-      <c r="K87">
-        <v>22</v>
-      </c>
-      <c r="L87">
-        <v>55</v>
-      </c>
-      <c r="M87">
-        <v>2</v>
-      </c>
-      <c r="N87">
-        <v>3</v>
-      </c>
-      <c r="O87">
-        <v>13.6</v>
+      <c r="J87" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>9.95</v>
       </c>
       <c r="P87" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -7220,8 +6903,8 @@
       <c r="C88" t="s">
         <v>221</v>
       </c>
-      <c r="D88">
-        <v>2019</v>
+      <c r="D88" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E88" t="s">
         <v>337</v>
@@ -7232,35 +6915,35 @@
       <c r="G88" t="s">
         <v>571</v>
       </c>
-      <c r="H88">
-        <v>5.5E-2</v>
+      <c r="H88" t="n">
+        <v>5.5</v>
       </c>
       <c r="I88" t="s">
         <v>688</v>
       </c>
-      <c r="J88">
-        <v>70</v>
-      </c>
-      <c r="K88">
-        <v>22</v>
-      </c>
-      <c r="L88">
-        <v>55</v>
-      </c>
-      <c r="M88">
-        <v>2</v>
-      </c>
-      <c r="N88">
-        <v>3</v>
-      </c>
-      <c r="O88">
-        <v>13.6</v>
+      <c r="J88" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>9.95</v>
       </c>
       <c r="P88" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -7270,8 +6953,8 @@
       <c r="C89" t="s">
         <v>222</v>
       </c>
-      <c r="D89">
-        <v>2018</v>
+      <c r="D89" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E89" t="s">
         <v>338</v>
@@ -7282,35 +6965,35 @@
       <c r="G89" t="s">
         <v>572</v>
       </c>
-      <c r="H89">
-        <v>5.1999999999999998E-2</v>
+      <c r="H89" t="n">
+        <v>5.2</v>
       </c>
       <c r="I89" t="s">
         <v>689</v>
       </c>
-      <c r="J89">
-        <v>70</v>
-      </c>
-      <c r="K89">
-        <v>22</v>
-      </c>
-      <c r="L89">
-        <v>55</v>
-      </c>
-      <c r="M89">
-        <v>2</v>
-      </c>
-      <c r="N89">
-        <v>3</v>
-      </c>
-      <c r="O89">
-        <v>13.6</v>
+      <c r="J89" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>9.95</v>
       </c>
       <c r="P89" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -7320,8 +7003,8 @@
       <c r="C90" t="s">
         <v>223</v>
       </c>
-      <c r="D90">
-        <v>2019</v>
+      <c r="D90" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E90" t="s">
         <v>339</v>
@@ -7332,35 +7015,35 @@
       <c r="G90" t="s">
         <v>573</v>
       </c>
-      <c r="H90">
-        <v>2.8000000000000001E-2</v>
+      <c r="H90" t="n">
+        <v>2.8000000000000003</v>
       </c>
       <c r="I90" t="s">
         <v>690</v>
       </c>
-      <c r="J90">
-        <v>70</v>
-      </c>
-      <c r="K90">
-        <v>22</v>
-      </c>
-      <c r="L90">
-        <v>55</v>
-      </c>
-      <c r="M90">
-        <v>2</v>
-      </c>
-      <c r="N90">
-        <v>3</v>
-      </c>
-      <c r="O90">
-        <v>13.6</v>
+      <c r="J90" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>9.95</v>
       </c>
       <c r="P90" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -7370,8 +7053,8 @@
       <c r="C91" t="s">
         <v>224</v>
       </c>
-      <c r="D91">
-        <v>2015</v>
+      <c r="D91" t="n">
+        <v>2015.0</v>
       </c>
       <c r="E91" t="s">
         <v>340</v>
@@ -7382,35 +7065,35 @@
       <c r="G91" t="s">
         <v>574</v>
       </c>
-      <c r="H91">
-        <v>7.0999999999999994E-2</v>
+      <c r="H91" t="n">
+        <v>7.1</v>
       </c>
       <c r="I91" t="s">
         <v>691</v>
       </c>
-      <c r="J91">
-        <v>70</v>
-      </c>
-      <c r="K91">
-        <v>22</v>
-      </c>
-      <c r="L91">
-        <v>55</v>
-      </c>
-      <c r="M91">
-        <v>2</v>
-      </c>
-      <c r="N91">
-        <v>3</v>
-      </c>
-      <c r="O91">
-        <v>13.6</v>
+      <c r="J91" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>9.95</v>
       </c>
       <c r="P91" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -7420,8 +7103,8 @@
       <c r="C92" t="s">
         <v>225</v>
       </c>
-      <c r="D92">
-        <v>2019</v>
+      <c r="D92" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E92" t="s">
         <v>341</v>
@@ -7432,35 +7115,35 @@
       <c r="G92" t="s">
         <v>575</v>
       </c>
-      <c r="H92">
-        <v>3.5000000000000003E-2</v>
+      <c r="H92" t="n">
+        <v>3.5000000000000004</v>
       </c>
       <c r="I92" t="s">
         <v>692</v>
       </c>
-      <c r="J92">
-        <v>70</v>
-      </c>
-      <c r="K92">
-        <v>22</v>
-      </c>
-      <c r="L92">
-        <v>55</v>
-      </c>
-      <c r="M92">
-        <v>2</v>
-      </c>
-      <c r="N92">
-        <v>3</v>
-      </c>
-      <c r="O92">
-        <v>13.6</v>
+      <c r="J92" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>9.95</v>
       </c>
       <c r="P92" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -7470,8 +7153,8 @@
       <c r="C93" t="s">
         <v>226</v>
       </c>
-      <c r="D93">
-        <v>2019</v>
+      <c r="D93" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E93" t="s">
         <v>342</v>
@@ -7482,35 +7165,35 @@
       <c r="G93" t="s">
         <v>576</v>
       </c>
-      <c r="H93">
-        <v>7.6999999999999999E-2</v>
+      <c r="H93" t="n">
+        <v>7.7</v>
       </c>
       <c r="I93" t="s">
         <v>693</v>
       </c>
-      <c r="J93">
-        <v>70</v>
-      </c>
-      <c r="K93">
-        <v>22</v>
-      </c>
-      <c r="L93">
-        <v>55</v>
-      </c>
-      <c r="M93">
-        <v>2</v>
-      </c>
-      <c r="N93">
-        <v>3</v>
-      </c>
-      <c r="O93">
-        <v>13.6</v>
+      <c r="J93" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>9.95</v>
       </c>
       <c r="P93" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -7520,8 +7203,8 @@
       <c r="C94" t="s">
         <v>227</v>
       </c>
-      <c r="D94">
-        <v>2017</v>
+      <c r="D94" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E94" t="s">
         <v>343</v>
@@ -7532,35 +7215,35 @@
       <c r="G94" t="s">
         <v>577</v>
       </c>
-      <c r="H94">
-        <v>2.7E-2</v>
+      <c r="H94" t="n">
+        <v>2.7</v>
       </c>
       <c r="I94" t="s">
         <v>694</v>
       </c>
-      <c r="J94">
-        <v>70</v>
-      </c>
-      <c r="K94">
-        <v>22</v>
-      </c>
-      <c r="L94">
-        <v>55</v>
-      </c>
-      <c r="M94">
-        <v>2</v>
-      </c>
-      <c r="N94">
-        <v>3</v>
-      </c>
-      <c r="O94">
-        <v>13.6</v>
+      <c r="J94" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>9.95</v>
       </c>
       <c r="P94" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -7570,8 +7253,8 @@
       <c r="C95" t="s">
         <v>228</v>
       </c>
-      <c r="D95">
-        <v>2019</v>
+      <c r="D95" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E95" t="s">
         <v>344</v>
@@ -7582,35 +7265,35 @@
       <c r="G95" t="s">
         <v>578</v>
       </c>
-      <c r="H95">
-        <v>4.1000000000000002E-2</v>
+      <c r="H95" t="n">
+        <v>4.1000000000000005</v>
       </c>
       <c r="I95" t="s">
         <v>695</v>
       </c>
-      <c r="J95">
-        <v>70</v>
-      </c>
-      <c r="K95">
-        <v>22</v>
-      </c>
-      <c r="L95">
-        <v>55</v>
-      </c>
-      <c r="M95">
-        <v>2</v>
-      </c>
-      <c r="N95">
-        <v>3</v>
-      </c>
-      <c r="O95">
-        <v>13.6</v>
+      <c r="J95" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>9.95</v>
       </c>
       <c r="P95" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -7620,8 +7303,8 @@
       <c r="C96" t="s">
         <v>229</v>
       </c>
-      <c r="D96">
-        <v>2019</v>
+      <c r="D96" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E96" t="s">
         <v>345</v>
@@ -7632,35 +7315,35 @@
       <c r="G96" t="s">
         <v>579</v>
       </c>
-      <c r="H96">
-        <v>4.4999999999999998E-2</v>
+      <c r="H96" t="n">
+        <v>4.5</v>
       </c>
       <c r="I96" t="s">
         <v>696</v>
       </c>
-      <c r="J96">
-        <v>70</v>
-      </c>
-      <c r="K96">
-        <v>22</v>
-      </c>
-      <c r="L96">
-        <v>55</v>
-      </c>
-      <c r="M96">
-        <v>2</v>
-      </c>
-      <c r="N96">
-        <v>3</v>
-      </c>
-      <c r="O96">
-        <v>13.6</v>
+      <c r="J96" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>9.95</v>
       </c>
       <c r="P96" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -7670,8 +7353,8 @@
       <c r="C97" t="s">
         <v>230</v>
       </c>
-      <c r="D97">
-        <v>2017</v>
+      <c r="D97" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E97" t="s">
         <v>346</v>
@@ -7682,35 +7365,35 @@
       <c r="G97" t="s">
         <v>580</v>
       </c>
-      <c r="H97">
-        <v>4.4999999999999998E-2</v>
+      <c r="H97" t="n">
+        <v>4.5</v>
       </c>
       <c r="I97" t="s">
         <v>697</v>
       </c>
-      <c r="J97">
-        <v>70</v>
-      </c>
-      <c r="K97">
-        <v>22</v>
-      </c>
-      <c r="L97">
-        <v>55</v>
-      </c>
-      <c r="M97">
-        <v>2</v>
-      </c>
-      <c r="N97">
-        <v>3</v>
-      </c>
-      <c r="O97">
-        <v>13.6</v>
+      <c r="J97" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>9.95</v>
       </c>
       <c r="P97" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -7720,8 +7403,8 @@
       <c r="C98" t="s">
         <v>231</v>
       </c>
-      <c r="D98">
-        <v>2016</v>
+      <c r="D98" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E98" t="s">
         <v>347</v>
@@ -7732,35 +7415,35 @@
       <c r="G98" t="s">
         <v>581</v>
       </c>
-      <c r="H98">
-        <v>3.3000000000000002E-2</v>
+      <c r="H98" t="n">
+        <v>3.3000000000000003</v>
       </c>
       <c r="I98" t="s">
         <v>698</v>
       </c>
-      <c r="J98">
-        <v>70</v>
-      </c>
-      <c r="K98">
-        <v>22</v>
-      </c>
-      <c r="L98">
-        <v>55</v>
-      </c>
-      <c r="M98">
-        <v>2</v>
-      </c>
-      <c r="N98">
-        <v>3</v>
-      </c>
-      <c r="O98">
-        <v>13.6</v>
+      <c r="J98" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>9.95</v>
       </c>
       <c r="P98" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -7770,8 +7453,8 @@
       <c r="C99" t="s">
         <v>232</v>
       </c>
-      <c r="D99">
-        <v>2018</v>
+      <c r="D99" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E99" t="s">
         <v>348</v>
@@ -7782,35 +7465,35 @@
       <c r="G99" t="s">
         <v>582</v>
       </c>
-      <c r="H99">
-        <v>4.9000000000000002E-2</v>
+      <c r="H99" t="n">
+        <v>4.9</v>
       </c>
       <c r="I99" t="s">
         <v>699</v>
       </c>
-      <c r="J99">
-        <v>70</v>
-      </c>
-      <c r="K99">
-        <v>22</v>
-      </c>
-      <c r="L99">
-        <v>55</v>
-      </c>
-      <c r="M99">
-        <v>2</v>
-      </c>
-      <c r="N99">
-        <v>3</v>
-      </c>
-      <c r="O99">
-        <v>13.6</v>
+      <c r="J99" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>9.95</v>
       </c>
       <c r="P99" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -7820,8 +7503,8 @@
       <c r="C100" t="s">
         <v>233</v>
       </c>
-      <c r="D100">
-        <v>2019</v>
+      <c r="D100" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E100" t="s">
         <v>349</v>
@@ -7832,35 +7515,35 @@
       <c r="G100" t="s">
         <v>583</v>
       </c>
-      <c r="H100">
-        <v>3.3000000000000002E-2</v>
+      <c r="H100" t="n">
+        <v>3.3000000000000003</v>
       </c>
       <c r="I100" t="s">
         <v>700</v>
       </c>
-      <c r="J100">
-        <v>70</v>
-      </c>
-      <c r="K100">
-        <v>22</v>
-      </c>
-      <c r="L100">
-        <v>55</v>
-      </c>
-      <c r="M100">
-        <v>2</v>
-      </c>
-      <c r="N100">
-        <v>3</v>
-      </c>
-      <c r="O100">
-        <v>13.6</v>
+      <c r="J100" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>9.95</v>
       </c>
       <c r="P100" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -7870,8 +7553,8 @@
       <c r="C101" t="s">
         <v>234</v>
       </c>
-      <c r="D101">
-        <v>2019</v>
+      <c r="D101" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E101" t="s">
         <v>350</v>
@@ -7882,35 +7565,35 @@
       <c r="G101" t="s">
         <v>584</v>
       </c>
-      <c r="H101">
-        <v>4.7E-2</v>
+      <c r="H101" t="n">
+        <v>4.7</v>
       </c>
       <c r="I101" t="s">
         <v>701</v>
       </c>
-      <c r="J101">
-        <v>70</v>
-      </c>
-      <c r="K101">
-        <v>22</v>
-      </c>
-      <c r="L101">
-        <v>55</v>
-      </c>
-      <c r="M101">
-        <v>2</v>
-      </c>
-      <c r="N101">
-        <v>3</v>
-      </c>
-      <c r="O101">
-        <v>13.6</v>
+      <c r="J101" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>9.95</v>
       </c>
       <c r="P101" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -7920,8 +7603,8 @@
       <c r="C102" t="s">
         <v>235</v>
       </c>
-      <c r="D102">
-        <v>2019</v>
+      <c r="D102" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E102" t="s">
         <v>351</v>
@@ -7932,35 +7615,35 @@
       <c r="G102" t="s">
         <v>585</v>
       </c>
-      <c r="H102">
-        <v>4.4999999999999998E-2</v>
+      <c r="H102" t="n">
+        <v>4.5</v>
       </c>
       <c r="I102" t="s">
         <v>702</v>
       </c>
-      <c r="J102">
-        <v>70</v>
-      </c>
-      <c r="K102">
-        <v>22</v>
-      </c>
-      <c r="L102">
-        <v>55</v>
-      </c>
-      <c r="M102">
-        <v>2</v>
-      </c>
-      <c r="N102">
-        <v>3</v>
-      </c>
-      <c r="O102">
-        <v>13.6</v>
+      <c r="J102" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>9.95</v>
       </c>
       <c r="P102" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -7970,8 +7653,8 @@
       <c r="C103" t="s">
         <v>236</v>
       </c>
-      <c r="D103">
-        <v>2009</v>
+      <c r="D103" t="n">
+        <v>2009.0</v>
       </c>
       <c r="E103" t="s">
         <v>352</v>
@@ -7982,35 +7665,35 @@
       <c r="G103" t="s">
         <v>586</v>
       </c>
-      <c r="H103">
-        <v>4.3999999999999997E-2</v>
+      <c r="H103" t="n">
+        <v>4.3999999999999995</v>
       </c>
       <c r="I103" t="s">
         <v>703</v>
       </c>
-      <c r="J103">
-        <v>70</v>
-      </c>
-      <c r="K103">
-        <v>22</v>
-      </c>
-      <c r="L103">
-        <v>55</v>
-      </c>
-      <c r="M103">
-        <v>2</v>
-      </c>
-      <c r="N103">
-        <v>3</v>
-      </c>
-      <c r="O103">
-        <v>13.6</v>
+      <c r="J103" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>9.95</v>
       </c>
       <c r="P103" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -8020,8 +7703,8 @@
       <c r="C104" t="s">
         <v>237</v>
       </c>
-      <c r="D104">
-        <v>2011</v>
+      <c r="D104" t="n">
+        <v>2011.0</v>
       </c>
       <c r="E104" t="s">
         <v>353</v>
@@ -8032,35 +7715,35 @@
       <c r="G104" t="s">
         <v>587</v>
       </c>
-      <c r="H104">
-        <v>4.1000000000000002E-2</v>
+      <c r="H104" t="n">
+        <v>4.1000000000000005</v>
       </c>
       <c r="I104" t="s">
         <v>704</v>
       </c>
-      <c r="J104">
-        <v>70</v>
-      </c>
-      <c r="K104">
-        <v>22</v>
-      </c>
-      <c r="L104">
-        <v>55</v>
-      </c>
-      <c r="M104">
-        <v>2</v>
-      </c>
-      <c r="N104">
-        <v>3</v>
-      </c>
-      <c r="O104">
-        <v>13.6</v>
+      <c r="J104" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>9.95</v>
       </c>
       <c r="P104" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -8070,8 +7753,8 @@
       <c r="C105" t="s">
         <v>238</v>
       </c>
-      <c r="D105">
-        <v>2017</v>
+      <c r="D105" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E105" t="s">
         <v>354</v>
@@ -8082,35 +7765,35 @@
       <c r="G105" t="s">
         <v>588</v>
       </c>
-      <c r="H105">
-        <v>4.4999999999999998E-2</v>
+      <c r="H105" t="n">
+        <v>4.5</v>
       </c>
       <c r="I105" t="s">
         <v>705</v>
       </c>
-      <c r="J105">
-        <v>70</v>
-      </c>
-      <c r="K105">
-        <v>22</v>
-      </c>
-      <c r="L105">
-        <v>55</v>
-      </c>
-      <c r="M105">
-        <v>2</v>
-      </c>
-      <c r="N105">
-        <v>3</v>
-      </c>
-      <c r="O105">
-        <v>13.6</v>
+      <c r="J105" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>9.95</v>
       </c>
       <c r="P105" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -8120,8 +7803,8 @@
       <c r="C106" t="s">
         <v>239</v>
       </c>
-      <c r="D106">
-        <v>2018</v>
+      <c r="D106" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E106" t="s">
         <v>355</v>
@@ -8132,35 +7815,35 @@
       <c r="G106" t="s">
         <v>589</v>
       </c>
-      <c r="H106">
-        <v>7.0000000000000007E-2</v>
+      <c r="H106" t="n">
+        <v>7.000000000000001</v>
       </c>
       <c r="I106" t="s">
         <v>706</v>
       </c>
-      <c r="J106">
-        <v>70</v>
-      </c>
-      <c r="K106">
-        <v>22</v>
-      </c>
-      <c r="L106">
-        <v>55</v>
-      </c>
-      <c r="M106">
-        <v>2</v>
-      </c>
-      <c r="N106">
-        <v>3</v>
-      </c>
-      <c r="O106">
-        <v>13.6</v>
+      <c r="J106" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>9.95</v>
       </c>
       <c r="P106" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -8170,8 +7853,8 @@
       <c r="C107" t="s">
         <v>240</v>
       </c>
-      <c r="D107">
-        <v>2019</v>
+      <c r="D107" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E107" t="s">
         <v>356</v>
@@ -8182,35 +7865,35 @@
       <c r="G107" t="s">
         <v>590</v>
       </c>
-      <c r="H107">
-        <v>3.9E-2</v>
+      <c r="H107" t="n">
+        <v>3.9</v>
       </c>
       <c r="I107" t="s">
         <v>707</v>
       </c>
-      <c r="J107">
-        <v>70</v>
-      </c>
-      <c r="K107">
-        <v>22</v>
-      </c>
-      <c r="L107">
-        <v>55</v>
-      </c>
-      <c r="M107">
-        <v>2</v>
-      </c>
-      <c r="N107">
-        <v>3</v>
-      </c>
-      <c r="O107">
-        <v>13.6</v>
+      <c r="J107" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>9.95</v>
       </c>
       <c r="P107" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -8220,8 +7903,8 @@
       <c r="C108" t="s">
         <v>241</v>
       </c>
-      <c r="D108">
-        <v>2013</v>
+      <c r="D108" t="n">
+        <v>2013.0</v>
       </c>
       <c r="E108" t="s">
         <v>357</v>
@@ -8232,35 +7915,35 @@
       <c r="G108" t="s">
         <v>591</v>
       </c>
-      <c r="H108">
-        <v>7.0999999999999994E-2</v>
+      <c r="H108" t="n">
+        <v>7.1</v>
       </c>
       <c r="I108" t="s">
         <v>708</v>
       </c>
-      <c r="J108">
-        <v>70</v>
-      </c>
-      <c r="K108">
-        <v>22</v>
-      </c>
-      <c r="L108">
-        <v>55</v>
-      </c>
-      <c r="M108">
-        <v>2</v>
-      </c>
-      <c r="N108">
-        <v>3</v>
-      </c>
-      <c r="O108">
-        <v>13.6</v>
+      <c r="J108" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>9.95</v>
       </c>
       <c r="P108" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -8270,8 +7953,8 @@
       <c r="C109" t="s">
         <v>242</v>
       </c>
-      <c r="D109">
-        <v>2019</v>
+      <c r="D109" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E109" t="s">
         <v>358</v>
@@ -8282,35 +7965,35 @@
       <c r="G109" t="s">
         <v>592</v>
       </c>
-      <c r="H109">
-        <v>3.3000000000000002E-2</v>
+      <c r="H109" t="n">
+        <v>3.3000000000000003</v>
       </c>
       <c r="I109" t="s">
         <v>709</v>
       </c>
-      <c r="J109">
-        <v>70</v>
-      </c>
-      <c r="K109">
-        <v>22</v>
-      </c>
-      <c r="L109">
-        <v>55</v>
-      </c>
-      <c r="M109">
-        <v>2</v>
-      </c>
-      <c r="N109">
-        <v>3</v>
-      </c>
-      <c r="O109">
-        <v>13.6</v>
+      <c r="J109" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>9.95</v>
       </c>
       <c r="P109" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -8320,8 +8003,8 @@
       <c r="C110" t="s">
         <v>243</v>
       </c>
-      <c r="D110">
-        <v>2018</v>
+      <c r="D110" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E110" t="s">
         <v>359</v>
@@ -8332,35 +8015,35 @@
       <c r="G110" t="s">
         <v>593</v>
       </c>
-      <c r="H110">
-        <v>3.2000000000000001E-2</v>
+      <c r="H110" t="n">
+        <v>3.2</v>
       </c>
       <c r="I110" t="s">
         <v>710</v>
       </c>
-      <c r="J110">
-        <v>70</v>
-      </c>
-      <c r="K110">
-        <v>22</v>
-      </c>
-      <c r="L110">
-        <v>55</v>
-      </c>
-      <c r="M110">
-        <v>2</v>
-      </c>
-      <c r="N110">
-        <v>3</v>
-      </c>
-      <c r="O110">
-        <v>13.6</v>
+      <c r="J110" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>9.95</v>
       </c>
       <c r="P110" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -8370,8 +8053,8 @@
       <c r="C111" t="s">
         <v>244</v>
       </c>
-      <c r="D111">
-        <v>0</v>
+      <c r="D111" t="n">
+        <v>0.0</v>
       </c>
       <c r="E111" t="s">
         <v>360</v>
@@ -8382,35 +8065,35 @@
       <c r="G111" t="s">
         <v>594</v>
       </c>
-      <c r="H111">
-        <v>7.1999999999999995E-2</v>
+      <c r="H111" t="n">
+        <v>7.199999999999999</v>
       </c>
       <c r="I111" t="s">
         <v>711</v>
       </c>
-      <c r="J111">
-        <v>70</v>
-      </c>
-      <c r="K111">
-        <v>22</v>
-      </c>
-      <c r="L111">
-        <v>55</v>
-      </c>
-      <c r="M111">
-        <v>2</v>
-      </c>
-      <c r="N111">
-        <v>3</v>
-      </c>
-      <c r="O111">
-        <v>13.6</v>
+      <c r="J111" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>9.95</v>
       </c>
       <c r="P111" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -8420,8 +8103,8 @@
       <c r="C112" t="s">
         <v>244</v>
       </c>
-      <c r="D112">
-        <v>0</v>
+      <c r="D112" t="n">
+        <v>0.0</v>
       </c>
       <c r="E112" t="s">
         <v>361</v>
@@ -8432,35 +8115,35 @@
       <c r="G112" t="s">
         <v>595</v>
       </c>
-      <c r="H112">
-        <v>8.1000000000000003E-2</v>
+      <c r="H112" t="n">
+        <v>8.1</v>
       </c>
       <c r="I112" t="s">
         <v>712</v>
       </c>
-      <c r="J112">
-        <v>70</v>
-      </c>
-      <c r="K112">
-        <v>22</v>
-      </c>
-      <c r="L112">
-        <v>55</v>
-      </c>
-      <c r="M112">
-        <v>2</v>
-      </c>
-      <c r="N112">
-        <v>3</v>
-      </c>
-      <c r="O112">
-        <v>13.6</v>
+      <c r="J112" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>9.95</v>
       </c>
       <c r="P112" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -8470,8 +8153,8 @@
       <c r="C113" t="s">
         <v>245</v>
       </c>
-      <c r="D113">
-        <v>2019</v>
+      <c r="D113" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E113" t="s">
         <v>362</v>
@@ -8482,35 +8165,35 @@
       <c r="G113" t="s">
         <v>596</v>
       </c>
-      <c r="H113">
-        <v>5.0999999999999997E-2</v>
+      <c r="H113" t="n">
+        <v>5.1</v>
       </c>
       <c r="I113" t="s">
         <v>713</v>
       </c>
-      <c r="J113">
-        <v>70</v>
-      </c>
-      <c r="K113">
-        <v>22</v>
-      </c>
-      <c r="L113">
-        <v>55</v>
-      </c>
-      <c r="M113">
-        <v>2</v>
-      </c>
-      <c r="N113">
-        <v>3</v>
-      </c>
-      <c r="O113">
-        <v>13.6</v>
+      <c r="J113" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>9.95</v>
       </c>
       <c r="P113" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -8520,8 +8203,8 @@
       <c r="C114" t="s">
         <v>246</v>
       </c>
-      <c r="D114">
-        <v>2017</v>
+      <c r="D114" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E114" t="s">
         <v>363</v>
@@ -8532,35 +8215,35 @@
       <c r="G114" t="s">
         <v>597</v>
       </c>
-      <c r="H114">
-        <v>4.7E-2</v>
+      <c r="H114" t="n">
+        <v>4.7</v>
       </c>
       <c r="I114" t="s">
         <v>714</v>
       </c>
-      <c r="J114">
-        <v>70</v>
-      </c>
-      <c r="K114">
-        <v>22</v>
-      </c>
-      <c r="L114">
-        <v>55</v>
-      </c>
-      <c r="M114">
-        <v>2</v>
-      </c>
-      <c r="N114">
-        <v>3</v>
-      </c>
-      <c r="O114">
-        <v>13.6</v>
+      <c r="J114" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>9.95</v>
       </c>
       <c r="P114" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -8570,8 +8253,8 @@
       <c r="C115" t="s">
         <v>247</v>
       </c>
-      <c r="D115">
-        <v>2016</v>
+      <c r="D115" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E115" t="s">
         <v>364</v>
@@ -8582,35 +8265,35 @@
       <c r="G115" t="s">
         <v>598</v>
       </c>
-      <c r="H115">
-        <v>5.0999999999999997E-2</v>
+      <c r="H115" t="n">
+        <v>5.1</v>
       </c>
       <c r="I115" t="s">
         <v>715</v>
       </c>
-      <c r="J115">
-        <v>70</v>
-      </c>
-      <c r="K115">
-        <v>22</v>
-      </c>
-      <c r="L115">
-        <v>55</v>
-      </c>
-      <c r="M115">
-        <v>2</v>
-      </c>
-      <c r="N115">
-        <v>3</v>
-      </c>
-      <c r="O115">
-        <v>13.6</v>
+      <c r="J115" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>9.95</v>
       </c>
       <c r="P115" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -8620,8 +8303,8 @@
       <c r="C116" t="s">
         <v>248</v>
       </c>
-      <c r="D116">
-        <v>2016</v>
+      <c r="D116" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E116" t="s">
         <v>365</v>
@@ -8632,35 +8315,35 @@
       <c r="G116" t="s">
         <v>599</v>
       </c>
-      <c r="H116">
-        <v>4.2999999999999997E-2</v>
+      <c r="H116" t="n">
+        <v>4.3</v>
       </c>
       <c r="I116" t="s">
         <v>716</v>
       </c>
-      <c r="J116">
-        <v>70</v>
-      </c>
-      <c r="K116">
-        <v>22</v>
-      </c>
-      <c r="L116">
-        <v>55</v>
-      </c>
-      <c r="M116">
-        <v>2</v>
-      </c>
-      <c r="N116">
-        <v>3</v>
-      </c>
-      <c r="O116">
-        <v>13.6</v>
+      <c r="J116" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>9.95</v>
       </c>
       <c r="P116" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -8670,8 +8353,8 @@
       <c r="C117" t="s">
         <v>249</v>
       </c>
-      <c r="D117">
-        <v>2017</v>
+      <c r="D117" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E117" t="s">
         <v>366</v>
@@ -8682,35 +8365,35 @@
       <c r="G117" t="s">
         <v>600</v>
       </c>
-      <c r="H117">
-        <v>4.2000000000000003E-2</v>
+      <c r="H117" t="n">
+        <v>4.2</v>
       </c>
       <c r="I117" t="s">
         <v>717</v>
       </c>
-      <c r="J117">
-        <v>70</v>
-      </c>
-      <c r="K117">
-        <v>22</v>
-      </c>
-      <c r="L117">
-        <v>55</v>
-      </c>
-      <c r="M117">
-        <v>2</v>
-      </c>
-      <c r="N117">
-        <v>3</v>
-      </c>
-      <c r="O117">
-        <v>13.6</v>
+      <c r="J117" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>9.95</v>
       </c>
       <c r="P117" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -8720,8 +8403,8 @@
       <c r="C118" t="s">
         <v>250</v>
       </c>
-      <c r="D118">
-        <v>2016</v>
+      <c r="D118" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E118" t="s">
         <v>367</v>
@@ -8732,35 +8415,35 @@
       <c r="G118" t="s">
         <v>601</v>
       </c>
-      <c r="H118">
-        <v>4.2999999999999997E-2</v>
+      <c r="H118" t="n">
+        <v>4.3</v>
       </c>
       <c r="I118" t="s">
         <v>718</v>
       </c>
-      <c r="J118">
-        <v>70</v>
-      </c>
-      <c r="K118">
-        <v>22</v>
-      </c>
-      <c r="L118">
-        <v>55</v>
-      </c>
-      <c r="M118">
-        <v>2</v>
-      </c>
-      <c r="N118">
-        <v>3</v>
-      </c>
-      <c r="O118">
-        <v>13.6</v>
+      <c r="J118" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>9.95</v>
       </c>
       <c r="P118" t="s">
         <v>739</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/baseline_data.xlsx
+++ b/baseline_data.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sd282\Desktop\covid_price_tag_map\COVID-vaccination-Costs-Analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D385FB-C365-4EBA-A505-AC8EB532F84E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2498,11 +2506,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2514,7 +2521,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -2532,18 +2539,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L118"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2593,7 +2910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2603,8 +2920,8 @@
       <c r="C2" t="s">
         <v>135</v>
       </c>
-      <c r="D2" t="n">
-        <v>2018.0</v>
+      <c r="D2">
+        <v>2018</v>
       </c>
       <c r="E2" t="s">
         <v>251</v>
@@ -2615,35 +2932,35 @@
       <c r="G2" t="s">
         <v>485</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>2.8000000000000003</v>
       </c>
       <c r="I2" t="s">
         <v>602</v>
       </c>
-      <c r="J2" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>9.95</v>
+      <c r="J2">
+        <v>70</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P2" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2653,8 +2970,8 @@
       <c r="C3" t="s">
         <v>136</v>
       </c>
-      <c r="D3" t="n">
-        <v>2019.0</v>
+      <c r="D3">
+        <v>2019</v>
       </c>
       <c r="E3" t="s">
         <v>252</v>
@@ -2665,35 +2982,35 @@
       <c r="G3" t="s">
         <v>486</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>2.4</v>
       </c>
       <c r="I3" t="s">
         <v>603</v>
       </c>
-      <c r="J3" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>9.95</v>
+      <c r="J3">
+        <v>70</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P3" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2703,8 +3020,8 @@
       <c r="C4" t="s">
         <v>137</v>
       </c>
-      <c r="D4" t="n">
-        <v>2018.0</v>
+      <c r="D4">
+        <v>2018</v>
       </c>
       <c r="E4" t="s">
         <v>253</v>
@@ -2715,35 +3032,35 @@
       <c r="G4" t="s">
         <v>487</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>2.1999999999999997</v>
       </c>
       <c r="I4" t="s">
         <v>604</v>
       </c>
-      <c r="J4" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9.95</v>
+      <c r="J4">
+        <v>70</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>50</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P4" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2753,8 +3070,8 @@
       <c r="C5" t="s">
         <v>138</v>
       </c>
-      <c r="D5" t="n">
-        <v>2018.0</v>
+      <c r="D5">
+        <v>2018</v>
       </c>
       <c r="E5" t="s">
         <v>254</v>
@@ -2765,35 +3082,35 @@
       <c r="G5" t="s">
         <v>488</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>3.2</v>
       </c>
       <c r="I5" t="s">
         <v>605</v>
       </c>
-      <c r="J5" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>9.95</v>
+      <c r="J5">
+        <v>70</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P5" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2803,8 +3120,8 @@
       <c r="C6" t="s">
         <v>139</v>
       </c>
-      <c r="D6" t="n">
-        <v>2019.0</v>
+      <c r="D6">
+        <v>2019</v>
       </c>
       <c r="E6" t="s">
         <v>255</v>
@@ -2815,35 +3132,35 @@
       <c r="G6" t="s">
         <v>489</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>2.1999999999999997</v>
       </c>
       <c r="I6" t="s">
         <v>606</v>
       </c>
-      <c r="J6" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>9.95</v>
+      <c r="J6">
+        <v>70</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P6" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2853,8 +3170,8 @@
       <c r="C7" t="s">
         <v>140</v>
       </c>
-      <c r="D7" t="n">
-        <v>2019.0</v>
+      <c r="D7">
+        <v>2019</v>
       </c>
       <c r="E7" t="s">
         <v>256</v>
@@ -2865,35 +3182,35 @@
       <c r="G7" t="s">
         <v>490</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>2.7</v>
       </c>
       <c r="I7" t="s">
         <v>607</v>
       </c>
-      <c r="J7" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>9.95</v>
+      <c r="J7">
+        <v>70</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>50</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P7" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2903,8 +3220,8 @@
       <c r="C8" t="s">
         <v>141</v>
       </c>
-      <c r="D8" t="n">
-        <v>2019.0</v>
+      <c r="D8">
+        <v>2019</v>
       </c>
       <c r="E8" t="s">
         <v>257</v>
@@ -2915,35 +3232,35 @@
       <c r="G8" t="s">
         <v>491</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>2.5</v>
       </c>
       <c r="I8" t="s">
         <v>608</v>
       </c>
-      <c r="J8" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>9.95</v>
+      <c r="J8">
+        <v>70</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P8" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2953,8 +3270,8 @@
       <c r="C9" t="s">
         <v>142</v>
       </c>
-      <c r="D9" t="n">
-        <v>2019.0</v>
+      <c r="D9">
+        <v>2019</v>
       </c>
       <c r="E9" t="s">
         <v>258</v>
@@ -2965,35 +3282,35 @@
       <c r="G9" t="s">
         <v>492</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.0</v>
+      <c r="H9">
+        <v>3</v>
       </c>
       <c r="I9" t="s">
         <v>609</v>
       </c>
-      <c r="J9" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>9.95</v>
+      <c r="J9">
+        <v>70</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P9" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3003,8 +3320,8 @@
       <c r="C10" t="s">
         <v>143</v>
       </c>
-      <c r="D10" t="n">
-        <v>2019.0</v>
+      <c r="D10">
+        <v>2019</v>
       </c>
       <c r="E10" t="s">
         <v>259</v>
@@ -3015,35 +3332,35 @@
       <c r="G10" t="s">
         <v>493</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.3</v>
+      <c r="H10">
+        <v>2.2999999999999998</v>
       </c>
       <c r="I10" t="s">
         <v>610</v>
       </c>
-      <c r="J10" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>9.95</v>
+      <c r="J10">
+        <v>70</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P10" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3053,8 +3370,8 @@
       <c r="C11" t="s">
         <v>144</v>
       </c>
-      <c r="D11" t="n">
-        <v>2018.0</v>
+      <c r="D11">
+        <v>2018</v>
       </c>
       <c r="E11" t="s">
         <v>260</v>
@@ -3065,35 +3382,35 @@
       <c r="G11" t="s">
         <v>494</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>2.7</v>
       </c>
       <c r="I11" t="s">
         <v>611</v>
       </c>
-      <c r="J11" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>9.95</v>
+      <c r="J11">
+        <v>70</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P11" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3103,8 +3420,8 @@
       <c r="C12" t="s">
         <v>145</v>
       </c>
-      <c r="D12" t="n">
-        <v>2019.0</v>
+      <c r="D12">
+        <v>2019</v>
       </c>
       <c r="E12" t="s">
         <v>261</v>
@@ -3115,35 +3432,35 @@
       <c r="G12" t="s">
         <v>495</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>2.5</v>
       </c>
       <c r="I12" t="s">
         <v>612</v>
       </c>
-      <c r="J12" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>9.95</v>
+      <c r="J12">
+        <v>70</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P12" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -3153,8 +3470,8 @@
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" t="n">
-        <v>2019.0</v>
+      <c r="D13">
+        <v>2019</v>
       </c>
       <c r="E13" t="s">
         <v>262</v>
@@ -3165,35 +3482,35 @@
       <c r="G13" t="s">
         <v>496</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>3.2</v>
       </c>
       <c r="I13" t="s">
         <v>613</v>
       </c>
-      <c r="J13" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>9.95</v>
+      <c r="J13">
+        <v>70</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P13" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3203,8 +3520,8 @@
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" t="n">
-        <v>2018.0</v>
+      <c r="D14">
+        <v>2018</v>
       </c>
       <c r="E14" t="s">
         <v>263</v>
@@ -3215,35 +3532,35 @@
       <c r="G14" t="s">
         <v>497</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>3.5000000000000004</v>
       </c>
       <c r="I14" t="s">
         <v>614</v>
       </c>
-      <c r="J14" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>9.95</v>
+      <c r="J14">
+        <v>70</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P14" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3253,8 +3570,8 @@
       <c r="C15" t="s">
         <v>148</v>
       </c>
-      <c r="D15" t="n">
-        <v>2019.0</v>
+      <c r="D15">
+        <v>2019</v>
       </c>
       <c r="E15" t="s">
         <v>264</v>
@@ -3265,35 +3582,35 @@
       <c r="G15" t="s">
         <v>498</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>2.8000000000000003</v>
       </c>
       <c r="I15" t="s">
         <v>615</v>
       </c>
-      <c r="J15" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>9.95</v>
+      <c r="J15">
+        <v>70</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>50</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P15" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -3303,8 +3620,8 @@
       <c r="C16" t="s">
         <v>149</v>
       </c>
-      <c r="D16" t="n">
-        <v>2019.0</v>
+      <c r="D16">
+        <v>2019</v>
       </c>
       <c r="E16" t="s">
         <v>265</v>
@@ -3315,35 +3632,35 @@
       <c r="G16" t="s">
         <v>499</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>2.5</v>
       </c>
       <c r="I16" t="s">
         <v>616</v>
       </c>
-      <c r="J16" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>9.95</v>
+      <c r="J16">
+        <v>70</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P16" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -3353,8 +3670,8 @@
       <c r="C17" t="s">
         <v>150</v>
       </c>
-      <c r="D17" t="n">
-        <v>2019.0</v>
+      <c r="D17">
+        <v>2019</v>
       </c>
       <c r="E17" t="s">
         <v>266</v>
@@ -3365,35 +3682,35 @@
       <c r="G17" t="s">
         <v>500</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>2.5</v>
       </c>
       <c r="I17" t="s">
         <v>617</v>
       </c>
-      <c r="J17" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>9.95</v>
+      <c r="J17">
+        <v>70</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <v>50</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P17" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -3403,8 +3720,8 @@
       <c r="C18" t="s">
         <v>151</v>
       </c>
-      <c r="D18" t="n">
-        <v>2019.0</v>
+      <c r="D18">
+        <v>2019</v>
       </c>
       <c r="E18" t="s">
         <v>267</v>
@@ -3415,35 +3732,35 @@
       <c r="G18" t="s">
         <v>501</v>
       </c>
-      <c r="H18" t="n">
-        <v>2.3</v>
+      <c r="H18">
+        <v>2.2999999999999998</v>
       </c>
       <c r="I18" t="s">
         <v>618</v>
       </c>
-      <c r="J18" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>9.95</v>
+      <c r="J18">
+        <v>70</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>50</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P18" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -3453,8 +3770,8 @@
       <c r="C19" t="s">
         <v>152</v>
       </c>
-      <c r="D19" t="n">
-        <v>2019.0</v>
+      <c r="D19">
+        <v>2019</v>
       </c>
       <c r="E19" t="s">
         <v>268</v>
@@ -3465,35 +3782,35 @@
       <c r="G19" t="s">
         <v>502</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>2.6</v>
       </c>
       <c r="I19" t="s">
         <v>619</v>
       </c>
-      <c r="J19" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>9.95</v>
+      <c r="J19">
+        <v>70</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>50</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P19" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -3503,8 +3820,8 @@
       <c r="C20" t="s">
         <v>153</v>
       </c>
-      <c r="D20" t="n">
-        <v>2019.0</v>
+      <c r="D20">
+        <v>2019</v>
       </c>
       <c r="E20" t="s">
         <v>269</v>
@@ -3515,35 +3832,35 @@
       <c r="G20" t="s">
         <v>503</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>2.1</v>
       </c>
       <c r="I20" t="s">
         <v>620</v>
       </c>
-      <c r="J20" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>9.95</v>
+      <c r="J20">
+        <v>70</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>50</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P20" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -3553,8 +3870,8 @@
       <c r="C21" t="s">
         <v>154</v>
       </c>
-      <c r="D21" t="n">
-        <v>2019.0</v>
+      <c r="D21">
+        <v>2019</v>
       </c>
       <c r="E21" t="s">
         <v>270</v>
@@ -3565,35 +3882,35 @@
       <c r="G21" t="s">
         <v>504</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>2.5</v>
       </c>
       <c r="I21" t="s">
         <v>621</v>
       </c>
-      <c r="J21" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>9.95</v>
+      <c r="J21">
+        <v>70</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P21" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3603,8 +3920,8 @@
       <c r="C22" t="s">
         <v>155</v>
       </c>
-      <c r="D22" t="n">
-        <v>2019.0</v>
+      <c r="D22">
+        <v>2019</v>
       </c>
       <c r="E22" t="s">
         <v>271</v>
@@ -3615,35 +3932,35 @@
       <c r="G22" t="s">
         <v>505</v>
       </c>
-      <c r="H22" t="n">
-        <v>30.0</v>
+      <c r="H22">
+        <v>30</v>
       </c>
       <c r="I22" t="s">
         <v>622</v>
       </c>
-      <c r="J22" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>9.95</v>
+      <c r="J22">
+        <v>70</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P22" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -3653,8 +3970,8 @@
       <c r="C23" t="s">
         <v>156</v>
       </c>
-      <c r="D23" t="n">
-        <v>2018.0</v>
+      <c r="D23">
+        <v>2018</v>
       </c>
       <c r="E23" t="s">
         <v>272</v>
@@ -3665,35 +3982,35 @@
       <c r="G23" t="s">
         <v>506</v>
       </c>
-      <c r="H23" t="n">
-        <v>2.3</v>
+      <c r="H23">
+        <v>2.2999999999999998</v>
       </c>
       <c r="I23" t="s">
         <v>623</v>
       </c>
-      <c r="J23" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>9.95</v>
+      <c r="J23">
+        <v>70</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P23" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -3703,8 +4020,8 @@
       <c r="C24" t="s">
         <v>157</v>
       </c>
-      <c r="D24" t="n">
-        <v>2017.0</v>
+      <c r="D24">
+        <v>2017</v>
       </c>
       <c r="E24" t="s">
         <v>273</v>
@@ -3715,35 +4032,35 @@
       <c r="G24" t="s">
         <v>507</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>2.7</v>
       </c>
       <c r="I24" t="s">
         <v>624</v>
       </c>
-      <c r="J24" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>9.95</v>
+      <c r="J24">
+        <v>70</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P24" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -3753,8 +4070,8 @@
       <c r="C25" t="s">
         <v>158</v>
       </c>
-      <c r="D25" t="n">
-        <v>2019.0</v>
+      <c r="D25">
+        <v>2019</v>
       </c>
       <c r="E25" t="s">
         <v>274</v>
@@ -3765,35 +4082,35 @@
       <c r="G25" t="s">
         <v>508</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>2.9000000000000004</v>
       </c>
       <c r="I25" t="s">
         <v>625</v>
       </c>
-      <c r="J25" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>9.95</v>
+      <c r="J25">
+        <v>70</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>50</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P25" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -3803,8 +4120,8 @@
       <c r="C26" t="s">
         <v>159</v>
       </c>
-      <c r="D26" t="n">
-        <v>2019.0</v>
+      <c r="D26">
+        <v>2019</v>
       </c>
       <c r="E26" t="s">
         <v>275</v>
@@ -3815,35 +4132,35 @@
       <c r="G26" t="s">
         <v>509</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>3.5999999999999996</v>
       </c>
       <c r="I26" t="s">
         <v>626</v>
       </c>
-      <c r="J26" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>9.95</v>
+      <c r="J26">
+        <v>70</v>
+      </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <v>50</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P26" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -3853,8 +4170,8 @@
       <c r="C27" t="s">
         <v>160</v>
       </c>
-      <c r="D27" t="n">
-        <v>2019.0</v>
+      <c r="D27">
+        <v>2019</v>
       </c>
       <c r="E27" t="s">
         <v>276</v>
@@ -3865,35 +4182,35 @@
       <c r="G27" t="s">
         <v>510</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>3.1</v>
       </c>
       <c r="I27" t="s">
         <v>627</v>
       </c>
-      <c r="J27" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>9.95</v>
+      <c r="J27">
+        <v>70</v>
+      </c>
+      <c r="K27">
+        <v>20</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P27" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3903,8 +4220,8 @@
       <c r="C28" t="s">
         <v>161</v>
       </c>
-      <c r="D28" t="n">
-        <v>2019.0</v>
+      <c r="D28">
+        <v>2019</v>
       </c>
       <c r="E28" t="s">
         <v>277</v>
@@ -3915,35 +4232,35 @@
       <c r="G28" t="s">
         <v>511</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>3.1</v>
       </c>
       <c r="I28" t="s">
         <v>628</v>
       </c>
-      <c r="J28" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>9.95</v>
+      <c r="J28">
+        <v>70</v>
+      </c>
+      <c r="K28">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P28" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -3953,8 +4270,8 @@
       <c r="C29" t="s">
         <v>162</v>
       </c>
-      <c r="D29" t="n">
-        <v>2019.0</v>
+      <c r="D29">
+        <v>2019</v>
       </c>
       <c r="E29" t="s">
         <v>278</v>
@@ -3965,35 +4282,35 @@
       <c r="G29" t="s">
         <v>512</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>2.1</v>
       </c>
       <c r="I29" t="s">
         <v>629</v>
       </c>
-      <c r="J29" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>9.95</v>
+      <c r="J29">
+        <v>70</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P29" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -4003,8 +4320,8 @@
       <c r="C30" t="s">
         <v>163</v>
       </c>
-      <c r="D30" t="n">
-        <v>2019.0</v>
+      <c r="D30">
+        <v>2019</v>
       </c>
       <c r="E30" t="s">
         <v>279</v>
@@ -4015,35 +4332,35 @@
       <c r="G30" t="s">
         <v>513</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>2.9000000000000004</v>
       </c>
       <c r="I30" t="s">
         <v>630</v>
       </c>
-      <c r="J30" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>9.95</v>
+      <c r="J30">
+        <v>70</v>
+      </c>
+      <c r="K30">
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <v>50</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P30" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -4053,8 +4370,8 @@
       <c r="C31" t="s">
         <v>164</v>
       </c>
-      <c r="D31" t="n">
-        <v>2018.0</v>
+      <c r="D31">
+        <v>2018</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
@@ -4065,35 +4382,35 @@
       <c r="G31" t="s">
         <v>514</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>3.5999999999999996</v>
       </c>
       <c r="I31" t="s">
         <v>631</v>
       </c>
-      <c r="J31" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>9.95</v>
+      <c r="J31">
+        <v>70</v>
+      </c>
+      <c r="K31">
+        <v>20</v>
+      </c>
+      <c r="L31">
+        <v>50</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P31" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -4103,8 +4420,8 @@
       <c r="C32" t="s">
         <v>165</v>
       </c>
-      <c r="D32" t="n">
-        <v>2019.0</v>
+      <c r="D32">
+        <v>2019</v>
       </c>
       <c r="E32" t="s">
         <v>281</v>
@@ -4115,35 +4432,35 @@
       <c r="G32" t="s">
         <v>515</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>2.5</v>
       </c>
       <c r="I32" t="s">
         <v>632</v>
       </c>
-      <c r="J32" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>9.95</v>
+      <c r="J32">
+        <v>70</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P32" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -4153,8 +4470,8 @@
       <c r="C33" t="s">
         <v>166</v>
       </c>
-      <c r="D33" t="n">
-        <v>2019.0</v>
+      <c r="D33">
+        <v>2019</v>
       </c>
       <c r="E33" t="s">
         <v>282</v>
@@ -4165,35 +4482,35 @@
       <c r="G33" t="s">
         <v>516</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>3.3000000000000003</v>
       </c>
       <c r="I33" t="s">
         <v>633</v>
       </c>
-      <c r="J33" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>9.95</v>
+      <c r="J33">
+        <v>70</v>
+      </c>
+      <c r="K33">
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <v>50</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P33" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -4203,8 +4520,8 @@
       <c r="C34" t="s">
         <v>167</v>
       </c>
-      <c r="D34" t="n">
-        <v>2019.0</v>
+      <c r="D34">
+        <v>2019</v>
       </c>
       <c r="E34" t="s">
         <v>283</v>
@@ -4215,35 +4532,35 @@
       <c r="G34" t="s">
         <v>517</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>2.8000000000000003</v>
       </c>
       <c r="I34" t="s">
         <v>634</v>
       </c>
-      <c r="J34" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>9.95</v>
+      <c r="J34">
+        <v>70</v>
+      </c>
+      <c r="K34">
+        <v>20</v>
+      </c>
+      <c r="L34">
+        <v>50</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P34" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -4253,8 +4570,8 @@
       <c r="C35" t="s">
         <v>168</v>
       </c>
-      <c r="D35" t="n">
-        <v>2019.0</v>
+      <c r="D35">
+        <v>2019</v>
       </c>
       <c r="E35" t="s">
         <v>284</v>
@@ -4265,35 +4582,35 @@
       <c r="G35" t="s">
         <v>518</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>3.3000000000000003</v>
       </c>
       <c r="I35" t="s">
         <v>635</v>
       </c>
-      <c r="J35" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>9.95</v>
+      <c r="J35">
+        <v>70</v>
+      </c>
+      <c r="K35">
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <v>50</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P35" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -4303,8 +4620,8 @@
       <c r="C36" t="s">
         <v>169</v>
       </c>
-      <c r="D36" t="n">
-        <v>2019.0</v>
+      <c r="D36">
+        <v>2019</v>
       </c>
       <c r="E36" t="s">
         <v>285</v>
@@ -4315,35 +4632,35 @@
       <c r="G36" t="s">
         <v>519</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>2.9000000000000004</v>
       </c>
       <c r="I36" t="s">
         <v>636</v>
       </c>
-      <c r="J36" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>9.95</v>
+      <c r="J36">
+        <v>70</v>
+      </c>
+      <c r="K36">
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <v>50</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P36" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -4353,8 +4670,8 @@
       <c r="C37" t="s">
         <v>170</v>
       </c>
-      <c r="D37" t="n">
-        <v>2019.0</v>
+      <c r="D37">
+        <v>2019</v>
       </c>
       <c r="E37" t="s">
         <v>286</v>
@@ -4365,35 +4682,35 @@
       <c r="G37" t="s">
         <v>520</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>3.8</v>
       </c>
       <c r="I37" t="s">
         <v>637</v>
       </c>
-      <c r="J37" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>9.95</v>
+      <c r="J37">
+        <v>70</v>
+      </c>
+      <c r="K37">
+        <v>20</v>
+      </c>
+      <c r="L37">
+        <v>50</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P37" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -4403,8 +4720,8 @@
       <c r="C38" t="s">
         <v>171</v>
       </c>
-      <c r="D38" t="n">
-        <v>2019.0</v>
+      <c r="D38">
+        <v>2019</v>
       </c>
       <c r="E38" t="s">
         <v>287</v>
@@ -4415,35 +4732,35 @@
       <c r="G38" t="s">
         <v>521</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>2.9000000000000004</v>
       </c>
       <c r="I38" t="s">
         <v>638</v>
       </c>
-      <c r="J38" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>9.95</v>
+      <c r="J38">
+        <v>70</v>
+      </c>
+      <c r="K38">
+        <v>20</v>
+      </c>
+      <c r="L38">
+        <v>50</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P38" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -4453,8 +4770,8 @@
       <c r="C39" t="s">
         <v>172</v>
       </c>
-      <c r="D39" t="n">
-        <v>2019.0</v>
+      <c r="D39">
+        <v>2019</v>
       </c>
       <c r="E39" t="s">
         <v>288</v>
@@ -4465,35 +4782,35 @@
       <c r="G39" t="s">
         <v>522</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>3.2</v>
       </c>
       <c r="I39" t="s">
         <v>639</v>
       </c>
-      <c r="J39" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>9.95</v>
+      <c r="J39">
+        <v>70</v>
+      </c>
+      <c r="K39">
+        <v>20</v>
+      </c>
+      <c r="L39">
+        <v>50</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P39" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -4503,8 +4820,8 @@
       <c r="C40" t="s">
         <v>173</v>
       </c>
-      <c r="D40" t="n">
-        <v>2019.0</v>
+      <c r="D40">
+        <v>2019</v>
       </c>
       <c r="E40" t="s">
         <v>289</v>
@@ -4515,35 +4832,35 @@
       <c r="G40" t="s">
         <v>523</v>
       </c>
-      <c r="H40" t="n">
-        <v>3.0</v>
+      <c r="H40">
+        <v>3</v>
       </c>
       <c r="I40" t="s">
         <v>640</v>
       </c>
-      <c r="J40" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>9.95</v>
+      <c r="J40">
+        <v>70</v>
+      </c>
+      <c r="K40">
+        <v>20</v>
+      </c>
+      <c r="L40">
+        <v>50</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P40" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -4553,8 +4870,8 @@
       <c r="C41" t="s">
         <v>174</v>
       </c>
-      <c r="D41" t="n">
-        <v>2019.0</v>
+      <c r="D41">
+        <v>2019</v>
       </c>
       <c r="E41" t="s">
         <v>290</v>
@@ -4565,35 +4882,35 @@
       <c r="G41" t="s">
         <v>524</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>3.6999999999999997</v>
       </c>
       <c r="I41" t="s">
         <v>641</v>
       </c>
-      <c r="J41" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>9.95</v>
+      <c r="J41">
+        <v>70</v>
+      </c>
+      <c r="K41">
+        <v>20</v>
+      </c>
+      <c r="L41">
+        <v>50</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P41" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -4603,8 +4920,8 @@
       <c r="C42" t="s">
         <v>175</v>
       </c>
-      <c r="D42" t="n">
-        <v>2017.0</v>
+      <c r="D42">
+        <v>2017</v>
       </c>
       <c r="E42" t="s">
         <v>291</v>
@@ -4615,35 +4932,35 @@
       <c r="G42" t="s">
         <v>525</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>4.1000000000000005</v>
       </c>
       <c r="I42" t="s">
         <v>642</v>
       </c>
-      <c r="J42" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>9.95</v>
+      <c r="J42">
+        <v>70</v>
+      </c>
+      <c r="K42">
+        <v>20</v>
+      </c>
+      <c r="L42">
+        <v>50</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P42" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -4653,8 +4970,8 @@
       <c r="C43" t="s">
         <v>176</v>
       </c>
-      <c r="D43" t="n">
-        <v>2019.0</v>
+      <c r="D43">
+        <v>2019</v>
       </c>
       <c r="E43" t="s">
         <v>292</v>
@@ -4665,35 +4982,35 @@
       <c r="G43" t="s">
         <v>526</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>3.9</v>
       </c>
       <c r="I43" t="s">
         <v>643</v>
       </c>
-      <c r="J43" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>9.95</v>
+      <c r="J43">
+        <v>70</v>
+      </c>
+      <c r="K43">
+        <v>20</v>
+      </c>
+      <c r="L43">
+        <v>50</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P43" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -4703,8 +5020,8 @@
       <c r="C44" t="s">
         <v>177</v>
       </c>
-      <c r="D44" t="n">
-        <v>2019.0</v>
+      <c r="D44">
+        <v>2019</v>
       </c>
       <c r="E44" t="s">
         <v>293</v>
@@ -4715,35 +5032,35 @@
       <c r="G44" t="s">
         <v>527</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>3.1</v>
       </c>
       <c r="I44" t="s">
         <v>644</v>
       </c>
-      <c r="J44" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>9.95</v>
+      <c r="J44">
+        <v>70</v>
+      </c>
+      <c r="K44">
+        <v>20</v>
+      </c>
+      <c r="L44">
+        <v>50</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P44" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -4753,8 +5070,8 @@
       <c r="C45" t="s">
         <v>178</v>
       </c>
-      <c r="D45" t="n">
-        <v>2019.0</v>
+      <c r="D45">
+        <v>2019</v>
       </c>
       <c r="E45" t="s">
         <v>294</v>
@@ -4765,35 +5082,35 @@
       <c r="G45" t="s">
         <v>528</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>2.9000000000000004</v>
       </c>
       <c r="I45" t="s">
         <v>645</v>
       </c>
-      <c r="J45" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>9.95</v>
+      <c r="J45">
+        <v>70</v>
+      </c>
+      <c r="K45">
+        <v>20</v>
+      </c>
+      <c r="L45">
+        <v>50</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P45" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -4803,8 +5120,8 @@
       <c r="C46" t="s">
         <v>179</v>
       </c>
-      <c r="D46" t="n">
-        <v>2019.0</v>
+      <c r="D46">
+        <v>2019</v>
       </c>
       <c r="E46" t="s">
         <v>295</v>
@@ -4815,35 +5132,35 @@
       <c r="G46" t="s">
         <v>529</v>
       </c>
-      <c r="H46" t="n">
-        <v>4.0</v>
+      <c r="H46">
+        <v>4</v>
       </c>
       <c r="I46" t="s">
         <v>646</v>
       </c>
-      <c r="J46" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>9.95</v>
+      <c r="J46">
+        <v>70</v>
+      </c>
+      <c r="K46">
+        <v>20</v>
+      </c>
+      <c r="L46">
+        <v>50</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P46" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -4853,8 +5170,8 @@
       <c r="C47" t="s">
         <v>180</v>
       </c>
-      <c r="D47" t="n">
-        <v>2019.0</v>
+      <c r="D47">
+        <v>2019</v>
       </c>
       <c r="E47" t="s">
         <v>296</v>
@@ -4865,35 +5182,35 @@
       <c r="G47" t="s">
         <v>530</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>2.5</v>
       </c>
       <c r="I47" t="s">
         <v>647</v>
       </c>
-      <c r="J47" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>9.95</v>
+      <c r="J47">
+        <v>70</v>
+      </c>
+      <c r="K47">
+        <v>20</v>
+      </c>
+      <c r="L47">
+        <v>50</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P47" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -4903,8 +5220,8 @@
       <c r="C48" t="s">
         <v>181</v>
       </c>
-      <c r="D48" t="n">
-        <v>2017.0</v>
+      <c r="D48">
+        <v>2017</v>
       </c>
       <c r="E48" t="s">
         <v>297</v>
@@ -4915,35 +5232,35 @@
       <c r="G48" t="s">
         <v>531</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>3.9</v>
       </c>
       <c r="I48" t="s">
         <v>648</v>
       </c>
-      <c r="J48" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>9.95</v>
+      <c r="J48">
+        <v>70</v>
+      </c>
+      <c r="K48">
+        <v>20</v>
+      </c>
+      <c r="L48">
+        <v>50</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P48" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -4953,8 +5270,8 @@
       <c r="C49" t="s">
         <v>182</v>
       </c>
-      <c r="D49" t="n">
-        <v>2019.0</v>
+      <c r="D49">
+        <v>2019</v>
       </c>
       <c r="E49" t="s">
         <v>298</v>
@@ -4965,35 +5282,35 @@
       <c r="G49" t="s">
         <v>532</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>3.8</v>
       </c>
       <c r="I49" t="s">
         <v>649</v>
       </c>
-      <c r="J49" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>9.95</v>
+      <c r="J49">
+        <v>70</v>
+      </c>
+      <c r="K49">
+        <v>20</v>
+      </c>
+      <c r="L49">
+        <v>50</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P49" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -5003,8 +5320,8 @@
       <c r="C50" t="s">
         <v>183</v>
       </c>
-      <c r="D50" t="n">
-        <v>2019.0</v>
+      <c r="D50">
+        <v>2019</v>
       </c>
       <c r="E50" t="s">
         <v>299</v>
@@ -5015,35 +5332,35 @@
       <c r="G50" t="s">
         <v>533</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>5.7</v>
       </c>
       <c r="I50" t="s">
         <v>650</v>
       </c>
-      <c r="J50" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>9.95</v>
+      <c r="J50">
+        <v>70</v>
+      </c>
+      <c r="K50">
+        <v>20</v>
+      </c>
+      <c r="L50">
+        <v>50</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P50" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -5053,8 +5370,8 @@
       <c r="C51" t="s">
         <v>184</v>
       </c>
-      <c r="D51" t="n">
-        <v>2019.0</v>
+      <c r="D51">
+        <v>2019</v>
       </c>
       <c r="E51" t="s">
         <v>300</v>
@@ -5065,35 +5382,35 @@
       <c r="G51" t="s">
         <v>534</v>
       </c>
-      <c r="H51" t="n">
-        <v>3.0</v>
+      <c r="H51">
+        <v>3</v>
       </c>
       <c r="I51" t="s">
         <v>651</v>
       </c>
-      <c r="J51" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O51" t="n">
-        <v>9.95</v>
+      <c r="J51">
+        <v>70</v>
+      </c>
+      <c r="K51">
+        <v>20</v>
+      </c>
+      <c r="L51">
+        <v>50</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P51" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -5103,8 +5420,8 @@
       <c r="C52" t="s">
         <v>185</v>
       </c>
-      <c r="D52" t="n">
-        <v>2010.0</v>
+      <c r="D52">
+        <v>2010</v>
       </c>
       <c r="E52" t="s">
         <v>301</v>
@@ -5115,35 +5432,35 @@
       <c r="G52" t="s">
         <v>535</v>
       </c>
-      <c r="H52" t="n">
-        <v>5.800000000000001</v>
+      <c r="H52">
+        <v>5.8000000000000007</v>
       </c>
       <c r="I52" t="s">
         <v>652</v>
       </c>
-      <c r="J52" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>9.95</v>
+      <c r="J52">
+        <v>70</v>
+      </c>
+      <c r="K52">
+        <v>20</v>
+      </c>
+      <c r="L52">
+        <v>50</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P52" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -5153,8 +5470,8 @@
       <c r="C53" t="s">
         <v>186</v>
       </c>
-      <c r="D53" t="n">
-        <v>2018.0</v>
+      <c r="D53">
+        <v>2018</v>
       </c>
       <c r="E53" t="s">
         <v>302</v>
@@ -5165,35 +5482,35 @@
       <c r="G53" t="s">
         <v>536</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>4.1000000000000005</v>
       </c>
       <c r="I53" t="s">
         <v>653</v>
       </c>
-      <c r="J53" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>9.95</v>
+      <c r="J53">
+        <v>70</v>
+      </c>
+      <c r="K53">
+        <v>20</v>
+      </c>
+      <c r="L53">
+        <v>50</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P53" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -5203,8 +5520,8 @@
       <c r="C54" t="s">
         <v>187</v>
       </c>
-      <c r="D54" t="n">
-        <v>2009.0</v>
+      <c r="D54">
+        <v>2009</v>
       </c>
       <c r="E54" t="s">
         <v>303</v>
@@ -5215,35 +5532,35 @@
       <c r="G54" t="s">
         <v>537</v>
       </c>
-      <c r="H54" t="n">
-        <v>4.6</v>
+      <c r="H54">
+        <v>4.5999999999999996</v>
       </c>
       <c r="I54" t="s">
         <v>654</v>
       </c>
-      <c r="J54" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>9.95</v>
+      <c r="J54">
+        <v>70</v>
+      </c>
+      <c r="K54">
+        <v>20</v>
+      </c>
+      <c r="L54">
+        <v>50</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P54" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -5253,8 +5570,8 @@
       <c r="C55" t="s">
         <v>188</v>
       </c>
-      <c r="D55" t="n">
-        <v>2019.0</v>
+      <c r="D55">
+        <v>2019</v>
       </c>
       <c r="E55" t="s">
         <v>304</v>
@@ -5265,35 +5582,35 @@
       <c r="G55" t="s">
         <v>538</v>
       </c>
-      <c r="H55" t="n">
-        <v>4.9</v>
+      <c r="H55">
+        <v>4.9000000000000004</v>
       </c>
       <c r="I55" t="s">
         <v>655</v>
       </c>
-      <c r="J55" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>9.95</v>
+      <c r="J55">
+        <v>70</v>
+      </c>
+      <c r="K55">
+        <v>20</v>
+      </c>
+      <c r="L55">
+        <v>50</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P55" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -5303,8 +5620,8 @@
       <c r="C56" t="s">
         <v>189</v>
       </c>
-      <c r="D56" t="n">
-        <v>2019.0</v>
+      <c r="D56">
+        <v>2019</v>
       </c>
       <c r="E56" t="s">
         <v>305</v>
@@ -5315,35 +5632,35 @@
       <c r="G56" t="s">
         <v>539</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>3.5000000000000004</v>
       </c>
       <c r="I56" t="s">
         <v>656</v>
       </c>
-      <c r="J56" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>9.95</v>
+      <c r="J56">
+        <v>70</v>
+      </c>
+      <c r="K56">
+        <v>20</v>
+      </c>
+      <c r="L56">
+        <v>50</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P56" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -5353,8 +5670,8 @@
       <c r="C57" t="s">
         <v>190</v>
       </c>
-      <c r="D57" t="n">
-        <v>2019.0</v>
+      <c r="D57">
+        <v>2019</v>
       </c>
       <c r="E57" t="s">
         <v>306</v>
@@ -5365,35 +5682,35 @@
       <c r="G57" t="s">
         <v>540</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>3.4000000000000004</v>
       </c>
       <c r="I57" t="s">
         <v>657</v>
       </c>
-      <c r="J57" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>9.95</v>
+      <c r="J57">
+        <v>70</v>
+      </c>
+      <c r="K57">
+        <v>20</v>
+      </c>
+      <c r="L57">
+        <v>50</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P57" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -5403,8 +5720,8 @@
       <c r="C58" t="s">
         <v>191</v>
       </c>
-      <c r="D58" t="n">
-        <v>2018.0</v>
+      <c r="D58">
+        <v>2018</v>
       </c>
       <c r="E58" t="s">
         <v>307</v>
@@ -5415,35 +5732,35 @@
       <c r="G58" t="s">
         <v>541</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>2.8000000000000003</v>
       </c>
       <c r="I58" t="s">
         <v>658</v>
       </c>
-      <c r="J58" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>9.95</v>
+      <c r="J58">
+        <v>70</v>
+      </c>
+      <c r="K58">
+        <v>20</v>
+      </c>
+      <c r="L58">
+        <v>50</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P58" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -5453,8 +5770,8 @@
       <c r="C59" t="s">
         <v>192</v>
       </c>
-      <c r="D59" t="n">
-        <v>2019.0</v>
+      <c r="D59">
+        <v>2019</v>
       </c>
       <c r="E59" t="s">
         <v>308</v>
@@ -5465,35 +5782,35 @@
       <c r="G59" t="s">
         <v>542</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>3.2</v>
       </c>
       <c r="I59" t="s">
         <v>659</v>
       </c>
-      <c r="J59" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O59" t="n">
-        <v>9.95</v>
+      <c r="J59">
+        <v>70</v>
+      </c>
+      <c r="K59">
+        <v>20</v>
+      </c>
+      <c r="L59">
+        <v>50</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P59" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -5503,8 +5820,8 @@
       <c r="C60" t="s">
         <v>193</v>
       </c>
-      <c r="D60" t="n">
-        <v>2017.0</v>
+      <c r="D60">
+        <v>2017</v>
       </c>
       <c r="E60" t="s">
         <v>309</v>
@@ -5515,35 +5832,35 @@
       <c r="G60" t="s">
         <v>543</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>4.7</v>
       </c>
       <c r="I60" t="s">
         <v>660</v>
       </c>
-      <c r="J60" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O60" t="n">
-        <v>9.95</v>
+      <c r="J60">
+        <v>70</v>
+      </c>
+      <c r="K60">
+        <v>20</v>
+      </c>
+      <c r="L60">
+        <v>50</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P60" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -5553,8 +5870,8 @@
       <c r="C61" t="s">
         <v>194</v>
       </c>
-      <c r="D61" t="n">
-        <v>2018.0</v>
+      <c r="D61">
+        <v>2018</v>
       </c>
       <c r="E61" t="s">
         <v>310</v>
@@ -5565,35 +5882,35 @@
       <c r="G61" t="s">
         <v>544</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>3.8</v>
       </c>
       <c r="I61" t="s">
         <v>661</v>
       </c>
-      <c r="J61" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O61" t="n">
-        <v>9.95</v>
+      <c r="J61">
+        <v>70</v>
+      </c>
+      <c r="K61">
+        <v>20</v>
+      </c>
+      <c r="L61">
+        <v>50</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P61" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -5603,8 +5920,8 @@
       <c r="C62" t="s">
         <v>195</v>
       </c>
-      <c r="D62" t="n">
-        <v>2019.0</v>
+      <c r="D62">
+        <v>2019</v>
       </c>
       <c r="E62" t="s">
         <v>311</v>
@@ -5615,35 +5932,35 @@
       <c r="G62" t="s">
         <v>545</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>7.1</v>
       </c>
       <c r="I62" t="s">
         <v>662</v>
       </c>
-      <c r="J62" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O62" t="n">
-        <v>9.95</v>
+      <c r="J62">
+        <v>70</v>
+      </c>
+      <c r="K62">
+        <v>20</v>
+      </c>
+      <c r="L62">
+        <v>50</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P62" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -5653,8 +5970,8 @@
       <c r="C63" t="s">
         <v>196</v>
       </c>
-      <c r="D63" t="n">
-        <v>2019.0</v>
+      <c r="D63">
+        <v>2019</v>
       </c>
       <c r="E63" t="s">
         <v>312</v>
@@ -5665,35 +5982,35 @@
       <c r="G63" t="s">
         <v>546</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>2.8000000000000003</v>
       </c>
       <c r="I63" t="s">
         <v>663</v>
       </c>
-      <c r="J63" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O63" t="n">
-        <v>9.95</v>
+      <c r="J63">
+        <v>70</v>
+      </c>
+      <c r="K63">
+        <v>20</v>
+      </c>
+      <c r="L63">
+        <v>50</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P63" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -5703,8 +6020,8 @@
       <c r="C64" t="s">
         <v>197</v>
       </c>
-      <c r="D64" t="n">
-        <v>2017.0</v>
+      <c r="D64">
+        <v>2017</v>
       </c>
       <c r="E64" t="s">
         <v>313</v>
@@ -5715,35 +6032,35 @@
       <c r="G64" t="s">
         <v>547</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>3.4000000000000004</v>
       </c>
       <c r="I64" t="s">
         <v>664</v>
       </c>
-      <c r="J64" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>9.95</v>
+      <c r="J64">
+        <v>70</v>
+      </c>
+      <c r="K64">
+        <v>20</v>
+      </c>
+      <c r="L64">
+        <v>50</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P64" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -5753,8 +6070,8 @@
       <c r="C65" t="s">
         <v>198</v>
       </c>
-      <c r="D65" t="n">
-        <v>2016.0</v>
+      <c r="D65">
+        <v>2016</v>
       </c>
       <c r="E65" t="s">
         <v>314</v>
@@ -5765,35 +6082,35 @@
       <c r="G65" t="s">
         <v>548</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>5.2</v>
       </c>
       <c r="I65" t="s">
         <v>665</v>
       </c>
-      <c r="J65" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O65" t="n">
-        <v>9.95</v>
+      <c r="J65">
+        <v>70</v>
+      </c>
+      <c r="K65">
+        <v>20</v>
+      </c>
+      <c r="L65">
+        <v>50</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P65" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -5803,8 +6120,8 @@
       <c r="C66" t="s">
         <v>199</v>
       </c>
-      <c r="D66" t="n">
-        <v>2019.0</v>
+      <c r="D66">
+        <v>2019</v>
       </c>
       <c r="E66" t="s">
         <v>315</v>
@@ -5815,35 +6132,35 @@
       <c r="G66" t="s">
         <v>549</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>3.3000000000000003</v>
       </c>
       <c r="I66" t="s">
         <v>666</v>
       </c>
-      <c r="J66" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O66" t="n">
-        <v>9.95</v>
+      <c r="J66">
+        <v>70</v>
+      </c>
+      <c r="K66">
+        <v>20</v>
+      </c>
+      <c r="L66">
+        <v>50</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P66" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -5853,8 +6170,8 @@
       <c r="C67" t="s">
         <v>200</v>
       </c>
-      <c r="D67" t="n">
-        <v>2017.0</v>
+      <c r="D67">
+        <v>2017</v>
       </c>
       <c r="E67" t="s">
         <v>316</v>
@@ -5865,35 +6182,35 @@
       <c r="G67" t="s">
         <v>550</v>
       </c>
-      <c r="H67" t="n">
-        <v>5.0</v>
+      <c r="H67">
+        <v>5</v>
       </c>
       <c r="I67" t="s">
         <v>667</v>
       </c>
-      <c r="J67" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O67" t="n">
-        <v>9.95</v>
+      <c r="J67">
+        <v>70</v>
+      </c>
+      <c r="K67">
+        <v>20</v>
+      </c>
+      <c r="L67">
+        <v>50</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P67" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -5903,8 +6220,8 @@
       <c r="C68" t="s">
         <v>201</v>
       </c>
-      <c r="D68" t="n">
-        <v>2017.0</v>
+      <c r="D68">
+        <v>2017</v>
       </c>
       <c r="E68" t="s">
         <v>317</v>
@@ -5915,35 +6232,35 @@
       <c r="G68" t="s">
         <v>551</v>
       </c>
-      <c r="H68" t="n">
-        <v>8.0</v>
+      <c r="H68">
+        <v>8</v>
       </c>
       <c r="I68" t="s">
         <v>668</v>
       </c>
-      <c r="J68" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O68" t="n">
-        <v>9.95</v>
+      <c r="J68">
+        <v>70</v>
+      </c>
+      <c r="K68">
+        <v>20</v>
+      </c>
+      <c r="L68">
+        <v>50</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P68" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -5953,8 +6270,8 @@
       <c r="C69" t="s">
         <v>202</v>
       </c>
-      <c r="D69" t="n">
-        <v>2019.0</v>
+      <c r="D69">
+        <v>2019</v>
       </c>
       <c r="E69" t="s">
         <v>318</v>
@@ -5965,35 +6282,35 @@
       <c r="G69" t="s">
         <v>552</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>2.1999999999999997</v>
       </c>
       <c r="I69" t="s">
         <v>669</v>
       </c>
-      <c r="J69" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O69" t="n">
-        <v>9.95</v>
+      <c r="J69">
+        <v>70</v>
+      </c>
+      <c r="K69">
+        <v>20</v>
+      </c>
+      <c r="L69">
+        <v>50</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P69" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -6003,8 +6320,8 @@
       <c r="C70" t="s">
         <v>203</v>
       </c>
-      <c r="D70" t="n">
-        <v>2019.0</v>
+      <c r="D70">
+        <v>2019</v>
       </c>
       <c r="E70" t="s">
         <v>319</v>
@@ -6015,35 +6332,35 @@
       <c r="G70" t="s">
         <v>553</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>4.3999999999999995</v>
       </c>
       <c r="I70" t="s">
         <v>670</v>
       </c>
-      <c r="J70" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O70" t="n">
-        <v>9.95</v>
+      <c r="J70">
+        <v>70</v>
+      </c>
+      <c r="K70">
+        <v>20</v>
+      </c>
+      <c r="L70">
+        <v>50</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P70" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -6053,8 +6370,8 @@
       <c r="C71" t="s">
         <v>204</v>
       </c>
-      <c r="D71" t="n">
-        <v>2019.0</v>
+      <c r="D71">
+        <v>2019</v>
       </c>
       <c r="E71" t="s">
         <v>320</v>
@@ -6065,35 +6382,35 @@
       <c r="G71" t="s">
         <v>554</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>4.2</v>
       </c>
       <c r="I71" t="s">
         <v>671</v>
       </c>
-      <c r="J71" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N71" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O71" t="n">
-        <v>9.95</v>
+      <c r="J71">
+        <v>70</v>
+      </c>
+      <c r="K71">
+        <v>20</v>
+      </c>
+      <c r="L71">
+        <v>50</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P71" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -6103,8 +6420,8 @@
       <c r="C72" t="s">
         <v>205</v>
       </c>
-      <c r="D72" t="n">
-        <v>2018.0</v>
+      <c r="D72">
+        <v>2018</v>
       </c>
       <c r="E72" t="s">
         <v>321</v>
@@ -6115,35 +6432,35 @@
       <c r="G72" t="s">
         <v>555</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>4.1000000000000005</v>
       </c>
       <c r="I72" t="s">
         <v>672</v>
       </c>
-      <c r="J72" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O72" t="n">
-        <v>9.95</v>
+      <c r="J72">
+        <v>70</v>
+      </c>
+      <c r="K72">
+        <v>20</v>
+      </c>
+      <c r="L72">
+        <v>50</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P72" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -6153,8 +6470,8 @@
       <c r="C73" t="s">
         <v>206</v>
       </c>
-      <c r="D73" t="n">
-        <v>2019.0</v>
+      <c r="D73">
+        <v>2019</v>
       </c>
       <c r="E73" t="s">
         <v>322</v>
@@ -6165,35 +6482,35 @@
       <c r="G73" t="s">
         <v>556</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>2.5</v>
       </c>
       <c r="I73" t="s">
         <v>673</v>
       </c>
-      <c r="J73" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O73" t="n">
-        <v>9.95</v>
+      <c r="J73">
+        <v>70</v>
+      </c>
+      <c r="K73">
+        <v>20</v>
+      </c>
+      <c r="L73">
+        <v>50</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P73" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -6203,8 +6520,8 @@
       <c r="C74" t="s">
         <v>207</v>
       </c>
-      <c r="D74" t="n">
-        <v>2019.0</v>
+      <c r="D74">
+        <v>2019</v>
       </c>
       <c r="E74" t="s">
         <v>323</v>
@@ -6215,35 +6532,35 @@
       <c r="G74" t="s">
         <v>557</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>3.5000000000000004</v>
       </c>
       <c r="I74" t="s">
         <v>674</v>
       </c>
-      <c r="J74" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O74" t="n">
-        <v>9.95</v>
+      <c r="J74">
+        <v>70</v>
+      </c>
+      <c r="K74">
+        <v>20</v>
+      </c>
+      <c r="L74">
+        <v>50</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P74" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>89</v>
       </c>
@@ -6253,8 +6570,8 @@
       <c r="C75" t="s">
         <v>208</v>
       </c>
-      <c r="D75" t="n">
-        <v>2016.0</v>
+      <c r="D75">
+        <v>2016</v>
       </c>
       <c r="E75" t="s">
         <v>324</v>
@@ -6265,35 +6582,35 @@
       <c r="G75" t="s">
         <v>558</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>5.6000000000000005</v>
       </c>
       <c r="I75" t="s">
         <v>675</v>
       </c>
-      <c r="J75" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O75" t="n">
-        <v>9.95</v>
+      <c r="J75">
+        <v>70</v>
+      </c>
+      <c r="K75">
+        <v>20</v>
+      </c>
+      <c r="L75">
+        <v>50</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P75" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -6303,8 +6620,8 @@
       <c r="C76" t="s">
         <v>209</v>
       </c>
-      <c r="D76" t="n">
-        <v>2019.0</v>
+      <c r="D76">
+        <v>2019</v>
       </c>
       <c r="E76" t="s">
         <v>325</v>
@@ -6315,35 +6632,35 @@
       <c r="G76" t="s">
         <v>559</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>4.3</v>
       </c>
       <c r="I76" t="s">
         <v>676</v>
       </c>
-      <c r="J76" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O76" t="n">
-        <v>9.95</v>
+      <c r="J76">
+        <v>70</v>
+      </c>
+      <c r="K76">
+        <v>20</v>
+      </c>
+      <c r="L76">
+        <v>50</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P76" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -6353,8 +6670,8 @@
       <c r="C77" t="s">
         <v>210</v>
       </c>
-      <c r="D77" t="n">
-        <v>2019.0</v>
+      <c r="D77">
+        <v>2019</v>
       </c>
       <c r="E77" t="s">
         <v>326</v>
@@ -6365,35 +6682,35 @@
       <c r="G77" t="s">
         <v>560</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>6.6000000000000005</v>
       </c>
       <c r="I77" t="s">
         <v>677</v>
       </c>
-      <c r="J77" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O77" t="n">
-        <v>9.95</v>
+      <c r="J77">
+        <v>70</v>
+      </c>
+      <c r="K77">
+        <v>20</v>
+      </c>
+      <c r="L77">
+        <v>50</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P77" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -6403,8 +6720,8 @@
       <c r="C78" t="s">
         <v>211</v>
       </c>
-      <c r="D78" t="n">
-        <v>2019.0</v>
+      <c r="D78">
+        <v>2019</v>
       </c>
       <c r="E78" t="s">
         <v>327</v>
@@ -6415,35 +6732,35 @@
       <c r="G78" t="s">
         <v>561</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>5.2</v>
       </c>
       <c r="I78" t="s">
         <v>678</v>
       </c>
-      <c r="J78" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>9.95</v>
+      <c r="J78">
+        <v>70</v>
+      </c>
+      <c r="K78">
+        <v>20</v>
+      </c>
+      <c r="L78">
+        <v>50</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P78" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -6453,8 +6770,8 @@
       <c r="C79" t="s">
         <v>212</v>
       </c>
-      <c r="D79" t="n">
-        <v>2017.0</v>
+      <c r="D79">
+        <v>2017</v>
       </c>
       <c r="E79" t="s">
         <v>328</v>
@@ -6465,35 +6782,35 @@
       <c r="G79" t="s">
         <v>562</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>7.1</v>
       </c>
       <c r="I79" t="s">
         <v>679</v>
       </c>
-      <c r="J79" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N79" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>9.95</v>
+      <c r="J79">
+        <v>70</v>
+      </c>
+      <c r="K79">
+        <v>20</v>
+      </c>
+      <c r="L79">
+        <v>50</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P79" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -6503,8 +6820,8 @@
       <c r="C80" t="s">
         <v>213</v>
       </c>
-      <c r="D80" t="n">
-        <v>2018.0</v>
+      <c r="D80">
+        <v>2018</v>
       </c>
       <c r="E80" t="s">
         <v>329</v>
@@ -6515,35 +6832,35 @@
       <c r="G80" t="s">
         <v>563</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>3.3000000000000003</v>
       </c>
       <c r="I80" t="s">
         <v>680</v>
       </c>
-      <c r="J80" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N80" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O80" t="n">
-        <v>9.95</v>
+      <c r="J80">
+        <v>70</v>
+      </c>
+      <c r="K80">
+        <v>20</v>
+      </c>
+      <c r="L80">
+        <v>50</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P80" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -6553,8 +6870,8 @@
       <c r="C81" t="s">
         <v>214</v>
       </c>
-      <c r="D81" t="n">
-        <v>2016.0</v>
+      <c r="D81">
+        <v>2016</v>
       </c>
       <c r="E81" t="s">
         <v>330</v>
@@ -6565,35 +6882,35 @@
       <c r="G81" t="s">
         <v>564</v>
       </c>
-      <c r="H81" t="n">
-        <v>8.0</v>
+      <c r="H81">
+        <v>8</v>
       </c>
       <c r="I81" t="s">
         <v>681</v>
       </c>
-      <c r="J81" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N81" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O81" t="n">
-        <v>9.95</v>
+      <c r="J81">
+        <v>70</v>
+      </c>
+      <c r="K81">
+        <v>20</v>
+      </c>
+      <c r="L81">
+        <v>50</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P81" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -6603,8 +6920,8 @@
       <c r="C82" t="s">
         <v>215</v>
       </c>
-      <c r="D82" t="n">
-        <v>2017.0</v>
+      <c r="D82">
+        <v>2017</v>
       </c>
       <c r="E82" t="s">
         <v>331</v>
@@ -6615,35 +6932,35 @@
       <c r="G82" t="s">
         <v>565</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>4.1000000000000005</v>
       </c>
       <c r="I82" t="s">
         <v>682</v>
       </c>
-      <c r="J82" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N82" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O82" t="n">
-        <v>9.95</v>
+      <c r="J82">
+        <v>70</v>
+      </c>
+      <c r="K82">
+        <v>20</v>
+      </c>
+      <c r="L82">
+        <v>50</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P82" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -6653,8 +6970,8 @@
       <c r="C83" t="s">
         <v>216</v>
       </c>
-      <c r="D83" t="n">
-        <v>2017.0</v>
+      <c r="D83">
+        <v>2017</v>
       </c>
       <c r="E83" t="s">
         <v>332</v>
@@ -6665,35 +6982,35 @@
       <c r="G83" t="s">
         <v>566</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>3.5999999999999996</v>
       </c>
       <c r="I83" t="s">
         <v>683</v>
       </c>
-      <c r="J83" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N83" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O83" t="n">
-        <v>9.95</v>
+      <c r="J83">
+        <v>70</v>
+      </c>
+      <c r="K83">
+        <v>20</v>
+      </c>
+      <c r="L83">
+        <v>50</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P83" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -6703,8 +7020,8 @@
       <c r="C84" t="s">
         <v>217</v>
       </c>
-      <c r="D84" t="n">
-        <v>2017.0</v>
+      <c r="D84">
+        <v>2017</v>
       </c>
       <c r="E84" t="s">
         <v>333</v>
@@ -6715,35 +7032,35 @@
       <c r="G84" t="s">
         <v>567</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>8.5</v>
       </c>
       <c r="I84" t="s">
         <v>684</v>
       </c>
-      <c r="J84" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>9.95</v>
+      <c r="J84">
+        <v>70</v>
+      </c>
+      <c r="K84">
+        <v>20</v>
+      </c>
+      <c r="L84">
+        <v>50</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P84" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -6753,8 +7070,8 @@
       <c r="C85" t="s">
         <v>218</v>
       </c>
-      <c r="D85" t="n">
-        <v>2017.0</v>
+      <c r="D85">
+        <v>2017</v>
       </c>
       <c r="E85" t="s">
         <v>334</v>
@@ -6765,35 +7082,35 @@
       <c r="G85" t="s">
         <v>568</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>4.8</v>
       </c>
       <c r="I85" t="s">
         <v>685</v>
       </c>
-      <c r="J85" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N85" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>9.95</v>
+      <c r="J85">
+        <v>70</v>
+      </c>
+      <c r="K85">
+        <v>20</v>
+      </c>
+      <c r="L85">
+        <v>50</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P85" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -6803,8 +7120,8 @@
       <c r="C86" t="s">
         <v>219</v>
       </c>
-      <c r="D86" t="n">
-        <v>2019.0</v>
+      <c r="D86">
+        <v>2019</v>
       </c>
       <c r="E86" t="s">
         <v>335</v>
@@ -6815,35 +7132,35 @@
       <c r="G86" t="s">
         <v>569</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>3.5000000000000004</v>
       </c>
       <c r="I86" t="s">
         <v>686</v>
       </c>
-      <c r="J86" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M86" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N86" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O86" t="n">
-        <v>9.95</v>
+      <c r="J86">
+        <v>70</v>
+      </c>
+      <c r="K86">
+        <v>20</v>
+      </c>
+      <c r="L86">
+        <v>50</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P86" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -6853,8 +7170,8 @@
       <c r="C87" t="s">
         <v>220</v>
       </c>
-      <c r="D87" t="n">
-        <v>2018.0</v>
+      <c r="D87">
+        <v>2018</v>
       </c>
       <c r="E87" t="s">
         <v>336</v>
@@ -6865,35 +7182,35 @@
       <c r="G87" t="s">
         <v>570</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>4.1000000000000005</v>
       </c>
       <c r="I87" t="s">
         <v>687</v>
       </c>
-      <c r="J87" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N87" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>9.95</v>
+      <c r="J87">
+        <v>70</v>
+      </c>
+      <c r="K87">
+        <v>20</v>
+      </c>
+      <c r="L87">
+        <v>50</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P87" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -6903,8 +7220,8 @@
       <c r="C88" t="s">
         <v>221</v>
       </c>
-      <c r="D88" t="n">
-        <v>2019.0</v>
+      <c r="D88">
+        <v>2019</v>
       </c>
       <c r="E88" t="s">
         <v>337</v>
@@ -6915,35 +7232,35 @@
       <c r="G88" t="s">
         <v>571</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>5.5</v>
       </c>
       <c r="I88" t="s">
         <v>688</v>
       </c>
-      <c r="J88" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K88" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M88" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N88" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O88" t="n">
-        <v>9.95</v>
+      <c r="J88">
+        <v>70</v>
+      </c>
+      <c r="K88">
+        <v>20</v>
+      </c>
+      <c r="L88">
+        <v>50</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P88" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -6953,8 +7270,8 @@
       <c r="C89" t="s">
         <v>222</v>
       </c>
-      <c r="D89" t="n">
-        <v>2018.0</v>
+      <c r="D89">
+        <v>2018</v>
       </c>
       <c r="E89" t="s">
         <v>338</v>
@@ -6965,35 +7282,35 @@
       <c r="G89" t="s">
         <v>572</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>5.2</v>
       </c>
       <c r="I89" t="s">
         <v>689</v>
       </c>
-      <c r="J89" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M89" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N89" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O89" t="n">
-        <v>9.95</v>
+      <c r="J89">
+        <v>70</v>
+      </c>
+      <c r="K89">
+        <v>20</v>
+      </c>
+      <c r="L89">
+        <v>50</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P89" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -7003,8 +7320,8 @@
       <c r="C90" t="s">
         <v>223</v>
       </c>
-      <c r="D90" t="n">
-        <v>2019.0</v>
+      <c r="D90">
+        <v>2019</v>
       </c>
       <c r="E90" t="s">
         <v>339</v>
@@ -7015,35 +7332,35 @@
       <c r="G90" t="s">
         <v>573</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>2.8000000000000003</v>
       </c>
       <c r="I90" t="s">
         <v>690</v>
       </c>
-      <c r="J90" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K90" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M90" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N90" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O90" t="n">
-        <v>9.95</v>
+      <c r="J90">
+        <v>70</v>
+      </c>
+      <c r="K90">
+        <v>20</v>
+      </c>
+      <c r="L90">
+        <v>50</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P90" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -7053,8 +7370,8 @@
       <c r="C91" t="s">
         <v>224</v>
       </c>
-      <c r="D91" t="n">
-        <v>2015.0</v>
+      <c r="D91">
+        <v>2015</v>
       </c>
       <c r="E91" t="s">
         <v>340</v>
@@ -7065,35 +7382,35 @@
       <c r="G91" t="s">
         <v>574</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>7.1</v>
       </c>
       <c r="I91" t="s">
         <v>691</v>
       </c>
-      <c r="J91" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K91" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M91" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N91" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O91" t="n">
-        <v>9.95</v>
+      <c r="J91">
+        <v>70</v>
+      </c>
+      <c r="K91">
+        <v>20</v>
+      </c>
+      <c r="L91">
+        <v>50</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P91" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -7103,8 +7420,8 @@
       <c r="C92" t="s">
         <v>225</v>
       </c>
-      <c r="D92" t="n">
-        <v>2019.0</v>
+      <c r="D92">
+        <v>2019</v>
       </c>
       <c r="E92" t="s">
         <v>341</v>
@@ -7115,35 +7432,35 @@
       <c r="G92" t="s">
         <v>575</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>3.5000000000000004</v>
       </c>
       <c r="I92" t="s">
         <v>692</v>
       </c>
-      <c r="J92" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M92" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N92" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>9.95</v>
+      <c r="J92">
+        <v>70</v>
+      </c>
+      <c r="K92">
+        <v>20</v>
+      </c>
+      <c r="L92">
+        <v>50</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P92" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -7153,8 +7470,8 @@
       <c r="C93" t="s">
         <v>226</v>
       </c>
-      <c r="D93" t="n">
-        <v>2019.0</v>
+      <c r="D93">
+        <v>2019</v>
       </c>
       <c r="E93" t="s">
         <v>342</v>
@@ -7165,35 +7482,35 @@
       <c r="G93" t="s">
         <v>576</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>7.7</v>
       </c>
       <c r="I93" t="s">
         <v>693</v>
       </c>
-      <c r="J93" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N93" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>9.95</v>
+      <c r="J93">
+        <v>70</v>
+      </c>
+      <c r="K93">
+        <v>20</v>
+      </c>
+      <c r="L93">
+        <v>50</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P93" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -7203,8 +7520,8 @@
       <c r="C94" t="s">
         <v>227</v>
       </c>
-      <c r="D94" t="n">
-        <v>2017.0</v>
+      <c r="D94">
+        <v>2017</v>
       </c>
       <c r="E94" t="s">
         <v>343</v>
@@ -7215,35 +7532,35 @@
       <c r="G94" t="s">
         <v>577</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>2.7</v>
       </c>
       <c r="I94" t="s">
         <v>694</v>
       </c>
-      <c r="J94" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N94" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>9.95</v>
+      <c r="J94">
+        <v>70</v>
+      </c>
+      <c r="K94">
+        <v>20</v>
+      </c>
+      <c r="L94">
+        <v>50</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P94" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -7253,8 +7570,8 @@
       <c r="C95" t="s">
         <v>228</v>
       </c>
-      <c r="D95" t="n">
-        <v>2019.0</v>
+      <c r="D95">
+        <v>2019</v>
       </c>
       <c r="E95" t="s">
         <v>344</v>
@@ -7265,35 +7582,35 @@
       <c r="G95" t="s">
         <v>578</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>4.1000000000000005</v>
       </c>
       <c r="I95" t="s">
         <v>695</v>
       </c>
-      <c r="J95" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N95" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O95" t="n">
-        <v>9.95</v>
+      <c r="J95">
+        <v>70</v>
+      </c>
+      <c r="K95">
+        <v>20</v>
+      </c>
+      <c r="L95">
+        <v>50</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P95" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -7303,8 +7620,8 @@
       <c r="C96" t="s">
         <v>229</v>
       </c>
-      <c r="D96" t="n">
-        <v>2019.0</v>
+      <c r="D96">
+        <v>2019</v>
       </c>
       <c r="E96" t="s">
         <v>345</v>
@@ -7315,35 +7632,35 @@
       <c r="G96" t="s">
         <v>579</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>4.5</v>
       </c>
       <c r="I96" t="s">
         <v>696</v>
       </c>
-      <c r="J96" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N96" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O96" t="n">
-        <v>9.95</v>
+      <c r="J96">
+        <v>70</v>
+      </c>
+      <c r="K96">
+        <v>20</v>
+      </c>
+      <c r="L96">
+        <v>50</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P96" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -7353,8 +7670,8 @@
       <c r="C97" t="s">
         <v>230</v>
       </c>
-      <c r="D97" t="n">
-        <v>2017.0</v>
+      <c r="D97">
+        <v>2017</v>
       </c>
       <c r="E97" t="s">
         <v>346</v>
@@ -7365,35 +7682,35 @@
       <c r="G97" t="s">
         <v>580</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>4.5</v>
       </c>
       <c r="I97" t="s">
         <v>697</v>
       </c>
-      <c r="J97" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N97" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O97" t="n">
-        <v>9.95</v>
+      <c r="J97">
+        <v>70</v>
+      </c>
+      <c r="K97">
+        <v>20</v>
+      </c>
+      <c r="L97">
+        <v>50</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P97" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -7403,8 +7720,8 @@
       <c r="C98" t="s">
         <v>231</v>
       </c>
-      <c r="D98" t="n">
-        <v>2016.0</v>
+      <c r="D98">
+        <v>2016</v>
       </c>
       <c r="E98" t="s">
         <v>347</v>
@@ -7415,35 +7732,35 @@
       <c r="G98" t="s">
         <v>581</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>3.3000000000000003</v>
       </c>
       <c r="I98" t="s">
         <v>698</v>
       </c>
-      <c r="J98" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M98" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N98" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O98" t="n">
-        <v>9.95</v>
+      <c r="J98">
+        <v>70</v>
+      </c>
+      <c r="K98">
+        <v>20</v>
+      </c>
+      <c r="L98">
+        <v>50</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98">
+        <v>3</v>
+      </c>
+      <c r="O98">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P98" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -7453,8 +7770,8 @@
       <c r="C99" t="s">
         <v>232</v>
       </c>
-      <c r="D99" t="n">
-        <v>2018.0</v>
+      <c r="D99">
+        <v>2018</v>
       </c>
       <c r="E99" t="s">
         <v>348</v>
@@ -7465,35 +7782,35 @@
       <c r="G99" t="s">
         <v>582</v>
       </c>
-      <c r="H99" t="n">
-        <v>4.9</v>
+      <c r="H99">
+        <v>4.9000000000000004</v>
       </c>
       <c r="I99" t="s">
         <v>699</v>
       </c>
-      <c r="J99" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N99" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O99" t="n">
-        <v>9.95</v>
+      <c r="J99">
+        <v>70</v>
+      </c>
+      <c r="K99">
+        <v>20</v>
+      </c>
+      <c r="L99">
+        <v>50</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P99" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -7503,8 +7820,8 @@
       <c r="C100" t="s">
         <v>233</v>
       </c>
-      <c r="D100" t="n">
-        <v>2019.0</v>
+      <c r="D100">
+        <v>2019</v>
       </c>
       <c r="E100" t="s">
         <v>349</v>
@@ -7515,35 +7832,35 @@
       <c r="G100" t="s">
         <v>583</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>3.3000000000000003</v>
       </c>
       <c r="I100" t="s">
         <v>700</v>
       </c>
-      <c r="J100" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N100" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O100" t="n">
-        <v>9.95</v>
+      <c r="J100">
+        <v>70</v>
+      </c>
+      <c r="K100">
+        <v>20</v>
+      </c>
+      <c r="L100">
+        <v>50</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P100" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -7553,8 +7870,8 @@
       <c r="C101" t="s">
         <v>234</v>
       </c>
-      <c r="D101" t="n">
-        <v>2019.0</v>
+      <c r="D101">
+        <v>2019</v>
       </c>
       <c r="E101" t="s">
         <v>350</v>
@@ -7565,35 +7882,35 @@
       <c r="G101" t="s">
         <v>584</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>4.7</v>
       </c>
       <c r="I101" t="s">
         <v>701</v>
       </c>
-      <c r="J101" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M101" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N101" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O101" t="n">
-        <v>9.95</v>
+      <c r="J101">
+        <v>70</v>
+      </c>
+      <c r="K101">
+        <v>20</v>
+      </c>
+      <c r="L101">
+        <v>50</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P101" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -7603,8 +7920,8 @@
       <c r="C102" t="s">
         <v>235</v>
       </c>
-      <c r="D102" t="n">
-        <v>2019.0</v>
+      <c r="D102">
+        <v>2019</v>
       </c>
       <c r="E102" t="s">
         <v>351</v>
@@ -7615,35 +7932,35 @@
       <c r="G102" t="s">
         <v>585</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>4.5</v>
       </c>
       <c r="I102" t="s">
         <v>702</v>
       </c>
-      <c r="J102" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M102" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N102" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O102" t="n">
-        <v>9.95</v>
+      <c r="J102">
+        <v>70</v>
+      </c>
+      <c r="K102">
+        <v>20</v>
+      </c>
+      <c r="L102">
+        <v>50</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P102" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -7653,8 +7970,8 @@
       <c r="C103" t="s">
         <v>236</v>
       </c>
-      <c r="D103" t="n">
-        <v>2009.0</v>
+      <c r="D103">
+        <v>2009</v>
       </c>
       <c r="E103" t="s">
         <v>352</v>
@@ -7665,35 +7982,35 @@
       <c r="G103" t="s">
         <v>586</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>4.3999999999999995</v>
       </c>
       <c r="I103" t="s">
         <v>703</v>
       </c>
-      <c r="J103" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N103" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O103" t="n">
-        <v>9.95</v>
+      <c r="J103">
+        <v>70</v>
+      </c>
+      <c r="K103">
+        <v>20</v>
+      </c>
+      <c r="L103">
+        <v>50</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P103" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -7703,8 +8020,8 @@
       <c r="C104" t="s">
         <v>237</v>
       </c>
-      <c r="D104" t="n">
-        <v>2011.0</v>
+      <c r="D104">
+        <v>2011</v>
       </c>
       <c r="E104" t="s">
         <v>353</v>
@@ -7715,35 +8032,35 @@
       <c r="G104" t="s">
         <v>587</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>4.1000000000000005</v>
       </c>
       <c r="I104" t="s">
         <v>704</v>
       </c>
-      <c r="J104" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M104" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N104" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O104" t="n">
-        <v>9.95</v>
+      <c r="J104">
+        <v>70</v>
+      </c>
+      <c r="K104">
+        <v>20</v>
+      </c>
+      <c r="L104">
+        <v>50</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P104" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -7753,8 +8070,8 @@
       <c r="C105" t="s">
         <v>238</v>
       </c>
-      <c r="D105" t="n">
-        <v>2017.0</v>
+      <c r="D105">
+        <v>2017</v>
       </c>
       <c r="E105" t="s">
         <v>354</v>
@@ -7765,35 +8082,35 @@
       <c r="G105" t="s">
         <v>588</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>4.5</v>
       </c>
       <c r="I105" t="s">
         <v>705</v>
       </c>
-      <c r="J105" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K105" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M105" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N105" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O105" t="n">
-        <v>9.95</v>
+      <c r="J105">
+        <v>70</v>
+      </c>
+      <c r="K105">
+        <v>20</v>
+      </c>
+      <c r="L105">
+        <v>50</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P105" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -7803,8 +8120,8 @@
       <c r="C106" t="s">
         <v>239</v>
       </c>
-      <c r="D106" t="n">
-        <v>2018.0</v>
+      <c r="D106">
+        <v>2018</v>
       </c>
       <c r="E106" t="s">
         <v>355</v>
@@ -7815,35 +8132,35 @@
       <c r="G106" t="s">
         <v>589</v>
       </c>
-      <c r="H106" t="n">
-        <v>7.000000000000001</v>
+      <c r="H106">
+        <v>7.0000000000000009</v>
       </c>
       <c r="I106" t="s">
         <v>706</v>
       </c>
-      <c r="J106" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M106" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N106" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O106" t="n">
-        <v>9.95</v>
+      <c r="J106">
+        <v>70</v>
+      </c>
+      <c r="K106">
+        <v>20</v>
+      </c>
+      <c r="L106">
+        <v>50</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P106" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -7853,8 +8170,8 @@
       <c r="C107" t="s">
         <v>240</v>
       </c>
-      <c r="D107" t="n">
-        <v>2019.0</v>
+      <c r="D107">
+        <v>2019</v>
       </c>
       <c r="E107" t="s">
         <v>356</v>
@@ -7865,35 +8182,35 @@
       <c r="G107" t="s">
         <v>590</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>3.9</v>
       </c>
       <c r="I107" t="s">
         <v>707</v>
       </c>
-      <c r="J107" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M107" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N107" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O107" t="n">
-        <v>9.95</v>
+      <c r="J107">
+        <v>70</v>
+      </c>
+      <c r="K107">
+        <v>20</v>
+      </c>
+      <c r="L107">
+        <v>50</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P107" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -7903,8 +8220,8 @@
       <c r="C108" t="s">
         <v>241</v>
       </c>
-      <c r="D108" t="n">
-        <v>2013.0</v>
+      <c r="D108">
+        <v>2013</v>
       </c>
       <c r="E108" t="s">
         <v>357</v>
@@ -7915,35 +8232,35 @@
       <c r="G108" t="s">
         <v>591</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>7.1</v>
       </c>
       <c r="I108" t="s">
         <v>708</v>
       </c>
-      <c r="J108" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M108" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N108" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O108" t="n">
-        <v>9.95</v>
+      <c r="J108">
+        <v>70</v>
+      </c>
+      <c r="K108">
+        <v>20</v>
+      </c>
+      <c r="L108">
+        <v>50</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P108" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -7953,8 +8270,8 @@
       <c r="C109" t="s">
         <v>242</v>
       </c>
-      <c r="D109" t="n">
-        <v>2019.0</v>
+      <c r="D109">
+        <v>2019</v>
       </c>
       <c r="E109" t="s">
         <v>358</v>
@@ -7965,35 +8282,35 @@
       <c r="G109" t="s">
         <v>592</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>3.3000000000000003</v>
       </c>
       <c r="I109" t="s">
         <v>709</v>
       </c>
-      <c r="J109" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M109" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N109" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O109" t="n">
-        <v>9.95</v>
+      <c r="J109">
+        <v>70</v>
+      </c>
+      <c r="K109">
+        <v>20</v>
+      </c>
+      <c r="L109">
+        <v>50</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P109" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -8003,8 +8320,8 @@
       <c r="C110" t="s">
         <v>243</v>
       </c>
-      <c r="D110" t="n">
-        <v>2018.0</v>
+      <c r="D110">
+        <v>2018</v>
       </c>
       <c r="E110" t="s">
         <v>359</v>
@@ -8015,35 +8332,35 @@
       <c r="G110" t="s">
         <v>593</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>3.2</v>
       </c>
       <c r="I110" t="s">
         <v>710</v>
       </c>
-      <c r="J110" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M110" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N110" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O110" t="n">
-        <v>9.95</v>
+      <c r="J110">
+        <v>70</v>
+      </c>
+      <c r="K110">
+        <v>20</v>
+      </c>
+      <c r="L110">
+        <v>50</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P110" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -8053,8 +8370,8 @@
       <c r="C111" t="s">
         <v>244</v>
       </c>
-      <c r="D111" t="n">
-        <v>0.0</v>
+      <c r="D111">
+        <v>0</v>
       </c>
       <c r="E111" t="s">
         <v>360</v>
@@ -8065,35 +8382,35 @@
       <c r="G111" t="s">
         <v>594</v>
       </c>
-      <c r="H111" t="n">
-        <v>7.199999999999999</v>
+      <c r="H111">
+        <v>7.1999999999999993</v>
       </c>
       <c r="I111" t="s">
         <v>711</v>
       </c>
-      <c r="J111" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M111" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N111" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O111" t="n">
-        <v>9.95</v>
+      <c r="J111">
+        <v>70</v>
+      </c>
+      <c r="K111">
+        <v>20</v>
+      </c>
+      <c r="L111">
+        <v>50</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P111" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -8103,8 +8420,8 @@
       <c r="C112" t="s">
         <v>244</v>
       </c>
-      <c r="D112" t="n">
-        <v>0.0</v>
+      <c r="D112">
+        <v>0</v>
       </c>
       <c r="E112" t="s">
         <v>361</v>
@@ -8115,35 +8432,35 @@
       <c r="G112" t="s">
         <v>595</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112">
         <v>8.1</v>
       </c>
       <c r="I112" t="s">
         <v>712</v>
       </c>
-      <c r="J112" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M112" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O112" t="n">
-        <v>9.95</v>
+      <c r="J112">
+        <v>70</v>
+      </c>
+      <c r="K112">
+        <v>20</v>
+      </c>
+      <c r="L112">
+        <v>50</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P112" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -8153,8 +8470,8 @@
       <c r="C113" t="s">
         <v>245</v>
       </c>
-      <c r="D113" t="n">
-        <v>2019.0</v>
+      <c r="D113">
+        <v>2019</v>
       </c>
       <c r="E113" t="s">
         <v>362</v>
@@ -8165,35 +8482,35 @@
       <c r="G113" t="s">
         <v>596</v>
       </c>
-      <c r="H113" t="n">
-        <v>5.1</v>
+      <c r="H113">
+        <v>5.0999999999999996</v>
       </c>
       <c r="I113" t="s">
         <v>713</v>
       </c>
-      <c r="J113" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M113" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N113" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O113" t="n">
-        <v>9.95</v>
+      <c r="J113">
+        <v>70</v>
+      </c>
+      <c r="K113">
+        <v>20</v>
+      </c>
+      <c r="L113">
+        <v>50</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P113" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -8203,8 +8520,8 @@
       <c r="C114" t="s">
         <v>246</v>
       </c>
-      <c r="D114" t="n">
-        <v>2017.0</v>
+      <c r="D114">
+        <v>2017</v>
       </c>
       <c r="E114" t="s">
         <v>363</v>
@@ -8215,35 +8532,35 @@
       <c r="G114" t="s">
         <v>597</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114">
         <v>4.7</v>
       </c>
       <c r="I114" t="s">
         <v>714</v>
       </c>
-      <c r="J114" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M114" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N114" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O114" t="n">
-        <v>9.95</v>
+      <c r="J114">
+        <v>70</v>
+      </c>
+      <c r="K114">
+        <v>20</v>
+      </c>
+      <c r="L114">
+        <v>50</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P114" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -8253,8 +8570,8 @@
       <c r="C115" t="s">
         <v>247</v>
       </c>
-      <c r="D115" t="n">
-        <v>2016.0</v>
+      <c r="D115">
+        <v>2016</v>
       </c>
       <c r="E115" t="s">
         <v>364</v>
@@ -8265,35 +8582,35 @@
       <c r="G115" t="s">
         <v>598</v>
       </c>
-      <c r="H115" t="n">
-        <v>5.1</v>
+      <c r="H115">
+        <v>5.0999999999999996</v>
       </c>
       <c r="I115" t="s">
         <v>715</v>
       </c>
-      <c r="J115" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M115" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N115" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O115" t="n">
-        <v>9.95</v>
+      <c r="J115">
+        <v>70</v>
+      </c>
+      <c r="K115">
+        <v>20</v>
+      </c>
+      <c r="L115">
+        <v>50</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P115" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -8303,8 +8620,8 @@
       <c r="C116" t="s">
         <v>248</v>
       </c>
-      <c r="D116" t="n">
-        <v>2016.0</v>
+      <c r="D116">
+        <v>2016</v>
       </c>
       <c r="E116" t="s">
         <v>365</v>
@@ -8315,35 +8632,35 @@
       <c r="G116" t="s">
         <v>599</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116">
         <v>4.3</v>
       </c>
       <c r="I116" t="s">
         <v>716</v>
       </c>
-      <c r="J116" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M116" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N116" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O116" t="n">
-        <v>9.95</v>
+      <c r="J116">
+        <v>70</v>
+      </c>
+      <c r="K116">
+        <v>20</v>
+      </c>
+      <c r="L116">
+        <v>50</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P116" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -8353,8 +8670,8 @@
       <c r="C117" t="s">
         <v>249</v>
       </c>
-      <c r="D117" t="n">
-        <v>2017.0</v>
+      <c r="D117">
+        <v>2017</v>
       </c>
       <c r="E117" t="s">
         <v>366</v>
@@ -8365,35 +8682,35 @@
       <c r="G117" t="s">
         <v>600</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117">
         <v>4.2</v>
       </c>
       <c r="I117" t="s">
         <v>717</v>
       </c>
-      <c r="J117" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M117" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N117" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O117" t="n">
-        <v>9.95</v>
+      <c r="J117">
+        <v>70</v>
+      </c>
+      <c r="K117">
+        <v>20</v>
+      </c>
+      <c r="L117">
+        <v>50</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P117" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -8403,8 +8720,8 @@
       <c r="C118" t="s">
         <v>250</v>
       </c>
-      <c r="D118" t="n">
-        <v>2016.0</v>
+      <c r="D118">
+        <v>2016</v>
       </c>
       <c r="E118" t="s">
         <v>367</v>
@@ -8415,35 +8732,35 @@
       <c r="G118" t="s">
         <v>601</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118">
         <v>4.3</v>
       </c>
       <c r="I118" t="s">
         <v>718</v>
       </c>
-      <c r="J118" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="M118" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N118" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O118" t="n">
-        <v>9.95</v>
+      <c r="J118">
+        <v>70</v>
+      </c>
+      <c r="K118">
+        <v>20</v>
+      </c>
+      <c r="L118">
+        <v>50</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118">
+        <v>9.9499999999999993</v>
       </c>
       <c r="P118" t="s">
         <v>739</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/baseline_data.xlsx
+++ b/baseline_data.xlsx
@@ -1,21 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sd282\Desktop\covid_price_tag_map\COVID-vaccination-Costs-Analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D385FB-C365-4EBA-A505-AC8EB532F84E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2179,337 +2171,338 @@
     <t>83,948</t>
   </si>
   <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>2.61</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>3.41</t>
+  </si>
+  <si>
+    <t>2.56</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>1.73</t>
+  </si>
+  <si>
+    <t>8.65</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>2.49</t>
+  </si>
+  <si>
+    <t>4.74</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>3.59</t>
+  </si>
+  <si>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>6.68</t>
+  </si>
+  <si>
+    <t>7.12</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>4.91</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
     <t>1.06</t>
   </si>
   <si>
-    <t>2.82</t>
-  </si>
-  <si>
-    <t>2.51</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>3.62</t>
-  </si>
-  <si>
-    <t>1.43</t>
-  </si>
-  <si>
-    <t>4.93</t>
-  </si>
-  <si>
-    <t>1.10</t>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>5.48</t>
+  </si>
+  <si>
+    <t>4.79</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>4.83</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>7.17</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>8.93</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>6.71</t>
+  </si>
+  <si>
+    <t>5.89</t>
+  </si>
+  <si>
+    <t>6.78</t>
+  </si>
+  <si>
+    <t>12.81</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>9.41</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>6.86</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>8.60</t>
+  </si>
+  <si>
+    <t>7.45</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>1.93</t>
+  </si>
+  <si>
+    <t>12.39</t>
+  </si>
+  <si>
+    <t>4.53</t>
+  </si>
+  <si>
+    <t>6.58</t>
+  </si>
+  <si>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>10.23</t>
+  </si>
+  <si>
+    <t>1.79</t>
+  </si>
+  <si>
+    <t>4.32</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>8.38</t>
+  </si>
+  <si>
+    <t>5.91</t>
+  </si>
+  <si>
+    <t>6.97</t>
+  </si>
+  <si>
+    <t>5.23</t>
+  </si>
+  <si>
+    <t>7.74</t>
+  </si>
+  <si>
+    <t>6.79</t>
+  </si>
+  <si>
+    <t>3.48</t>
+  </si>
+  <si>
+    <t>10.13</t>
+  </si>
+  <si>
+    <t>7.07</t>
+  </si>
+  <si>
+    <t>5.44</t>
+  </si>
+  <si>
+    <t>3.68</t>
+  </si>
+  <si>
+    <t>4.86</t>
+  </si>
+  <si>
+    <t>7.29</t>
+  </si>
+  <si>
+    <t>11.81</t>
   </si>
   <si>
     <t>4.97</t>
   </si>
   <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>4.38</t>
-  </si>
-  <si>
-    <t>1.47</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>1.60</t>
-  </si>
-  <si>
-    <t>1.66</t>
-  </si>
-  <si>
-    <t>1.64</t>
-  </si>
-  <si>
-    <t>3.89</t>
-  </si>
-  <si>
-    <t>3.13</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>2.80</t>
-  </si>
-  <si>
-    <t>4.09</t>
-  </si>
-  <si>
-    <t>3.07</t>
-  </si>
-  <si>
-    <t>2.53</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
-    <t>3.99</t>
-  </si>
-  <si>
-    <t>1.49</t>
-  </si>
-  <si>
-    <t>2.90</t>
-  </si>
-  <si>
-    <t>2.08</t>
-  </si>
-  <si>
-    <t>10.38</t>
-  </si>
-  <si>
-    <t>3.74</t>
-  </si>
-  <si>
-    <t>3.65</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
-  <si>
-    <t>2.99</t>
-  </si>
-  <si>
-    <t>5.69</t>
-  </si>
-  <si>
-    <t>3.19</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>4.30</t>
-  </si>
-  <si>
-    <t>4.36</t>
-  </si>
-  <si>
-    <t>4.59</t>
-  </si>
-  <si>
-    <t>2.44</t>
-  </si>
-  <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>8.01</t>
+    <t>5.42</t>
   </si>
   <si>
     <t>8.54</t>
-  </si>
-  <si>
-    <t>4.74</t>
-  </si>
-  <si>
-    <t>2.62</t>
-  </si>
-  <si>
-    <t>2.83</t>
-  </si>
-  <si>
-    <t>5.89</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>1.27</t>
-  </si>
-  <si>
-    <t>1.93</t>
-  </si>
-  <si>
-    <t>1.36</t>
-  </si>
-  <si>
-    <t>6.41</t>
-  </si>
-  <si>
-    <t>2.66</t>
-  </si>
-  <si>
-    <t>6.57</t>
-  </si>
-  <si>
-    <t>5.75</t>
-  </si>
-  <si>
-    <t>5.20</t>
-  </si>
-  <si>
-    <t>5.79</t>
-  </si>
-  <si>
-    <t>3.16</t>
-  </si>
-  <si>
-    <t>3.88</t>
-  </si>
-  <si>
-    <t>8.61</t>
-  </si>
-  <si>
-    <t>1.73</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>10.71</t>
-  </si>
-  <si>
-    <t>5.27</t>
-  </si>
-  <si>
-    <t>8.05</t>
-  </si>
-  <si>
-    <t>7.07</t>
-  </si>
-  <si>
-    <t>8.13</t>
-  </si>
-  <si>
-    <t>15.37</t>
-  </si>
-  <si>
-    <t>4.85</t>
-  </si>
-  <si>
-    <t>11.29</t>
-  </si>
-  <si>
-    <t>3.18</t>
-  </si>
-  <si>
-    <t>8.23</t>
-  </si>
-  <si>
-    <t>3.54</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>10.32</t>
-  </si>
-  <si>
-    <t>8.94</t>
-  </si>
-  <si>
-    <t>5.02</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>14.87</t>
-  </si>
-  <si>
-    <t>5.43</t>
-  </si>
-  <si>
-    <t>7.90</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>12.27</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>5.18</t>
-  </si>
-  <si>
-    <t>4.02</t>
-  </si>
-  <si>
-    <t>10.05</t>
-  </si>
-  <si>
-    <t>7.09</t>
-  </si>
-  <si>
-    <t>8.36</t>
-  </si>
-  <si>
-    <t>6.28</t>
-  </si>
-  <si>
-    <t>9.29</t>
-  </si>
-  <si>
-    <t>8.15</t>
-  </si>
-  <si>
-    <t>4.17</t>
-  </si>
-  <si>
-    <t>12.16</t>
-  </si>
-  <si>
-    <t>8.48</t>
-  </si>
-  <si>
-    <t>6.52</t>
-  </si>
-  <si>
-    <t>4.42</t>
-  </si>
-  <si>
-    <t>5.83</t>
-  </si>
-  <si>
-    <t>8.74</t>
-  </si>
-  <si>
-    <t>14.18</t>
-  </si>
-  <si>
-    <t>5.96</t>
-  </si>
-  <si>
-    <t>6.51</t>
-  </si>
-  <si>
-    <t>10.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2521,7 +2514,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -2539,328 +2532,18 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L118"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2910,7 +2593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2920,8 +2603,8 @@
       <c r="C2" t="s">
         <v>135</v>
       </c>
-      <c r="D2">
-        <v>2018</v>
+      <c r="D2" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E2" t="s">
         <v>251</v>
@@ -2932,35 +2615,35 @@
       <c r="G2" t="s">
         <v>485</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>2.8000000000000003</v>
       </c>
       <c r="I2" t="s">
         <v>602</v>
       </c>
-      <c r="J2">
-        <v>70</v>
-      </c>
-      <c r="K2">
-        <v>20</v>
-      </c>
-      <c r="L2">
-        <v>50</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>9.9499999999999993</v>
+      <c r="J2" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5.25</v>
       </c>
       <c r="P2" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2970,8 +2653,8 @@
       <c r="C3" t="s">
         <v>136</v>
       </c>
-      <c r="D3">
-        <v>2019</v>
+      <c r="D3" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E3" t="s">
         <v>252</v>
@@ -2982,35 +2665,35 @@
       <c r="G3" t="s">
         <v>486</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>2.4</v>
       </c>
       <c r="I3" t="s">
         <v>603</v>
       </c>
-      <c r="J3">
-        <v>70</v>
-      </c>
-      <c r="K3">
-        <v>20</v>
-      </c>
-      <c r="L3">
-        <v>50</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>9.9499999999999993</v>
+      <c r="J3" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5.25</v>
       </c>
       <c r="P3" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3020,8 +2703,8 @@
       <c r="C4" t="s">
         <v>137</v>
       </c>
-      <c r="D4">
-        <v>2018</v>
+      <c r="D4" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E4" t="s">
         <v>253</v>
@@ -3032,35 +2715,35 @@
       <c r="G4" t="s">
         <v>487</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>2.1999999999999997</v>
       </c>
       <c r="I4" t="s">
         <v>604</v>
       </c>
-      <c r="J4">
-        <v>70</v>
-      </c>
-      <c r="K4">
-        <v>20</v>
-      </c>
-      <c r="L4">
-        <v>50</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <v>9.9499999999999993</v>
+      <c r="J4" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5.25</v>
       </c>
       <c r="P4" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3070,8 +2753,8 @@
       <c r="C5" t="s">
         <v>138</v>
       </c>
-      <c r="D5">
-        <v>2018</v>
+      <c r="D5" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E5" t="s">
         <v>254</v>
@@ -3082,35 +2765,35 @@
       <c r="G5" t="s">
         <v>488</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="s">
         <v>605</v>
       </c>
-      <c r="J5">
-        <v>70</v>
-      </c>
-      <c r="K5">
-        <v>20</v>
-      </c>
-      <c r="L5">
-        <v>50</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>9.9499999999999993</v>
+      <c r="J5" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5.25</v>
       </c>
       <c r="P5" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3120,8 +2803,8 @@
       <c r="C6" t="s">
         <v>139</v>
       </c>
-      <c r="D6">
-        <v>2019</v>
+      <c r="D6" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E6" t="s">
         <v>255</v>
@@ -3132,35 +2815,35 @@
       <c r="G6" t="s">
         <v>489</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>2.1999999999999997</v>
       </c>
       <c r="I6" t="s">
         <v>606</v>
       </c>
-      <c r="J6">
-        <v>70</v>
-      </c>
-      <c r="K6">
-        <v>20</v>
-      </c>
-      <c r="L6">
-        <v>50</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="O6">
-        <v>9.9499999999999993</v>
+      <c r="J6" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.25</v>
       </c>
       <c r="P6" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3170,8 +2853,8 @@
       <c r="C7" t="s">
         <v>140</v>
       </c>
-      <c r="D7">
-        <v>2019</v>
+      <c r="D7" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E7" t="s">
         <v>256</v>
@@ -3182,35 +2865,35 @@
       <c r="G7" t="s">
         <v>490</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>2.7</v>
       </c>
       <c r="I7" t="s">
         <v>607</v>
       </c>
-      <c r="J7">
-        <v>70</v>
-      </c>
-      <c r="K7">
-        <v>20</v>
-      </c>
-      <c r="L7">
-        <v>50</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <v>9.9499999999999993</v>
+      <c r="J7" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5.25</v>
       </c>
       <c r="P7" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3220,8 +2903,8 @@
       <c r="C8" t="s">
         <v>141</v>
       </c>
-      <c r="D8">
-        <v>2019</v>
+      <c r="D8" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E8" t="s">
         <v>257</v>
@@ -3232,35 +2915,35 @@
       <c r="G8" t="s">
         <v>491</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>2.5</v>
       </c>
       <c r="I8" t="s">
         <v>608</v>
       </c>
-      <c r="J8">
-        <v>70</v>
-      </c>
-      <c r="K8">
-        <v>20</v>
-      </c>
-      <c r="L8">
-        <v>50</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <v>9.9499999999999993</v>
+      <c r="J8" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.25</v>
       </c>
       <c r="P8" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3270,8 +2953,8 @@
       <c r="C9" t="s">
         <v>142</v>
       </c>
-      <c r="D9">
-        <v>2019</v>
+      <c r="D9" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E9" t="s">
         <v>258</v>
@@ -3282,35 +2965,35 @@
       <c r="G9" t="s">
         <v>492</v>
       </c>
-      <c r="H9">
-        <v>3</v>
+      <c r="H9" t="n">
+        <v>3.0</v>
       </c>
       <c r="I9" t="s">
         <v>609</v>
       </c>
-      <c r="J9">
-        <v>70</v>
-      </c>
-      <c r="K9">
-        <v>20</v>
-      </c>
-      <c r="L9">
-        <v>50</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="O9">
-        <v>9.9499999999999993</v>
+      <c r="J9" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.25</v>
       </c>
       <c r="P9" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3320,8 +3003,8 @@
       <c r="C10" t="s">
         <v>143</v>
       </c>
-      <c r="D10">
-        <v>2019</v>
+      <c r="D10" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E10" t="s">
         <v>259</v>
@@ -3332,35 +3015,35 @@
       <c r="G10" t="s">
         <v>493</v>
       </c>
-      <c r="H10">
-        <v>2.2999999999999998</v>
+      <c r="H10" t="n">
+        <v>2.3</v>
       </c>
       <c r="I10" t="s">
         <v>610</v>
       </c>
-      <c r="J10">
-        <v>70</v>
-      </c>
-      <c r="K10">
-        <v>20</v>
-      </c>
-      <c r="L10">
-        <v>50</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <v>9.9499999999999993</v>
+      <c r="J10" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.25</v>
       </c>
       <c r="P10" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3370,8 +3053,8 @@
       <c r="C11" t="s">
         <v>144</v>
       </c>
-      <c r="D11">
-        <v>2018</v>
+      <c r="D11" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E11" t="s">
         <v>260</v>
@@ -3382,35 +3065,35 @@
       <c r="G11" t="s">
         <v>494</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>2.7</v>
       </c>
       <c r="I11" t="s">
         <v>611</v>
       </c>
-      <c r="J11">
-        <v>70</v>
-      </c>
-      <c r="K11">
-        <v>20</v>
-      </c>
-      <c r="L11">
-        <v>50</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-      <c r="O11">
-        <v>9.9499999999999993</v>
+      <c r="J11" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5.25</v>
       </c>
       <c r="P11" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3420,8 +3103,8 @@
       <c r="C12" t="s">
         <v>145</v>
       </c>
-      <c r="D12">
-        <v>2019</v>
+      <c r="D12" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E12" t="s">
         <v>261</v>
@@ -3432,35 +3115,35 @@
       <c r="G12" t="s">
         <v>495</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>2.5</v>
       </c>
       <c r="I12" t="s">
         <v>612</v>
       </c>
-      <c r="J12">
-        <v>70</v>
-      </c>
-      <c r="K12">
-        <v>20</v>
-      </c>
-      <c r="L12">
-        <v>50</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12">
-        <v>9.9499999999999993</v>
+      <c r="J12" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5.25</v>
       </c>
       <c r="P12" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -3470,8 +3153,8 @@
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13">
-        <v>2019</v>
+      <c r="D13" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E13" t="s">
         <v>262</v>
@@ -3482,35 +3165,35 @@
       <c r="G13" t="s">
         <v>496</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="s">
         <v>613</v>
       </c>
-      <c r="J13">
-        <v>70</v>
-      </c>
-      <c r="K13">
-        <v>20</v>
-      </c>
-      <c r="L13">
-        <v>50</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13">
-        <v>9.9499999999999993</v>
+      <c r="J13" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5.25</v>
       </c>
       <c r="P13" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3520,8 +3203,8 @@
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14">
-        <v>2018</v>
+      <c r="D14" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E14" t="s">
         <v>263</v>
@@ -3532,35 +3215,35 @@
       <c r="G14" t="s">
         <v>497</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>3.5000000000000004</v>
       </c>
       <c r="I14" t="s">
         <v>614</v>
       </c>
-      <c r="J14">
-        <v>70</v>
-      </c>
-      <c r="K14">
-        <v>20</v>
-      </c>
-      <c r="L14">
-        <v>50</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <v>9.9499999999999993</v>
+      <c r="J14" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5.25</v>
       </c>
       <c r="P14" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3570,8 +3253,8 @@
       <c r="C15" t="s">
         <v>148</v>
       </c>
-      <c r="D15">
-        <v>2019</v>
+      <c r="D15" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E15" t="s">
         <v>264</v>
@@ -3582,35 +3265,35 @@
       <c r="G15" t="s">
         <v>498</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>2.8000000000000003</v>
       </c>
       <c r="I15" t="s">
         <v>615</v>
       </c>
-      <c r="J15">
-        <v>70</v>
-      </c>
-      <c r="K15">
-        <v>20</v>
-      </c>
-      <c r="L15">
-        <v>50</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <v>3</v>
-      </c>
-      <c r="O15">
-        <v>9.9499999999999993</v>
+      <c r="J15" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5.25</v>
       </c>
       <c r="P15" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -3620,8 +3303,8 @@
       <c r="C16" t="s">
         <v>149</v>
       </c>
-      <c r="D16">
-        <v>2019</v>
+      <c r="D16" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E16" t="s">
         <v>265</v>
@@ -3632,35 +3315,35 @@
       <c r="G16" t="s">
         <v>499</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>2.5</v>
       </c>
       <c r="I16" t="s">
         <v>616</v>
       </c>
-      <c r="J16">
-        <v>70</v>
-      </c>
-      <c r="K16">
-        <v>20</v>
-      </c>
-      <c r="L16">
-        <v>50</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>9.9499999999999993</v>
+      <c r="J16" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5.25</v>
       </c>
       <c r="P16" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -3670,8 +3353,8 @@
       <c r="C17" t="s">
         <v>150</v>
       </c>
-      <c r="D17">
-        <v>2019</v>
+      <c r="D17" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E17" t="s">
         <v>266</v>
@@ -3682,35 +3365,35 @@
       <c r="G17" t="s">
         <v>500</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>2.5</v>
       </c>
       <c r="I17" t="s">
         <v>617</v>
       </c>
-      <c r="J17">
-        <v>70</v>
-      </c>
-      <c r="K17">
-        <v>20</v>
-      </c>
-      <c r="L17">
-        <v>50</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <v>9.9499999999999993</v>
+      <c r="J17" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5.25</v>
       </c>
       <c r="P17" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -3720,8 +3403,8 @@
       <c r="C18" t="s">
         <v>151</v>
       </c>
-      <c r="D18">
-        <v>2019</v>
+      <c r="D18" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E18" t="s">
         <v>267</v>
@@ -3732,35 +3415,35 @@
       <c r="G18" t="s">
         <v>501</v>
       </c>
-      <c r="H18">
-        <v>2.2999999999999998</v>
+      <c r="H18" t="n">
+        <v>2.3</v>
       </c>
       <c r="I18" t="s">
         <v>618</v>
       </c>
-      <c r="J18">
-        <v>70</v>
-      </c>
-      <c r="K18">
-        <v>20</v>
-      </c>
-      <c r="L18">
-        <v>50</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18">
-        <v>3</v>
-      </c>
-      <c r="O18">
-        <v>9.9499999999999993</v>
+      <c r="J18" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5.25</v>
       </c>
       <c r="P18" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -3770,8 +3453,8 @@
       <c r="C19" t="s">
         <v>152</v>
       </c>
-      <c r="D19">
-        <v>2019</v>
+      <c r="D19" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E19" t="s">
         <v>268</v>
@@ -3782,35 +3465,35 @@
       <c r="G19" t="s">
         <v>502</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>2.6</v>
       </c>
       <c r="I19" t="s">
         <v>619</v>
       </c>
-      <c r="J19">
-        <v>70</v>
-      </c>
-      <c r="K19">
-        <v>20</v>
-      </c>
-      <c r="L19">
-        <v>50</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-      <c r="O19">
-        <v>9.9499999999999993</v>
+      <c r="J19" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5.25</v>
       </c>
       <c r="P19" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -3820,8 +3503,8 @@
       <c r="C20" t="s">
         <v>153</v>
       </c>
-      <c r="D20">
-        <v>2019</v>
+      <c r="D20" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E20" t="s">
         <v>269</v>
@@ -3832,35 +3515,35 @@
       <c r="G20" t="s">
         <v>503</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>2.1</v>
       </c>
       <c r="I20" t="s">
         <v>620</v>
       </c>
-      <c r="J20">
-        <v>70</v>
-      </c>
-      <c r="K20">
-        <v>20</v>
-      </c>
-      <c r="L20">
-        <v>50</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <v>9.9499999999999993</v>
+      <c r="J20" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5.25</v>
       </c>
       <c r="P20" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -3870,8 +3553,8 @@
       <c r="C21" t="s">
         <v>154</v>
       </c>
-      <c r="D21">
-        <v>2019</v>
+      <c r="D21" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E21" t="s">
         <v>270</v>
@@ -3882,35 +3565,35 @@
       <c r="G21" t="s">
         <v>504</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>2.5</v>
       </c>
       <c r="I21" t="s">
         <v>621</v>
       </c>
-      <c r="J21">
-        <v>70</v>
-      </c>
-      <c r="K21">
-        <v>20</v>
-      </c>
-      <c r="L21">
-        <v>50</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>3</v>
-      </c>
-      <c r="O21">
-        <v>9.9499999999999993</v>
+      <c r="J21" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5.25</v>
       </c>
       <c r="P21" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3920,8 +3603,8 @@
       <c r="C22" t="s">
         <v>155</v>
       </c>
-      <c r="D22">
-        <v>2019</v>
+      <c r="D22" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E22" t="s">
         <v>271</v>
@@ -3932,35 +3615,35 @@
       <c r="G22" t="s">
         <v>505</v>
       </c>
-      <c r="H22">
-        <v>30</v>
+      <c r="H22" t="n">
+        <v>30.0</v>
       </c>
       <c r="I22" t="s">
         <v>622</v>
       </c>
-      <c r="J22">
-        <v>70</v>
-      </c>
-      <c r="K22">
-        <v>20</v>
-      </c>
-      <c r="L22">
-        <v>50</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-      <c r="N22">
-        <v>3</v>
-      </c>
-      <c r="O22">
-        <v>9.9499999999999993</v>
+      <c r="J22" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5.25</v>
       </c>
       <c r="P22" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -3970,8 +3653,8 @@
       <c r="C23" t="s">
         <v>156</v>
       </c>
-      <c r="D23">
-        <v>2018</v>
+      <c r="D23" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E23" t="s">
         <v>272</v>
@@ -3982,35 +3665,35 @@
       <c r="G23" t="s">
         <v>506</v>
       </c>
-      <c r="H23">
-        <v>2.2999999999999998</v>
+      <c r="H23" t="n">
+        <v>2.3</v>
       </c>
       <c r="I23" t="s">
         <v>623</v>
       </c>
-      <c r="J23">
-        <v>70</v>
-      </c>
-      <c r="K23">
-        <v>20</v>
-      </c>
-      <c r="L23">
-        <v>50</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-      <c r="N23">
-        <v>3</v>
-      </c>
-      <c r="O23">
-        <v>9.9499999999999993</v>
+      <c r="J23" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5.25</v>
       </c>
       <c r="P23" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -4020,8 +3703,8 @@
       <c r="C24" t="s">
         <v>157</v>
       </c>
-      <c r="D24">
-        <v>2017</v>
+      <c r="D24" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E24" t="s">
         <v>273</v>
@@ -4032,35 +3715,35 @@
       <c r="G24" t="s">
         <v>507</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>2.7</v>
       </c>
       <c r="I24" t="s">
         <v>624</v>
       </c>
-      <c r="J24">
-        <v>70</v>
-      </c>
-      <c r="K24">
-        <v>20</v>
-      </c>
-      <c r="L24">
-        <v>50</v>
-      </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24">
-        <v>3</v>
-      </c>
-      <c r="O24">
-        <v>9.9499999999999993</v>
+      <c r="J24" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5.25</v>
       </c>
       <c r="P24" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -4070,8 +3753,8 @@
       <c r="C25" t="s">
         <v>158</v>
       </c>
-      <c r="D25">
-        <v>2019</v>
+      <c r="D25" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E25" t="s">
         <v>274</v>
@@ -4082,35 +3765,35 @@
       <c r="G25" t="s">
         <v>508</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>2.9000000000000004</v>
       </c>
       <c r="I25" t="s">
         <v>625</v>
       </c>
-      <c r="J25">
-        <v>70</v>
-      </c>
-      <c r="K25">
-        <v>20</v>
-      </c>
-      <c r="L25">
-        <v>50</v>
-      </c>
-      <c r="M25">
-        <v>2</v>
-      </c>
-      <c r="N25">
-        <v>3</v>
-      </c>
-      <c r="O25">
-        <v>9.9499999999999993</v>
+      <c r="J25" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5.25</v>
       </c>
       <c r="P25" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -4120,8 +3803,8 @@
       <c r="C26" t="s">
         <v>159</v>
       </c>
-      <c r="D26">
-        <v>2019</v>
+      <c r="D26" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E26" t="s">
         <v>275</v>
@@ -4132,35 +3815,35 @@
       <c r="G26" t="s">
         <v>509</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>3.5999999999999996</v>
       </c>
       <c r="I26" t="s">
         <v>626</v>
       </c>
-      <c r="J26">
-        <v>70</v>
-      </c>
-      <c r="K26">
-        <v>20</v>
-      </c>
-      <c r="L26">
-        <v>50</v>
-      </c>
-      <c r="M26">
-        <v>2</v>
-      </c>
-      <c r="N26">
-        <v>3</v>
-      </c>
-      <c r="O26">
-        <v>9.9499999999999993</v>
+      <c r="J26" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5.25</v>
       </c>
       <c r="P26" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -4170,8 +3853,8 @@
       <c r="C27" t="s">
         <v>160</v>
       </c>
-      <c r="D27">
-        <v>2019</v>
+      <c r="D27" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E27" t="s">
         <v>276</v>
@@ -4182,35 +3865,35 @@
       <c r="G27" t="s">
         <v>510</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="s">
         <v>627</v>
       </c>
-      <c r="J27">
-        <v>70</v>
-      </c>
-      <c r="K27">
-        <v>20</v>
-      </c>
-      <c r="L27">
-        <v>50</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-      <c r="N27">
-        <v>3</v>
-      </c>
-      <c r="O27">
-        <v>9.9499999999999993</v>
+      <c r="J27" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5.25</v>
       </c>
       <c r="P27" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -4220,8 +3903,8 @@
       <c r="C28" t="s">
         <v>161</v>
       </c>
-      <c r="D28">
-        <v>2019</v>
+      <c r="D28" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E28" t="s">
         <v>277</v>
@@ -4232,35 +3915,35 @@
       <c r="G28" t="s">
         <v>511</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="s">
         <v>628</v>
       </c>
-      <c r="J28">
-        <v>70</v>
-      </c>
-      <c r="K28">
-        <v>20</v>
-      </c>
-      <c r="L28">
-        <v>50</v>
-      </c>
-      <c r="M28">
-        <v>2</v>
-      </c>
-      <c r="N28">
-        <v>3</v>
-      </c>
-      <c r="O28">
-        <v>9.9499999999999993</v>
+      <c r="J28" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>5.25</v>
       </c>
       <c r="P28" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -4270,8 +3953,8 @@
       <c r="C29" t="s">
         <v>162</v>
       </c>
-      <c r="D29">
-        <v>2019</v>
+      <c r="D29" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E29" t="s">
         <v>278</v>
@@ -4282,35 +3965,35 @@
       <c r="G29" t="s">
         <v>512</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>2.1</v>
       </c>
       <c r="I29" t="s">
         <v>629</v>
       </c>
-      <c r="J29">
-        <v>70</v>
-      </c>
-      <c r="K29">
-        <v>20</v>
-      </c>
-      <c r="L29">
-        <v>50</v>
-      </c>
-      <c r="M29">
-        <v>2</v>
-      </c>
-      <c r="N29">
-        <v>3</v>
-      </c>
-      <c r="O29">
-        <v>9.9499999999999993</v>
+      <c r="J29" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>5.25</v>
       </c>
       <c r="P29" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -4320,8 +4003,8 @@
       <c r="C30" t="s">
         <v>163</v>
       </c>
-      <c r="D30">
-        <v>2019</v>
+      <c r="D30" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E30" t="s">
         <v>279</v>
@@ -4332,35 +4015,35 @@
       <c r="G30" t="s">
         <v>513</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>2.9000000000000004</v>
       </c>
       <c r="I30" t="s">
         <v>630</v>
       </c>
-      <c r="J30">
-        <v>70</v>
-      </c>
-      <c r="K30">
-        <v>20</v>
-      </c>
-      <c r="L30">
-        <v>50</v>
-      </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="N30">
-        <v>3</v>
-      </c>
-      <c r="O30">
-        <v>9.9499999999999993</v>
+      <c r="J30" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>5.25</v>
       </c>
       <c r="P30" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -4370,8 +4053,8 @@
       <c r="C31" t="s">
         <v>164</v>
       </c>
-      <c r="D31">
-        <v>2018</v>
+      <c r="D31" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
@@ -4382,35 +4065,35 @@
       <c r="G31" t="s">
         <v>514</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>3.5999999999999996</v>
       </c>
       <c r="I31" t="s">
         <v>631</v>
       </c>
-      <c r="J31">
-        <v>70</v>
-      </c>
-      <c r="K31">
-        <v>20</v>
-      </c>
-      <c r="L31">
-        <v>50</v>
-      </c>
-      <c r="M31">
-        <v>2</v>
-      </c>
-      <c r="N31">
-        <v>3</v>
-      </c>
-      <c r="O31">
-        <v>9.9499999999999993</v>
+      <c r="J31" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5.25</v>
       </c>
       <c r="P31" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -4420,8 +4103,8 @@
       <c r="C32" t="s">
         <v>165</v>
       </c>
-      <c r="D32">
-        <v>2019</v>
+      <c r="D32" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E32" t="s">
         <v>281</v>
@@ -4432,35 +4115,35 @@
       <c r="G32" t="s">
         <v>515</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>2.5</v>
       </c>
       <c r="I32" t="s">
         <v>632</v>
       </c>
-      <c r="J32">
-        <v>70</v>
-      </c>
-      <c r="K32">
-        <v>20</v>
-      </c>
-      <c r="L32">
-        <v>50</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-      <c r="N32">
-        <v>3</v>
-      </c>
-      <c r="O32">
-        <v>9.9499999999999993</v>
+      <c r="J32" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>5.25</v>
       </c>
       <c r="P32" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -4470,8 +4153,8 @@
       <c r="C33" t="s">
         <v>166</v>
       </c>
-      <c r="D33">
-        <v>2019</v>
+      <c r="D33" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E33" t="s">
         <v>282</v>
@@ -4482,35 +4165,35 @@
       <c r="G33" t="s">
         <v>516</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>3.3000000000000003</v>
       </c>
       <c r="I33" t="s">
         <v>633</v>
       </c>
-      <c r="J33">
-        <v>70</v>
-      </c>
-      <c r="K33">
-        <v>20</v>
-      </c>
-      <c r="L33">
-        <v>50</v>
-      </c>
-      <c r="M33">
-        <v>2</v>
-      </c>
-      <c r="N33">
-        <v>3</v>
-      </c>
-      <c r="O33">
-        <v>9.9499999999999993</v>
+      <c r="J33" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5.25</v>
       </c>
       <c r="P33" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -4520,8 +4203,8 @@
       <c r="C34" t="s">
         <v>167</v>
       </c>
-      <c r="D34">
-        <v>2019</v>
+      <c r="D34" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E34" t="s">
         <v>283</v>
@@ -4532,35 +4215,35 @@
       <c r="G34" t="s">
         <v>517</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>2.8000000000000003</v>
       </c>
       <c r="I34" t="s">
         <v>634</v>
       </c>
-      <c r="J34">
-        <v>70</v>
-      </c>
-      <c r="K34">
-        <v>20</v>
-      </c>
-      <c r="L34">
-        <v>50</v>
-      </c>
-      <c r="M34">
-        <v>2</v>
-      </c>
-      <c r="N34">
-        <v>3</v>
-      </c>
-      <c r="O34">
-        <v>9.9499999999999993</v>
+      <c r="J34" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>5.25</v>
       </c>
       <c r="P34" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -4570,8 +4253,8 @@
       <c r="C35" t="s">
         <v>168</v>
       </c>
-      <c r="D35">
-        <v>2019</v>
+      <c r="D35" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E35" t="s">
         <v>284</v>
@@ -4582,35 +4265,35 @@
       <c r="G35" t="s">
         <v>518</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>3.3000000000000003</v>
       </c>
       <c r="I35" t="s">
         <v>635</v>
       </c>
-      <c r="J35">
-        <v>70</v>
-      </c>
-      <c r="K35">
-        <v>20</v>
-      </c>
-      <c r="L35">
-        <v>50</v>
-      </c>
-      <c r="M35">
-        <v>2</v>
-      </c>
-      <c r="N35">
-        <v>3</v>
-      </c>
-      <c r="O35">
-        <v>9.9499999999999993</v>
+      <c r="J35" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>5.25</v>
       </c>
       <c r="P35" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -4620,8 +4303,8 @@
       <c r="C36" t="s">
         <v>169</v>
       </c>
-      <c r="D36">
-        <v>2019</v>
+      <c r="D36" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E36" t="s">
         <v>285</v>
@@ -4632,35 +4315,35 @@
       <c r="G36" t="s">
         <v>519</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>2.9000000000000004</v>
       </c>
       <c r="I36" t="s">
         <v>636</v>
       </c>
-      <c r="J36">
-        <v>70</v>
-      </c>
-      <c r="K36">
-        <v>20</v>
-      </c>
-      <c r="L36">
-        <v>50</v>
-      </c>
-      <c r="M36">
-        <v>2</v>
-      </c>
-      <c r="N36">
-        <v>3</v>
-      </c>
-      <c r="O36">
-        <v>9.9499999999999993</v>
+      <c r="J36" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>5.25</v>
       </c>
       <c r="P36" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -4670,8 +4353,8 @@
       <c r="C37" t="s">
         <v>170</v>
       </c>
-      <c r="D37">
-        <v>2019</v>
+      <c r="D37" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E37" t="s">
         <v>286</v>
@@ -4682,35 +4365,35 @@
       <c r="G37" t="s">
         <v>520</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>3.8</v>
       </c>
       <c r="I37" t="s">
         <v>637</v>
       </c>
-      <c r="J37">
-        <v>70</v>
-      </c>
-      <c r="K37">
-        <v>20</v>
-      </c>
-      <c r="L37">
-        <v>50</v>
-      </c>
-      <c r="M37">
-        <v>2</v>
-      </c>
-      <c r="N37">
-        <v>3</v>
-      </c>
-      <c r="O37">
-        <v>9.9499999999999993</v>
+      <c r="J37" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>5.25</v>
       </c>
       <c r="P37" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -4720,8 +4403,8 @@
       <c r="C38" t="s">
         <v>171</v>
       </c>
-      <c r="D38">
-        <v>2019</v>
+      <c r="D38" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E38" t="s">
         <v>287</v>
@@ -4732,35 +4415,35 @@
       <c r="G38" t="s">
         <v>521</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>2.9000000000000004</v>
       </c>
       <c r="I38" t="s">
         <v>638</v>
       </c>
-      <c r="J38">
-        <v>70</v>
-      </c>
-      <c r="K38">
-        <v>20</v>
-      </c>
-      <c r="L38">
-        <v>50</v>
-      </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
-      <c r="N38">
-        <v>3</v>
-      </c>
-      <c r="O38">
-        <v>9.9499999999999993</v>
+      <c r="J38" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>5.25</v>
       </c>
       <c r="P38" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -4770,8 +4453,8 @@
       <c r="C39" t="s">
         <v>172</v>
       </c>
-      <c r="D39">
-        <v>2019</v>
+      <c r="D39" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E39" t="s">
         <v>288</v>
@@ -4782,35 +4465,35 @@
       <c r="G39" t="s">
         <v>522</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>3.2</v>
       </c>
       <c r="I39" t="s">
         <v>639</v>
       </c>
-      <c r="J39">
-        <v>70</v>
-      </c>
-      <c r="K39">
-        <v>20</v>
-      </c>
-      <c r="L39">
-        <v>50</v>
-      </c>
-      <c r="M39">
-        <v>2</v>
-      </c>
-      <c r="N39">
-        <v>3</v>
-      </c>
-      <c r="O39">
-        <v>9.9499999999999993</v>
+      <c r="J39" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>5.25</v>
       </c>
       <c r="P39" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -4820,8 +4503,8 @@
       <c r="C40" t="s">
         <v>173</v>
       </c>
-      <c r="D40">
-        <v>2019</v>
+      <c r="D40" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E40" t="s">
         <v>289</v>
@@ -4832,35 +4515,35 @@
       <c r="G40" t="s">
         <v>523</v>
       </c>
-      <c r="H40">
-        <v>3</v>
+      <c r="H40" t="n">
+        <v>3.0</v>
       </c>
       <c r="I40" t="s">
         <v>640</v>
       </c>
-      <c r="J40">
-        <v>70</v>
-      </c>
-      <c r="K40">
-        <v>20</v>
-      </c>
-      <c r="L40">
-        <v>50</v>
-      </c>
-      <c r="M40">
-        <v>2</v>
-      </c>
-      <c r="N40">
-        <v>3</v>
-      </c>
-      <c r="O40">
-        <v>9.9499999999999993</v>
+      <c r="J40" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>5.25</v>
       </c>
       <c r="P40" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -4870,8 +4553,8 @@
       <c r="C41" t="s">
         <v>174</v>
       </c>
-      <c r="D41">
-        <v>2019</v>
+      <c r="D41" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E41" t="s">
         <v>290</v>
@@ -4882,35 +4565,35 @@
       <c r="G41" t="s">
         <v>524</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>3.6999999999999997</v>
       </c>
       <c r="I41" t="s">
         <v>641</v>
       </c>
-      <c r="J41">
-        <v>70</v>
-      </c>
-      <c r="K41">
-        <v>20</v>
-      </c>
-      <c r="L41">
-        <v>50</v>
-      </c>
-      <c r="M41">
-        <v>2</v>
-      </c>
-      <c r="N41">
-        <v>3</v>
-      </c>
-      <c r="O41">
-        <v>9.9499999999999993</v>
+      <c r="J41" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>5.25</v>
       </c>
       <c r="P41" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -4920,8 +4603,8 @@
       <c r="C42" t="s">
         <v>175</v>
       </c>
-      <c r="D42">
-        <v>2017</v>
+      <c r="D42" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E42" t="s">
         <v>291</v>
@@ -4932,35 +4615,35 @@
       <c r="G42" t="s">
         <v>525</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>4.1000000000000005</v>
       </c>
       <c r="I42" t="s">
         <v>642</v>
       </c>
-      <c r="J42">
-        <v>70</v>
-      </c>
-      <c r="K42">
-        <v>20</v>
-      </c>
-      <c r="L42">
-        <v>50</v>
-      </c>
-      <c r="M42">
-        <v>2</v>
-      </c>
-      <c r="N42">
-        <v>3</v>
-      </c>
-      <c r="O42">
-        <v>9.9499999999999993</v>
+      <c r="J42" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>5.25</v>
       </c>
       <c r="P42" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -4970,8 +4653,8 @@
       <c r="C43" t="s">
         <v>176</v>
       </c>
-      <c r="D43">
-        <v>2019</v>
+      <c r="D43" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E43" t="s">
         <v>292</v>
@@ -4982,35 +4665,35 @@
       <c r="G43" t="s">
         <v>526</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>3.9</v>
       </c>
       <c r="I43" t="s">
         <v>643</v>
       </c>
-      <c r="J43">
-        <v>70</v>
-      </c>
-      <c r="K43">
-        <v>20</v>
-      </c>
-      <c r="L43">
-        <v>50</v>
-      </c>
-      <c r="M43">
-        <v>2</v>
-      </c>
-      <c r="N43">
-        <v>3</v>
-      </c>
-      <c r="O43">
-        <v>9.9499999999999993</v>
+      <c r="J43" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5.25</v>
       </c>
       <c r="P43" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -5020,8 +4703,8 @@
       <c r="C44" t="s">
         <v>177</v>
       </c>
-      <c r="D44">
-        <v>2019</v>
+      <c r="D44" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E44" t="s">
         <v>293</v>
@@ -5032,35 +4715,35 @@
       <c r="G44" t="s">
         <v>527</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>3.1</v>
       </c>
       <c r="I44" t="s">
         <v>644</v>
       </c>
-      <c r="J44">
-        <v>70</v>
-      </c>
-      <c r="K44">
-        <v>20</v>
-      </c>
-      <c r="L44">
-        <v>50</v>
-      </c>
-      <c r="M44">
-        <v>2</v>
-      </c>
-      <c r="N44">
-        <v>3</v>
-      </c>
-      <c r="O44">
-        <v>9.9499999999999993</v>
+      <c r="J44" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>5.25</v>
       </c>
       <c r="P44" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -5070,8 +4753,8 @@
       <c r="C45" t="s">
         <v>178</v>
       </c>
-      <c r="D45">
-        <v>2019</v>
+      <c r="D45" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E45" t="s">
         <v>294</v>
@@ -5082,35 +4765,35 @@
       <c r="G45" t="s">
         <v>528</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>2.9000000000000004</v>
       </c>
       <c r="I45" t="s">
         <v>645</v>
       </c>
-      <c r="J45">
-        <v>70</v>
-      </c>
-      <c r="K45">
-        <v>20</v>
-      </c>
-      <c r="L45">
-        <v>50</v>
-      </c>
-      <c r="M45">
-        <v>2</v>
-      </c>
-      <c r="N45">
-        <v>3</v>
-      </c>
-      <c r="O45">
-        <v>9.9499999999999993</v>
+      <c r="J45" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>5.25</v>
       </c>
       <c r="P45" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -5120,8 +4803,8 @@
       <c r="C46" t="s">
         <v>179</v>
       </c>
-      <c r="D46">
-        <v>2019</v>
+      <c r="D46" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E46" t="s">
         <v>295</v>
@@ -5132,35 +4815,35 @@
       <c r="G46" t="s">
         <v>529</v>
       </c>
-      <c r="H46">
-        <v>4</v>
+      <c r="H46" t="n">
+        <v>4.0</v>
       </c>
       <c r="I46" t="s">
         <v>646</v>
       </c>
-      <c r="J46">
-        <v>70</v>
-      </c>
-      <c r="K46">
-        <v>20</v>
-      </c>
-      <c r="L46">
-        <v>50</v>
-      </c>
-      <c r="M46">
-        <v>2</v>
-      </c>
-      <c r="N46">
-        <v>3</v>
-      </c>
-      <c r="O46">
-        <v>9.9499999999999993</v>
+      <c r="J46" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>5.25</v>
       </c>
       <c r="P46" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -5170,8 +4853,8 @@
       <c r="C47" t="s">
         <v>180</v>
       </c>
-      <c r="D47">
-        <v>2019</v>
+      <c r="D47" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E47" t="s">
         <v>296</v>
@@ -5182,35 +4865,35 @@
       <c r="G47" t="s">
         <v>530</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>2.5</v>
       </c>
       <c r="I47" t="s">
         <v>647</v>
       </c>
-      <c r="J47">
-        <v>70</v>
-      </c>
-      <c r="K47">
-        <v>20</v>
-      </c>
-      <c r="L47">
-        <v>50</v>
-      </c>
-      <c r="M47">
-        <v>2</v>
-      </c>
-      <c r="N47">
-        <v>3</v>
-      </c>
-      <c r="O47">
-        <v>9.9499999999999993</v>
+      <c r="J47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>5.25</v>
       </c>
       <c r="P47" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -5220,8 +4903,8 @@
       <c r="C48" t="s">
         <v>181</v>
       </c>
-      <c r="D48">
-        <v>2017</v>
+      <c r="D48" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E48" t="s">
         <v>297</v>
@@ -5232,35 +4915,35 @@
       <c r="G48" t="s">
         <v>531</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>3.9</v>
       </c>
       <c r="I48" t="s">
         <v>648</v>
       </c>
-      <c r="J48">
-        <v>70</v>
-      </c>
-      <c r="K48">
-        <v>20</v>
-      </c>
-      <c r="L48">
-        <v>50</v>
-      </c>
-      <c r="M48">
-        <v>2</v>
-      </c>
-      <c r="N48">
-        <v>3</v>
-      </c>
-      <c r="O48">
-        <v>9.9499999999999993</v>
+      <c r="J48" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>5.25</v>
       </c>
       <c r="P48" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -5270,8 +4953,8 @@
       <c r="C49" t="s">
         <v>182</v>
       </c>
-      <c r="D49">
-        <v>2019</v>
+      <c r="D49" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E49" t="s">
         <v>298</v>
@@ -5282,35 +4965,35 @@
       <c r="G49" t="s">
         <v>532</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>3.8</v>
       </c>
       <c r="I49" t="s">
         <v>649</v>
       </c>
-      <c r="J49">
-        <v>70</v>
-      </c>
-      <c r="K49">
-        <v>20</v>
-      </c>
-      <c r="L49">
-        <v>50</v>
-      </c>
-      <c r="M49">
-        <v>2</v>
-      </c>
-      <c r="N49">
-        <v>3</v>
-      </c>
-      <c r="O49">
-        <v>9.9499999999999993</v>
+      <c r="J49" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>5.25</v>
       </c>
       <c r="P49" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -5320,8 +5003,8 @@
       <c r="C50" t="s">
         <v>183</v>
       </c>
-      <c r="D50">
-        <v>2019</v>
+      <c r="D50" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E50" t="s">
         <v>299</v>
@@ -5332,35 +5015,35 @@
       <c r="G50" t="s">
         <v>533</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>5.7</v>
       </c>
       <c r="I50" t="s">
         <v>650</v>
       </c>
-      <c r="J50">
-        <v>70</v>
-      </c>
-      <c r="K50">
-        <v>20</v>
-      </c>
-      <c r="L50">
-        <v>50</v>
-      </c>
-      <c r="M50">
-        <v>2</v>
-      </c>
-      <c r="N50">
-        <v>3</v>
-      </c>
-      <c r="O50">
-        <v>9.9499999999999993</v>
+      <c r="J50" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>5.25</v>
       </c>
       <c r="P50" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -5370,8 +5053,8 @@
       <c r="C51" t="s">
         <v>184</v>
       </c>
-      <c r="D51">
-        <v>2019</v>
+      <c r="D51" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E51" t="s">
         <v>300</v>
@@ -5382,35 +5065,35 @@
       <c r="G51" t="s">
         <v>534</v>
       </c>
-      <c r="H51">
-        <v>3</v>
+      <c r="H51" t="n">
+        <v>3.0</v>
       </c>
       <c r="I51" t="s">
         <v>651</v>
       </c>
-      <c r="J51">
-        <v>70</v>
-      </c>
-      <c r="K51">
-        <v>20</v>
-      </c>
-      <c r="L51">
-        <v>50</v>
-      </c>
-      <c r="M51">
-        <v>2</v>
-      </c>
-      <c r="N51">
-        <v>3</v>
-      </c>
-      <c r="O51">
-        <v>9.9499999999999993</v>
+      <c r="J51" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>5.25</v>
       </c>
       <c r="P51" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -5420,8 +5103,8 @@
       <c r="C52" t="s">
         <v>185</v>
       </c>
-      <c r="D52">
-        <v>2010</v>
+      <c r="D52" t="n">
+        <v>2010.0</v>
       </c>
       <c r="E52" t="s">
         <v>301</v>
@@ -5432,35 +5115,35 @@
       <c r="G52" t="s">
         <v>535</v>
       </c>
-      <c r="H52">
-        <v>5.8000000000000007</v>
+      <c r="H52" t="n">
+        <v>5.800000000000001</v>
       </c>
       <c r="I52" t="s">
         <v>652</v>
       </c>
-      <c r="J52">
-        <v>70</v>
-      </c>
-      <c r="K52">
-        <v>20</v>
-      </c>
-      <c r="L52">
-        <v>50</v>
-      </c>
-      <c r="M52">
-        <v>2</v>
-      </c>
-      <c r="N52">
-        <v>3</v>
-      </c>
-      <c r="O52">
-        <v>9.9499999999999993</v>
+      <c r="J52" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>5.25</v>
       </c>
       <c r="P52" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -5470,8 +5153,8 @@
       <c r="C53" t="s">
         <v>186</v>
       </c>
-      <c r="D53">
-        <v>2018</v>
+      <c r="D53" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E53" t="s">
         <v>302</v>
@@ -5482,35 +5165,35 @@
       <c r="G53" t="s">
         <v>536</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>4.1000000000000005</v>
       </c>
       <c r="I53" t="s">
         <v>653</v>
       </c>
-      <c r="J53">
-        <v>70</v>
-      </c>
-      <c r="K53">
-        <v>20</v>
-      </c>
-      <c r="L53">
-        <v>50</v>
-      </c>
-      <c r="M53">
-        <v>2</v>
-      </c>
-      <c r="N53">
-        <v>3</v>
-      </c>
-      <c r="O53">
-        <v>9.9499999999999993</v>
+      <c r="J53" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>5.25</v>
       </c>
       <c r="P53" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -5520,8 +5203,8 @@
       <c r="C54" t="s">
         <v>187</v>
       </c>
-      <c r="D54">
-        <v>2009</v>
+      <c r="D54" t="n">
+        <v>2009.0</v>
       </c>
       <c r="E54" t="s">
         <v>303</v>
@@ -5532,35 +5215,35 @@
       <c r="G54" t="s">
         <v>537</v>
       </c>
-      <c r="H54">
-        <v>4.5999999999999996</v>
+      <c r="H54" t="n">
+        <v>4.6</v>
       </c>
       <c r="I54" t="s">
         <v>654</v>
       </c>
-      <c r="J54">
-        <v>70</v>
-      </c>
-      <c r="K54">
-        <v>20</v>
-      </c>
-      <c r="L54">
-        <v>50</v>
-      </c>
-      <c r="M54">
-        <v>2</v>
-      </c>
-      <c r="N54">
-        <v>3</v>
-      </c>
-      <c r="O54">
-        <v>9.9499999999999993</v>
+      <c r="J54" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>5.25</v>
       </c>
       <c r="P54" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -5570,8 +5253,8 @@
       <c r="C55" t="s">
         <v>188</v>
       </c>
-      <c r="D55">
-        <v>2019</v>
+      <c r="D55" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E55" t="s">
         <v>304</v>
@@ -5582,35 +5265,35 @@
       <c r="G55" t="s">
         <v>538</v>
       </c>
-      <c r="H55">
-        <v>4.9000000000000004</v>
+      <c r="H55" t="n">
+        <v>4.9</v>
       </c>
       <c r="I55" t="s">
         <v>655</v>
       </c>
-      <c r="J55">
-        <v>70</v>
-      </c>
-      <c r="K55">
-        <v>20</v>
-      </c>
-      <c r="L55">
-        <v>50</v>
-      </c>
-      <c r="M55">
-        <v>2</v>
-      </c>
-      <c r="N55">
-        <v>3</v>
-      </c>
-      <c r="O55">
-        <v>9.9499999999999993</v>
+      <c r="J55" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>5.25</v>
       </c>
       <c r="P55" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -5620,8 +5303,8 @@
       <c r="C56" t="s">
         <v>189</v>
       </c>
-      <c r="D56">
-        <v>2019</v>
+      <c r="D56" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E56" t="s">
         <v>305</v>
@@ -5632,35 +5315,35 @@
       <c r="G56" t="s">
         <v>539</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>3.5000000000000004</v>
       </c>
       <c r="I56" t="s">
         <v>656</v>
       </c>
-      <c r="J56">
-        <v>70</v>
-      </c>
-      <c r="K56">
-        <v>20</v>
-      </c>
-      <c r="L56">
-        <v>50</v>
-      </c>
-      <c r="M56">
-        <v>2</v>
-      </c>
-      <c r="N56">
-        <v>3</v>
-      </c>
-      <c r="O56">
-        <v>9.9499999999999993</v>
+      <c r="J56" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>5.25</v>
       </c>
       <c r="P56" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -5670,8 +5353,8 @@
       <c r="C57" t="s">
         <v>190</v>
       </c>
-      <c r="D57">
-        <v>2019</v>
+      <c r="D57" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E57" t="s">
         <v>306</v>
@@ -5682,35 +5365,35 @@
       <c r="G57" t="s">
         <v>540</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>3.4000000000000004</v>
       </c>
       <c r="I57" t="s">
         <v>657</v>
       </c>
-      <c r="J57">
-        <v>70</v>
-      </c>
-      <c r="K57">
-        <v>20</v>
-      </c>
-      <c r="L57">
-        <v>50</v>
-      </c>
-      <c r="M57">
-        <v>2</v>
-      </c>
-      <c r="N57">
-        <v>3</v>
-      </c>
-      <c r="O57">
-        <v>9.9499999999999993</v>
+      <c r="J57" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>5.25</v>
       </c>
       <c r="P57" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -5720,8 +5403,8 @@
       <c r="C58" t="s">
         <v>191</v>
       </c>
-      <c r="D58">
-        <v>2018</v>
+      <c r="D58" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E58" t="s">
         <v>307</v>
@@ -5732,35 +5415,35 @@
       <c r="G58" t="s">
         <v>541</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>2.8000000000000003</v>
       </c>
       <c r="I58" t="s">
         <v>658</v>
       </c>
-      <c r="J58">
-        <v>70</v>
-      </c>
-      <c r="K58">
-        <v>20</v>
-      </c>
-      <c r="L58">
-        <v>50</v>
-      </c>
-      <c r="M58">
-        <v>2</v>
-      </c>
-      <c r="N58">
-        <v>3</v>
-      </c>
-      <c r="O58">
-        <v>9.9499999999999993</v>
+      <c r="J58" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>5.25</v>
       </c>
       <c r="P58" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -5770,8 +5453,8 @@
       <c r="C59" t="s">
         <v>192</v>
       </c>
-      <c r="D59">
-        <v>2019</v>
+      <c r="D59" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E59" t="s">
         <v>308</v>
@@ -5782,35 +5465,35 @@
       <c r="G59" t="s">
         <v>542</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>3.2</v>
       </c>
       <c r="I59" t="s">
         <v>659</v>
       </c>
-      <c r="J59">
-        <v>70</v>
-      </c>
-      <c r="K59">
-        <v>20</v>
-      </c>
-      <c r="L59">
-        <v>50</v>
-      </c>
-      <c r="M59">
-        <v>2</v>
-      </c>
-      <c r="N59">
-        <v>3</v>
-      </c>
-      <c r="O59">
-        <v>9.9499999999999993</v>
+      <c r="J59" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>5.25</v>
       </c>
       <c r="P59" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -5820,8 +5503,8 @@
       <c r="C60" t="s">
         <v>193</v>
       </c>
-      <c r="D60">
-        <v>2017</v>
+      <c r="D60" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E60" t="s">
         <v>309</v>
@@ -5832,35 +5515,35 @@
       <c r="G60" t="s">
         <v>543</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>4.7</v>
       </c>
       <c r="I60" t="s">
         <v>660</v>
       </c>
-      <c r="J60">
-        <v>70</v>
-      </c>
-      <c r="K60">
-        <v>20</v>
-      </c>
-      <c r="L60">
-        <v>50</v>
-      </c>
-      <c r="M60">
-        <v>2</v>
-      </c>
-      <c r="N60">
-        <v>3</v>
-      </c>
-      <c r="O60">
-        <v>9.9499999999999993</v>
+      <c r="J60" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>5.25</v>
       </c>
       <c r="P60" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -5870,8 +5553,8 @@
       <c r="C61" t="s">
         <v>194</v>
       </c>
-      <c r="D61">
-        <v>2018</v>
+      <c r="D61" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E61" t="s">
         <v>310</v>
@@ -5882,35 +5565,35 @@
       <c r="G61" t="s">
         <v>544</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>3.8</v>
       </c>
       <c r="I61" t="s">
         <v>661</v>
       </c>
-      <c r="J61">
-        <v>70</v>
-      </c>
-      <c r="K61">
-        <v>20</v>
-      </c>
-      <c r="L61">
-        <v>50</v>
-      </c>
-      <c r="M61">
-        <v>2</v>
-      </c>
-      <c r="N61">
-        <v>3</v>
-      </c>
-      <c r="O61">
-        <v>9.9499999999999993</v>
+      <c r="J61" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>5.25</v>
       </c>
       <c r="P61" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -5920,8 +5603,8 @@
       <c r="C62" t="s">
         <v>195</v>
       </c>
-      <c r="D62">
-        <v>2019</v>
+      <c r="D62" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E62" t="s">
         <v>311</v>
@@ -5932,35 +5615,35 @@
       <c r="G62" t="s">
         <v>545</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="n">
         <v>7.1</v>
       </c>
       <c r="I62" t="s">
         <v>662</v>
       </c>
-      <c r="J62">
-        <v>70</v>
-      </c>
-      <c r="K62">
-        <v>20</v>
-      </c>
-      <c r="L62">
-        <v>50</v>
-      </c>
-      <c r="M62">
-        <v>2</v>
-      </c>
-      <c r="N62">
-        <v>3</v>
-      </c>
-      <c r="O62">
-        <v>9.9499999999999993</v>
+      <c r="J62" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>5.25</v>
       </c>
       <c r="P62" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -5970,8 +5653,8 @@
       <c r="C63" t="s">
         <v>196</v>
       </c>
-      <c r="D63">
-        <v>2019</v>
+      <c r="D63" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E63" t="s">
         <v>312</v>
@@ -5982,35 +5665,35 @@
       <c r="G63" t="s">
         <v>546</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="n">
         <v>2.8000000000000003</v>
       </c>
       <c r="I63" t="s">
         <v>663</v>
       </c>
-      <c r="J63">
-        <v>70</v>
-      </c>
-      <c r="K63">
-        <v>20</v>
-      </c>
-      <c r="L63">
-        <v>50</v>
-      </c>
-      <c r="M63">
-        <v>2</v>
-      </c>
-      <c r="N63">
-        <v>3</v>
-      </c>
-      <c r="O63">
-        <v>9.9499999999999993</v>
+      <c r="J63" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>5.25</v>
       </c>
       <c r="P63" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -6020,8 +5703,8 @@
       <c r="C64" t="s">
         <v>197</v>
       </c>
-      <c r="D64">
-        <v>2017</v>
+      <c r="D64" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E64" t="s">
         <v>313</v>
@@ -6032,35 +5715,35 @@
       <c r="G64" t="s">
         <v>547</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="n">
         <v>3.4000000000000004</v>
       </c>
       <c r="I64" t="s">
         <v>664</v>
       </c>
-      <c r="J64">
-        <v>70</v>
-      </c>
-      <c r="K64">
-        <v>20</v>
-      </c>
-      <c r="L64">
-        <v>50</v>
-      </c>
-      <c r="M64">
-        <v>2</v>
-      </c>
-      <c r="N64">
-        <v>3</v>
-      </c>
-      <c r="O64">
-        <v>9.9499999999999993</v>
+      <c r="J64" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>5.25</v>
       </c>
       <c r="P64" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -6070,8 +5753,8 @@
       <c r="C65" t="s">
         <v>198</v>
       </c>
-      <c r="D65">
-        <v>2016</v>
+      <c r="D65" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E65" t="s">
         <v>314</v>
@@ -6082,35 +5765,35 @@
       <c r="G65" t="s">
         <v>548</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="n">
         <v>5.2</v>
       </c>
       <c r="I65" t="s">
         <v>665</v>
       </c>
-      <c r="J65">
-        <v>70</v>
-      </c>
-      <c r="K65">
-        <v>20</v>
-      </c>
-      <c r="L65">
-        <v>50</v>
-      </c>
-      <c r="M65">
-        <v>2</v>
-      </c>
-      <c r="N65">
-        <v>3</v>
-      </c>
-      <c r="O65">
-        <v>9.9499999999999993</v>
+      <c r="J65" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>5.25</v>
       </c>
       <c r="P65" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -6120,8 +5803,8 @@
       <c r="C66" t="s">
         <v>199</v>
       </c>
-      <c r="D66">
-        <v>2019</v>
+      <c r="D66" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E66" t="s">
         <v>315</v>
@@ -6132,35 +5815,35 @@
       <c r="G66" t="s">
         <v>549</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="n">
         <v>3.3000000000000003</v>
       </c>
       <c r="I66" t="s">
         <v>666</v>
       </c>
-      <c r="J66">
-        <v>70</v>
-      </c>
-      <c r="K66">
-        <v>20</v>
-      </c>
-      <c r="L66">
-        <v>50</v>
-      </c>
-      <c r="M66">
-        <v>2</v>
-      </c>
-      <c r="N66">
-        <v>3</v>
-      </c>
-      <c r="O66">
-        <v>9.9499999999999993</v>
+      <c r="J66" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>5.25</v>
       </c>
       <c r="P66" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -6170,8 +5853,8 @@
       <c r="C67" t="s">
         <v>200</v>
       </c>
-      <c r="D67">
-        <v>2017</v>
+      <c r="D67" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E67" t="s">
         <v>316</v>
@@ -6182,35 +5865,35 @@
       <c r="G67" t="s">
         <v>550</v>
       </c>
-      <c r="H67">
-        <v>5</v>
+      <c r="H67" t="n">
+        <v>5.0</v>
       </c>
       <c r="I67" t="s">
         <v>667</v>
       </c>
-      <c r="J67">
-        <v>70</v>
-      </c>
-      <c r="K67">
-        <v>20</v>
-      </c>
-      <c r="L67">
-        <v>50</v>
-      </c>
-      <c r="M67">
-        <v>2</v>
-      </c>
-      <c r="N67">
-        <v>3</v>
-      </c>
-      <c r="O67">
-        <v>9.9499999999999993</v>
+      <c r="J67" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>5.25</v>
       </c>
       <c r="P67" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -6220,8 +5903,8 @@
       <c r="C68" t="s">
         <v>201</v>
       </c>
-      <c r="D68">
-        <v>2017</v>
+      <c r="D68" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E68" t="s">
         <v>317</v>
@@ -6232,35 +5915,35 @@
       <c r="G68" t="s">
         <v>551</v>
       </c>
-      <c r="H68">
-        <v>8</v>
+      <c r="H68" t="n">
+        <v>8.0</v>
       </c>
       <c r="I68" t="s">
         <v>668</v>
       </c>
-      <c r="J68">
-        <v>70</v>
-      </c>
-      <c r="K68">
-        <v>20</v>
-      </c>
-      <c r="L68">
-        <v>50</v>
-      </c>
-      <c r="M68">
-        <v>2</v>
-      </c>
-      <c r="N68">
-        <v>3</v>
-      </c>
-      <c r="O68">
-        <v>9.9499999999999993</v>
+      <c r="J68" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>5.25</v>
       </c>
       <c r="P68" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -6270,8 +5953,8 @@
       <c r="C69" t="s">
         <v>202</v>
       </c>
-      <c r="D69">
-        <v>2019</v>
+      <c r="D69" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E69" t="s">
         <v>318</v>
@@ -6282,35 +5965,35 @@
       <c r="G69" t="s">
         <v>552</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="n">
         <v>2.1999999999999997</v>
       </c>
       <c r="I69" t="s">
         <v>669</v>
       </c>
-      <c r="J69">
-        <v>70</v>
-      </c>
-      <c r="K69">
-        <v>20</v>
-      </c>
-      <c r="L69">
-        <v>50</v>
-      </c>
-      <c r="M69">
-        <v>2</v>
-      </c>
-      <c r="N69">
-        <v>3</v>
-      </c>
-      <c r="O69">
-        <v>9.9499999999999993</v>
+      <c r="J69" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>5.25</v>
       </c>
       <c r="P69" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -6320,8 +6003,8 @@
       <c r="C70" t="s">
         <v>203</v>
       </c>
-      <c r="D70">
-        <v>2019</v>
+      <c r="D70" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E70" t="s">
         <v>319</v>
@@ -6332,35 +6015,35 @@
       <c r="G70" t="s">
         <v>553</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="n">
         <v>4.3999999999999995</v>
       </c>
       <c r="I70" t="s">
         <v>670</v>
       </c>
-      <c r="J70">
-        <v>70</v>
-      </c>
-      <c r="K70">
-        <v>20</v>
-      </c>
-      <c r="L70">
-        <v>50</v>
-      </c>
-      <c r="M70">
-        <v>2</v>
-      </c>
-      <c r="N70">
-        <v>3</v>
-      </c>
-      <c r="O70">
-        <v>9.9499999999999993</v>
+      <c r="J70" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>5.25</v>
       </c>
       <c r="P70" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -6370,8 +6053,8 @@
       <c r="C71" t="s">
         <v>204</v>
       </c>
-      <c r="D71">
-        <v>2019</v>
+      <c r="D71" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E71" t="s">
         <v>320</v>
@@ -6382,35 +6065,35 @@
       <c r="G71" t="s">
         <v>554</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="n">
         <v>4.2</v>
       </c>
       <c r="I71" t="s">
         <v>671</v>
       </c>
-      <c r="J71">
-        <v>70</v>
-      </c>
-      <c r="K71">
-        <v>20</v>
-      </c>
-      <c r="L71">
-        <v>50</v>
-      </c>
-      <c r="M71">
-        <v>2</v>
-      </c>
-      <c r="N71">
-        <v>3</v>
-      </c>
-      <c r="O71">
-        <v>9.9499999999999993</v>
+      <c r="J71" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>5.25</v>
       </c>
       <c r="P71" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -6420,8 +6103,8 @@
       <c r="C72" t="s">
         <v>205</v>
       </c>
-      <c r="D72">
-        <v>2018</v>
+      <c r="D72" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E72" t="s">
         <v>321</v>
@@ -6432,35 +6115,35 @@
       <c r="G72" t="s">
         <v>555</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="n">
         <v>4.1000000000000005</v>
       </c>
       <c r="I72" t="s">
         <v>672</v>
       </c>
-      <c r="J72">
-        <v>70</v>
-      </c>
-      <c r="K72">
-        <v>20</v>
-      </c>
-      <c r="L72">
-        <v>50</v>
-      </c>
-      <c r="M72">
-        <v>2</v>
-      </c>
-      <c r="N72">
-        <v>3</v>
-      </c>
-      <c r="O72">
-        <v>9.9499999999999993</v>
+      <c r="J72" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>5.25</v>
       </c>
       <c r="P72" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -6470,8 +6153,8 @@
       <c r="C73" t="s">
         <v>206</v>
       </c>
-      <c r="D73">
-        <v>2019</v>
+      <c r="D73" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E73" t="s">
         <v>322</v>
@@ -6482,35 +6165,35 @@
       <c r="G73" t="s">
         <v>556</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="n">
         <v>2.5</v>
       </c>
       <c r="I73" t="s">
         <v>673</v>
       </c>
-      <c r="J73">
-        <v>70</v>
-      </c>
-      <c r="K73">
-        <v>20</v>
-      </c>
-      <c r="L73">
-        <v>50</v>
-      </c>
-      <c r="M73">
-        <v>2</v>
-      </c>
-      <c r="N73">
-        <v>3</v>
-      </c>
-      <c r="O73">
-        <v>9.9499999999999993</v>
+      <c r="J73" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>5.25</v>
       </c>
       <c r="P73" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -6520,8 +6203,8 @@
       <c r="C74" t="s">
         <v>207</v>
       </c>
-      <c r="D74">
-        <v>2019</v>
+      <c r="D74" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E74" t="s">
         <v>323</v>
@@ -6532,35 +6215,35 @@
       <c r="G74" t="s">
         <v>557</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="n">
         <v>3.5000000000000004</v>
       </c>
       <c r="I74" t="s">
         <v>674</v>
       </c>
-      <c r="J74">
-        <v>70</v>
-      </c>
-      <c r="K74">
-        <v>20</v>
-      </c>
-      <c r="L74">
-        <v>50</v>
-      </c>
-      <c r="M74">
-        <v>2</v>
-      </c>
-      <c r="N74">
-        <v>3</v>
-      </c>
-      <c r="O74">
-        <v>9.9499999999999993</v>
+      <c r="J74" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>5.25</v>
       </c>
       <c r="P74" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" t="s">
         <v>89</v>
       </c>
@@ -6570,8 +6253,8 @@
       <c r="C75" t="s">
         <v>208</v>
       </c>
-      <c r="D75">
-        <v>2016</v>
+      <c r="D75" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E75" t="s">
         <v>324</v>
@@ -6582,35 +6265,35 @@
       <c r="G75" t="s">
         <v>558</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="n">
         <v>5.6000000000000005</v>
       </c>
       <c r="I75" t="s">
         <v>675</v>
       </c>
-      <c r="J75">
-        <v>70</v>
-      </c>
-      <c r="K75">
-        <v>20</v>
-      </c>
-      <c r="L75">
-        <v>50</v>
-      </c>
-      <c r="M75">
-        <v>2</v>
-      </c>
-      <c r="N75">
-        <v>3</v>
-      </c>
-      <c r="O75">
-        <v>9.9499999999999993</v>
+      <c r="J75" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>5.25</v>
       </c>
       <c r="P75" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -6620,8 +6303,8 @@
       <c r="C76" t="s">
         <v>209</v>
       </c>
-      <c r="D76">
-        <v>2019</v>
+      <c r="D76" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E76" t="s">
         <v>325</v>
@@ -6632,35 +6315,35 @@
       <c r="G76" t="s">
         <v>559</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="n">
         <v>4.3</v>
       </c>
       <c r="I76" t="s">
         <v>676</v>
       </c>
-      <c r="J76">
-        <v>70</v>
-      </c>
-      <c r="K76">
-        <v>20</v>
-      </c>
-      <c r="L76">
-        <v>50</v>
-      </c>
-      <c r="M76">
-        <v>2</v>
-      </c>
-      <c r="N76">
-        <v>3</v>
-      </c>
-      <c r="O76">
-        <v>9.9499999999999993</v>
+      <c r="J76" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>5.25</v>
       </c>
       <c r="P76" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -6670,8 +6353,8 @@
       <c r="C77" t="s">
         <v>210</v>
       </c>
-      <c r="D77">
-        <v>2019</v>
+      <c r="D77" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E77" t="s">
         <v>326</v>
@@ -6682,35 +6365,35 @@
       <c r="G77" t="s">
         <v>560</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="n">
         <v>6.6000000000000005</v>
       </c>
       <c r="I77" t="s">
         <v>677</v>
       </c>
-      <c r="J77">
-        <v>70</v>
-      </c>
-      <c r="K77">
-        <v>20</v>
-      </c>
-      <c r="L77">
-        <v>50</v>
-      </c>
-      <c r="M77">
-        <v>2</v>
-      </c>
-      <c r="N77">
-        <v>3</v>
-      </c>
-      <c r="O77">
-        <v>9.9499999999999993</v>
+      <c r="J77" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>5.25</v>
       </c>
       <c r="P77" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -6720,8 +6403,8 @@
       <c r="C78" t="s">
         <v>211</v>
       </c>
-      <c r="D78">
-        <v>2019</v>
+      <c r="D78" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E78" t="s">
         <v>327</v>
@@ -6732,35 +6415,35 @@
       <c r="G78" t="s">
         <v>561</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="n">
         <v>5.2</v>
       </c>
       <c r="I78" t="s">
         <v>678</v>
       </c>
-      <c r="J78">
-        <v>70</v>
-      </c>
-      <c r="K78">
-        <v>20</v>
-      </c>
-      <c r="L78">
-        <v>50</v>
-      </c>
-      <c r="M78">
-        <v>2</v>
-      </c>
-      <c r="N78">
-        <v>3</v>
-      </c>
-      <c r="O78">
-        <v>9.9499999999999993</v>
+      <c r="J78" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>5.25</v>
       </c>
       <c r="P78" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -6770,8 +6453,8 @@
       <c r="C79" t="s">
         <v>212</v>
       </c>
-      <c r="D79">
-        <v>2017</v>
+      <c r="D79" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E79" t="s">
         <v>328</v>
@@ -6782,35 +6465,35 @@
       <c r="G79" t="s">
         <v>562</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="n">
         <v>7.1</v>
       </c>
       <c r="I79" t="s">
         <v>679</v>
       </c>
-      <c r="J79">
-        <v>70</v>
-      </c>
-      <c r="K79">
-        <v>20</v>
-      </c>
-      <c r="L79">
-        <v>50</v>
-      </c>
-      <c r="M79">
-        <v>2</v>
-      </c>
-      <c r="N79">
-        <v>3</v>
-      </c>
-      <c r="O79">
-        <v>9.9499999999999993</v>
+      <c r="J79" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>5.25</v>
       </c>
       <c r="P79" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -6820,8 +6503,8 @@
       <c r="C80" t="s">
         <v>213</v>
       </c>
-      <c r="D80">
-        <v>2018</v>
+      <c r="D80" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E80" t="s">
         <v>329</v>
@@ -6832,35 +6515,35 @@
       <c r="G80" t="s">
         <v>563</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="n">
         <v>3.3000000000000003</v>
       </c>
       <c r="I80" t="s">
         <v>680</v>
       </c>
-      <c r="J80">
-        <v>70</v>
-      </c>
-      <c r="K80">
-        <v>20</v>
-      </c>
-      <c r="L80">
-        <v>50</v>
-      </c>
-      <c r="M80">
-        <v>2</v>
-      </c>
-      <c r="N80">
-        <v>3</v>
-      </c>
-      <c r="O80">
-        <v>9.9499999999999993</v>
+      <c r="J80" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>5.25</v>
       </c>
       <c r="P80" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -6870,8 +6553,8 @@
       <c r="C81" t="s">
         <v>214</v>
       </c>
-      <c r="D81">
-        <v>2016</v>
+      <c r="D81" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E81" t="s">
         <v>330</v>
@@ -6882,35 +6565,35 @@
       <c r="G81" t="s">
         <v>564</v>
       </c>
-      <c r="H81">
-        <v>8</v>
+      <c r="H81" t="n">
+        <v>8.0</v>
       </c>
       <c r="I81" t="s">
         <v>681</v>
       </c>
-      <c r="J81">
-        <v>70</v>
-      </c>
-      <c r="K81">
-        <v>20</v>
-      </c>
-      <c r="L81">
-        <v>50</v>
-      </c>
-      <c r="M81">
-        <v>2</v>
-      </c>
-      <c r="N81">
-        <v>3</v>
-      </c>
-      <c r="O81">
-        <v>9.9499999999999993</v>
+      <c r="J81" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>5.25</v>
       </c>
       <c r="P81" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -6920,8 +6603,8 @@
       <c r="C82" t="s">
         <v>215</v>
       </c>
-      <c r="D82">
-        <v>2017</v>
+      <c r="D82" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E82" t="s">
         <v>331</v>
@@ -6932,35 +6615,35 @@
       <c r="G82" t="s">
         <v>565</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="n">
         <v>4.1000000000000005</v>
       </c>
       <c r="I82" t="s">
         <v>682</v>
       </c>
-      <c r="J82">
-        <v>70</v>
-      </c>
-      <c r="K82">
-        <v>20</v>
-      </c>
-      <c r="L82">
-        <v>50</v>
-      </c>
-      <c r="M82">
-        <v>2</v>
-      </c>
-      <c r="N82">
-        <v>3</v>
-      </c>
-      <c r="O82">
-        <v>9.9499999999999993</v>
+      <c r="J82" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>5.25</v>
       </c>
       <c r="P82" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -6970,8 +6653,8 @@
       <c r="C83" t="s">
         <v>216</v>
       </c>
-      <c r="D83">
-        <v>2017</v>
+      <c r="D83" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E83" t="s">
         <v>332</v>
@@ -6982,35 +6665,35 @@
       <c r="G83" t="s">
         <v>566</v>
       </c>
-      <c r="H83">
+      <c r="H83" t="n">
         <v>3.5999999999999996</v>
       </c>
       <c r="I83" t="s">
         <v>683</v>
       </c>
-      <c r="J83">
-        <v>70</v>
-      </c>
-      <c r="K83">
-        <v>20</v>
-      </c>
-      <c r="L83">
-        <v>50</v>
-      </c>
-      <c r="M83">
-        <v>2</v>
-      </c>
-      <c r="N83">
-        <v>3</v>
-      </c>
-      <c r="O83">
-        <v>9.9499999999999993</v>
+      <c r="J83" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>5.25</v>
       </c>
       <c r="P83" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -7020,8 +6703,8 @@
       <c r="C84" t="s">
         <v>217</v>
       </c>
-      <c r="D84">
-        <v>2017</v>
+      <c r="D84" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E84" t="s">
         <v>333</v>
@@ -7032,35 +6715,35 @@
       <c r="G84" t="s">
         <v>567</v>
       </c>
-      <c r="H84">
+      <c r="H84" t="n">
         <v>8.5</v>
       </c>
       <c r="I84" t="s">
         <v>684</v>
       </c>
-      <c r="J84">
-        <v>70</v>
-      </c>
-      <c r="K84">
-        <v>20</v>
-      </c>
-      <c r="L84">
-        <v>50</v>
-      </c>
-      <c r="M84">
-        <v>2</v>
-      </c>
-      <c r="N84">
-        <v>3</v>
-      </c>
-      <c r="O84">
-        <v>9.9499999999999993</v>
+      <c r="J84" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>5.25</v>
       </c>
       <c r="P84" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -7070,8 +6753,8 @@
       <c r="C85" t="s">
         <v>218</v>
       </c>
-      <c r="D85">
-        <v>2017</v>
+      <c r="D85" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E85" t="s">
         <v>334</v>
@@ -7082,35 +6765,35 @@
       <c r="G85" t="s">
         <v>568</v>
       </c>
-      <c r="H85">
+      <c r="H85" t="n">
         <v>4.8</v>
       </c>
       <c r="I85" t="s">
         <v>685</v>
       </c>
-      <c r="J85">
-        <v>70</v>
-      </c>
-      <c r="K85">
-        <v>20</v>
-      </c>
-      <c r="L85">
-        <v>50</v>
-      </c>
-      <c r="M85">
-        <v>2</v>
-      </c>
-      <c r="N85">
-        <v>3</v>
-      </c>
-      <c r="O85">
-        <v>9.9499999999999993</v>
+      <c r="J85" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>5.25</v>
       </c>
       <c r="P85" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -7120,8 +6803,8 @@
       <c r="C86" t="s">
         <v>219</v>
       </c>
-      <c r="D86">
-        <v>2019</v>
+      <c r="D86" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E86" t="s">
         <v>335</v>
@@ -7132,35 +6815,35 @@
       <c r="G86" t="s">
         <v>569</v>
       </c>
-      <c r="H86">
+      <c r="H86" t="n">
         <v>3.5000000000000004</v>
       </c>
       <c r="I86" t="s">
         <v>686</v>
       </c>
-      <c r="J86">
-        <v>70</v>
-      </c>
-      <c r="K86">
-        <v>20</v>
-      </c>
-      <c r="L86">
-        <v>50</v>
-      </c>
-      <c r="M86">
-        <v>2</v>
-      </c>
-      <c r="N86">
-        <v>3</v>
-      </c>
-      <c r="O86">
-        <v>9.9499999999999993</v>
+      <c r="J86" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>5.25</v>
       </c>
       <c r="P86" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -7170,8 +6853,8 @@
       <c r="C87" t="s">
         <v>220</v>
       </c>
-      <c r="D87">
-        <v>2018</v>
+      <c r="D87" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E87" t="s">
         <v>336</v>
@@ -7182,35 +6865,35 @@
       <c r="G87" t="s">
         <v>570</v>
       </c>
-      <c r="H87">
+      <c r="H87" t="n">
         <v>4.1000000000000005</v>
       </c>
       <c r="I87" t="s">
         <v>687</v>
       </c>
-      <c r="J87">
-        <v>70</v>
-      </c>
-      <c r="K87">
-        <v>20</v>
-      </c>
-      <c r="L87">
-        <v>50</v>
-      </c>
-      <c r="M87">
-        <v>2</v>
-      </c>
-      <c r="N87">
-        <v>3</v>
-      </c>
-      <c r="O87">
-        <v>9.9499999999999993</v>
+      <c r="J87" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>5.25</v>
       </c>
       <c r="P87" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -7220,8 +6903,8 @@
       <c r="C88" t="s">
         <v>221</v>
       </c>
-      <c r="D88">
-        <v>2019</v>
+      <c r="D88" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E88" t="s">
         <v>337</v>
@@ -7232,35 +6915,35 @@
       <c r="G88" t="s">
         <v>571</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="n">
         <v>5.5</v>
       </c>
       <c r="I88" t="s">
         <v>688</v>
       </c>
-      <c r="J88">
-        <v>70</v>
-      </c>
-      <c r="K88">
-        <v>20</v>
-      </c>
-      <c r="L88">
-        <v>50</v>
-      </c>
-      <c r="M88">
-        <v>2</v>
-      </c>
-      <c r="N88">
-        <v>3</v>
-      </c>
-      <c r="O88">
-        <v>9.9499999999999993</v>
+      <c r="J88" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>5.25</v>
       </c>
       <c r="P88" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -7270,8 +6953,8 @@
       <c r="C89" t="s">
         <v>222</v>
       </c>
-      <c r="D89">
-        <v>2018</v>
+      <c r="D89" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E89" t="s">
         <v>338</v>
@@ -7282,35 +6965,35 @@
       <c r="G89" t="s">
         <v>572</v>
       </c>
-      <c r="H89">
+      <c r="H89" t="n">
         <v>5.2</v>
       </c>
       <c r="I89" t="s">
         <v>689</v>
       </c>
-      <c r="J89">
-        <v>70</v>
-      </c>
-      <c r="K89">
-        <v>20</v>
-      </c>
-      <c r="L89">
-        <v>50</v>
-      </c>
-      <c r="M89">
-        <v>2</v>
-      </c>
-      <c r="N89">
-        <v>3</v>
-      </c>
-      <c r="O89">
-        <v>9.9499999999999993</v>
+      <c r="J89" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>5.25</v>
       </c>
       <c r="P89" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -7320,8 +7003,8 @@
       <c r="C90" t="s">
         <v>223</v>
       </c>
-      <c r="D90">
-        <v>2019</v>
+      <c r="D90" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E90" t="s">
         <v>339</v>
@@ -7332,35 +7015,35 @@
       <c r="G90" t="s">
         <v>573</v>
       </c>
-      <c r="H90">
+      <c r="H90" t="n">
         <v>2.8000000000000003</v>
       </c>
       <c r="I90" t="s">
         <v>690</v>
       </c>
-      <c r="J90">
-        <v>70</v>
-      </c>
-      <c r="K90">
-        <v>20</v>
-      </c>
-      <c r="L90">
-        <v>50</v>
-      </c>
-      <c r="M90">
-        <v>2</v>
-      </c>
-      <c r="N90">
-        <v>3</v>
-      </c>
-      <c r="O90">
-        <v>9.9499999999999993</v>
+      <c r="J90" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>5.25</v>
       </c>
       <c r="P90" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -7370,8 +7053,8 @@
       <c r="C91" t="s">
         <v>224</v>
       </c>
-      <c r="D91">
-        <v>2015</v>
+      <c r="D91" t="n">
+        <v>2015.0</v>
       </c>
       <c r="E91" t="s">
         <v>340</v>
@@ -7382,35 +7065,35 @@
       <c r="G91" t="s">
         <v>574</v>
       </c>
-      <c r="H91">
+      <c r="H91" t="n">
         <v>7.1</v>
       </c>
       <c r="I91" t="s">
         <v>691</v>
       </c>
-      <c r="J91">
-        <v>70</v>
-      </c>
-      <c r="K91">
-        <v>20</v>
-      </c>
-      <c r="L91">
-        <v>50</v>
-      </c>
-      <c r="M91">
-        <v>2</v>
-      </c>
-      <c r="N91">
-        <v>3</v>
-      </c>
-      <c r="O91">
-        <v>9.9499999999999993</v>
+      <c r="J91" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>5.25</v>
       </c>
       <c r="P91" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -7420,8 +7103,8 @@
       <c r="C92" t="s">
         <v>225</v>
       </c>
-      <c r="D92">
-        <v>2019</v>
+      <c r="D92" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E92" t="s">
         <v>341</v>
@@ -7432,35 +7115,35 @@
       <c r="G92" t="s">
         <v>575</v>
       </c>
-      <c r="H92">
+      <c r="H92" t="n">
         <v>3.5000000000000004</v>
       </c>
       <c r="I92" t="s">
         <v>692</v>
       </c>
-      <c r="J92">
-        <v>70</v>
-      </c>
-      <c r="K92">
-        <v>20</v>
-      </c>
-      <c r="L92">
-        <v>50</v>
-      </c>
-      <c r="M92">
-        <v>2</v>
-      </c>
-      <c r="N92">
-        <v>3</v>
-      </c>
-      <c r="O92">
-        <v>9.9499999999999993</v>
+      <c r="J92" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>5.25</v>
       </c>
       <c r="P92" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -7470,8 +7153,8 @@
       <c r="C93" t="s">
         <v>226</v>
       </c>
-      <c r="D93">
-        <v>2019</v>
+      <c r="D93" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E93" t="s">
         <v>342</v>
@@ -7482,35 +7165,35 @@
       <c r="G93" t="s">
         <v>576</v>
       </c>
-      <c r="H93">
+      <c r="H93" t="n">
         <v>7.7</v>
       </c>
       <c r="I93" t="s">
         <v>693</v>
       </c>
-      <c r="J93">
-        <v>70</v>
-      </c>
-      <c r="K93">
-        <v>20</v>
-      </c>
-      <c r="L93">
-        <v>50</v>
-      </c>
-      <c r="M93">
-        <v>2</v>
-      </c>
-      <c r="N93">
-        <v>3</v>
-      </c>
-      <c r="O93">
-        <v>9.9499999999999993</v>
+      <c r="J93" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>5.25</v>
       </c>
       <c r="P93" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -7520,8 +7203,8 @@
       <c r="C94" t="s">
         <v>227</v>
       </c>
-      <c r="D94">
-        <v>2017</v>
+      <c r="D94" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E94" t="s">
         <v>343</v>
@@ -7532,35 +7215,35 @@
       <c r="G94" t="s">
         <v>577</v>
       </c>
-      <c r="H94">
+      <c r="H94" t="n">
         <v>2.7</v>
       </c>
       <c r="I94" t="s">
         <v>694</v>
       </c>
-      <c r="J94">
-        <v>70</v>
-      </c>
-      <c r="K94">
-        <v>20</v>
-      </c>
-      <c r="L94">
-        <v>50</v>
-      </c>
-      <c r="M94">
-        <v>2</v>
-      </c>
-      <c r="N94">
-        <v>3</v>
-      </c>
-      <c r="O94">
-        <v>9.9499999999999993</v>
+      <c r="J94" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>5.25</v>
       </c>
       <c r="P94" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -7570,8 +7253,8 @@
       <c r="C95" t="s">
         <v>228</v>
       </c>
-      <c r="D95">
-        <v>2019</v>
+      <c r="D95" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E95" t="s">
         <v>344</v>
@@ -7582,35 +7265,35 @@
       <c r="G95" t="s">
         <v>578</v>
       </c>
-      <c r="H95">
+      <c r="H95" t="n">
         <v>4.1000000000000005</v>
       </c>
       <c r="I95" t="s">
         <v>695</v>
       </c>
-      <c r="J95">
-        <v>70</v>
-      </c>
-      <c r="K95">
-        <v>20</v>
-      </c>
-      <c r="L95">
-        <v>50</v>
-      </c>
-      <c r="M95">
-        <v>2</v>
-      </c>
-      <c r="N95">
-        <v>3</v>
-      </c>
-      <c r="O95">
-        <v>9.9499999999999993</v>
+      <c r="J95" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>5.25</v>
       </c>
       <c r="P95" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -7620,8 +7303,8 @@
       <c r="C96" t="s">
         <v>229</v>
       </c>
-      <c r="D96">
-        <v>2019</v>
+      <c r="D96" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E96" t="s">
         <v>345</v>
@@ -7632,35 +7315,35 @@
       <c r="G96" t="s">
         <v>579</v>
       </c>
-      <c r="H96">
+      <c r="H96" t="n">
         <v>4.5</v>
       </c>
       <c r="I96" t="s">
         <v>696</v>
       </c>
-      <c r="J96">
-        <v>70</v>
-      </c>
-      <c r="K96">
-        <v>20</v>
-      </c>
-      <c r="L96">
-        <v>50</v>
-      </c>
-      <c r="M96">
-        <v>2</v>
-      </c>
-      <c r="N96">
-        <v>3</v>
-      </c>
-      <c r="O96">
-        <v>9.9499999999999993</v>
+      <c r="J96" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>5.25</v>
       </c>
       <c r="P96" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -7670,8 +7353,8 @@
       <c r="C97" t="s">
         <v>230</v>
       </c>
-      <c r="D97">
-        <v>2017</v>
+      <c r="D97" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E97" t="s">
         <v>346</v>
@@ -7682,35 +7365,35 @@
       <c r="G97" t="s">
         <v>580</v>
       </c>
-      <c r="H97">
+      <c r="H97" t="n">
         <v>4.5</v>
       </c>
       <c r="I97" t="s">
         <v>697</v>
       </c>
-      <c r="J97">
-        <v>70</v>
-      </c>
-      <c r="K97">
-        <v>20</v>
-      </c>
-      <c r="L97">
-        <v>50</v>
-      </c>
-      <c r="M97">
-        <v>2</v>
-      </c>
-      <c r="N97">
-        <v>3</v>
-      </c>
-      <c r="O97">
-        <v>9.9499999999999993</v>
+      <c r="J97" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>5.25</v>
       </c>
       <c r="P97" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -7720,8 +7403,8 @@
       <c r="C98" t="s">
         <v>231</v>
       </c>
-      <c r="D98">
-        <v>2016</v>
+      <c r="D98" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E98" t="s">
         <v>347</v>
@@ -7732,35 +7415,35 @@
       <c r="G98" t="s">
         <v>581</v>
       </c>
-      <c r="H98">
+      <c r="H98" t="n">
         <v>3.3000000000000003</v>
       </c>
       <c r="I98" t="s">
         <v>698</v>
       </c>
-      <c r="J98">
-        <v>70</v>
-      </c>
-      <c r="K98">
-        <v>20</v>
-      </c>
-      <c r="L98">
-        <v>50</v>
-      </c>
-      <c r="M98">
-        <v>2</v>
-      </c>
-      <c r="N98">
-        <v>3</v>
-      </c>
-      <c r="O98">
-        <v>9.9499999999999993</v>
+      <c r="J98" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>5.25</v>
       </c>
       <c r="P98" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -7770,8 +7453,8 @@
       <c r="C99" t="s">
         <v>232</v>
       </c>
-      <c r="D99">
-        <v>2018</v>
+      <c r="D99" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E99" t="s">
         <v>348</v>
@@ -7782,35 +7465,35 @@
       <c r="G99" t="s">
         <v>582</v>
       </c>
-      <c r="H99">
-        <v>4.9000000000000004</v>
+      <c r="H99" t="n">
+        <v>4.9</v>
       </c>
       <c r="I99" t="s">
         <v>699</v>
       </c>
-      <c r="J99">
-        <v>70</v>
-      </c>
-      <c r="K99">
-        <v>20</v>
-      </c>
-      <c r="L99">
-        <v>50</v>
-      </c>
-      <c r="M99">
-        <v>2</v>
-      </c>
-      <c r="N99">
-        <v>3</v>
-      </c>
-      <c r="O99">
-        <v>9.9499999999999993</v>
+      <c r="J99" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>5.25</v>
       </c>
       <c r="P99" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -7820,8 +7503,8 @@
       <c r="C100" t="s">
         <v>233</v>
       </c>
-      <c r="D100">
-        <v>2019</v>
+      <c r="D100" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E100" t="s">
         <v>349</v>
@@ -7832,35 +7515,35 @@
       <c r="G100" t="s">
         <v>583</v>
       </c>
-      <c r="H100">
+      <c r="H100" t="n">
         <v>3.3000000000000003</v>
       </c>
       <c r="I100" t="s">
         <v>700</v>
       </c>
-      <c r="J100">
-        <v>70</v>
-      </c>
-      <c r="K100">
-        <v>20</v>
-      </c>
-      <c r="L100">
-        <v>50</v>
-      </c>
-      <c r="M100">
-        <v>2</v>
-      </c>
-      <c r="N100">
-        <v>3</v>
-      </c>
-      <c r="O100">
-        <v>9.9499999999999993</v>
+      <c r="J100" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>5.25</v>
       </c>
       <c r="P100" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -7870,8 +7553,8 @@
       <c r="C101" t="s">
         <v>234</v>
       </c>
-      <c r="D101">
-        <v>2019</v>
+      <c r="D101" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E101" t="s">
         <v>350</v>
@@ -7882,35 +7565,35 @@
       <c r="G101" t="s">
         <v>584</v>
       </c>
-      <c r="H101">
+      <c r="H101" t="n">
         <v>4.7</v>
       </c>
       <c r="I101" t="s">
         <v>701</v>
       </c>
-      <c r="J101">
-        <v>70</v>
-      </c>
-      <c r="K101">
-        <v>20</v>
-      </c>
-      <c r="L101">
-        <v>50</v>
-      </c>
-      <c r="M101">
-        <v>2</v>
-      </c>
-      <c r="N101">
-        <v>3</v>
-      </c>
-      <c r="O101">
-        <v>9.9499999999999993</v>
+      <c r="J101" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>5.25</v>
       </c>
       <c r="P101" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -7920,8 +7603,8 @@
       <c r="C102" t="s">
         <v>235</v>
       </c>
-      <c r="D102">
-        <v>2019</v>
+      <c r="D102" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E102" t="s">
         <v>351</v>
@@ -7932,35 +7615,35 @@
       <c r="G102" t="s">
         <v>585</v>
       </c>
-      <c r="H102">
+      <c r="H102" t="n">
         <v>4.5</v>
       </c>
       <c r="I102" t="s">
         <v>702</v>
       </c>
-      <c r="J102">
-        <v>70</v>
-      </c>
-      <c r="K102">
-        <v>20</v>
-      </c>
-      <c r="L102">
-        <v>50</v>
-      </c>
-      <c r="M102">
-        <v>2</v>
-      </c>
-      <c r="N102">
-        <v>3</v>
-      </c>
-      <c r="O102">
-        <v>9.9499999999999993</v>
+      <c r="J102" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>5.25</v>
       </c>
       <c r="P102" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -7970,8 +7653,8 @@
       <c r="C103" t="s">
         <v>236</v>
       </c>
-      <c r="D103">
-        <v>2009</v>
+      <c r="D103" t="n">
+        <v>2009.0</v>
       </c>
       <c r="E103" t="s">
         <v>352</v>
@@ -7982,35 +7665,35 @@
       <c r="G103" t="s">
         <v>586</v>
       </c>
-      <c r="H103">
+      <c r="H103" t="n">
         <v>4.3999999999999995</v>
       </c>
       <c r="I103" t="s">
         <v>703</v>
       </c>
-      <c r="J103">
-        <v>70</v>
-      </c>
-      <c r="K103">
-        <v>20</v>
-      </c>
-      <c r="L103">
-        <v>50</v>
-      </c>
-      <c r="M103">
-        <v>2</v>
-      </c>
-      <c r="N103">
-        <v>3</v>
-      </c>
-      <c r="O103">
-        <v>9.9499999999999993</v>
+      <c r="J103" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>5.25</v>
       </c>
       <c r="P103" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -8020,8 +7703,8 @@
       <c r="C104" t="s">
         <v>237</v>
       </c>
-      <c r="D104">
-        <v>2011</v>
+      <c r="D104" t="n">
+        <v>2011.0</v>
       </c>
       <c r="E104" t="s">
         <v>353</v>
@@ -8032,35 +7715,35 @@
       <c r="G104" t="s">
         <v>587</v>
       </c>
-      <c r="H104">
+      <c r="H104" t="n">
         <v>4.1000000000000005</v>
       </c>
       <c r="I104" t="s">
         <v>704</v>
       </c>
-      <c r="J104">
-        <v>70</v>
-      </c>
-      <c r="K104">
-        <v>20</v>
-      </c>
-      <c r="L104">
-        <v>50</v>
-      </c>
-      <c r="M104">
-        <v>2</v>
-      </c>
-      <c r="N104">
-        <v>3</v>
-      </c>
-      <c r="O104">
-        <v>9.9499999999999993</v>
+      <c r="J104" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>5.25</v>
       </c>
       <c r="P104" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -8070,8 +7753,8 @@
       <c r="C105" t="s">
         <v>238</v>
       </c>
-      <c r="D105">
-        <v>2017</v>
+      <c r="D105" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E105" t="s">
         <v>354</v>
@@ -8082,35 +7765,35 @@
       <c r="G105" t="s">
         <v>588</v>
       </c>
-      <c r="H105">
+      <c r="H105" t="n">
         <v>4.5</v>
       </c>
       <c r="I105" t="s">
         <v>705</v>
       </c>
-      <c r="J105">
-        <v>70</v>
-      </c>
-      <c r="K105">
-        <v>20</v>
-      </c>
-      <c r="L105">
-        <v>50</v>
-      </c>
-      <c r="M105">
-        <v>2</v>
-      </c>
-      <c r="N105">
-        <v>3</v>
-      </c>
-      <c r="O105">
-        <v>9.9499999999999993</v>
+      <c r="J105" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>5.25</v>
       </c>
       <c r="P105" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -8120,8 +7803,8 @@
       <c r="C106" t="s">
         <v>239</v>
       </c>
-      <c r="D106">
-        <v>2018</v>
+      <c r="D106" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E106" t="s">
         <v>355</v>
@@ -8132,35 +7815,35 @@
       <c r="G106" t="s">
         <v>589</v>
       </c>
-      <c r="H106">
-        <v>7.0000000000000009</v>
+      <c r="H106" t="n">
+        <v>7.000000000000001</v>
       </c>
       <c r="I106" t="s">
         <v>706</v>
       </c>
-      <c r="J106">
-        <v>70</v>
-      </c>
-      <c r="K106">
-        <v>20</v>
-      </c>
-      <c r="L106">
-        <v>50</v>
-      </c>
-      <c r="M106">
-        <v>2</v>
-      </c>
-      <c r="N106">
-        <v>3</v>
-      </c>
-      <c r="O106">
-        <v>9.9499999999999993</v>
+      <c r="J106" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>5.25</v>
       </c>
       <c r="P106" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -8170,8 +7853,8 @@
       <c r="C107" t="s">
         <v>240</v>
       </c>
-      <c r="D107">
-        <v>2019</v>
+      <c r="D107" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E107" t="s">
         <v>356</v>
@@ -8182,35 +7865,35 @@
       <c r="G107" t="s">
         <v>590</v>
       </c>
-      <c r="H107">
+      <c r="H107" t="n">
         <v>3.9</v>
       </c>
       <c r="I107" t="s">
         <v>707</v>
       </c>
-      <c r="J107">
-        <v>70</v>
-      </c>
-      <c r="K107">
-        <v>20</v>
-      </c>
-      <c r="L107">
-        <v>50</v>
-      </c>
-      <c r="M107">
-        <v>2</v>
-      </c>
-      <c r="N107">
-        <v>3</v>
-      </c>
-      <c r="O107">
-        <v>9.9499999999999993</v>
+      <c r="J107" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>5.25</v>
       </c>
       <c r="P107" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -8220,8 +7903,8 @@
       <c r="C108" t="s">
         <v>241</v>
       </c>
-      <c r="D108">
-        <v>2013</v>
+      <c r="D108" t="n">
+        <v>2013.0</v>
       </c>
       <c r="E108" t="s">
         <v>357</v>
@@ -8232,35 +7915,35 @@
       <c r="G108" t="s">
         <v>591</v>
       </c>
-      <c r="H108">
+      <c r="H108" t="n">
         <v>7.1</v>
       </c>
       <c r="I108" t="s">
         <v>708</v>
       </c>
-      <c r="J108">
-        <v>70</v>
-      </c>
-      <c r="K108">
-        <v>20</v>
-      </c>
-      <c r="L108">
-        <v>50</v>
-      </c>
-      <c r="M108">
-        <v>2</v>
-      </c>
-      <c r="N108">
-        <v>3</v>
-      </c>
-      <c r="O108">
-        <v>9.9499999999999993</v>
+      <c r="J108" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>5.25</v>
       </c>
       <c r="P108" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -8270,8 +7953,8 @@
       <c r="C109" t="s">
         <v>242</v>
       </c>
-      <c r="D109">
-        <v>2019</v>
+      <c r="D109" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E109" t="s">
         <v>358</v>
@@ -8282,35 +7965,35 @@
       <c r="G109" t="s">
         <v>592</v>
       </c>
-      <c r="H109">
+      <c r="H109" t="n">
         <v>3.3000000000000003</v>
       </c>
       <c r="I109" t="s">
         <v>709</v>
       </c>
-      <c r="J109">
-        <v>70</v>
-      </c>
-      <c r="K109">
-        <v>20</v>
-      </c>
-      <c r="L109">
-        <v>50</v>
-      </c>
-      <c r="M109">
-        <v>2</v>
-      </c>
-      <c r="N109">
-        <v>3</v>
-      </c>
-      <c r="O109">
-        <v>9.9499999999999993</v>
+      <c r="J109" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>5.25</v>
       </c>
       <c r="P109" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -8320,8 +8003,8 @@
       <c r="C110" t="s">
         <v>243</v>
       </c>
-      <c r="D110">
-        <v>2018</v>
+      <c r="D110" t="n">
+        <v>2018.0</v>
       </c>
       <c r="E110" t="s">
         <v>359</v>
@@ -8332,35 +8015,35 @@
       <c r="G110" t="s">
         <v>593</v>
       </c>
-      <c r="H110">
+      <c r="H110" t="n">
         <v>3.2</v>
       </c>
       <c r="I110" t="s">
         <v>710</v>
       </c>
-      <c r="J110">
-        <v>70</v>
-      </c>
-      <c r="K110">
-        <v>20</v>
-      </c>
-      <c r="L110">
-        <v>50</v>
-      </c>
-      <c r="M110">
-        <v>2</v>
-      </c>
-      <c r="N110">
-        <v>3</v>
-      </c>
-      <c r="O110">
-        <v>9.9499999999999993</v>
+      <c r="J110" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>5.25</v>
       </c>
       <c r="P110" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -8370,8 +8053,8 @@
       <c r="C111" t="s">
         <v>244</v>
       </c>
-      <c r="D111">
-        <v>0</v>
+      <c r="D111" t="n">
+        <v>0.0</v>
       </c>
       <c r="E111" t="s">
         <v>360</v>
@@ -8382,35 +8065,35 @@
       <c r="G111" t="s">
         <v>594</v>
       </c>
-      <c r="H111">
-        <v>7.1999999999999993</v>
+      <c r="H111" t="n">
+        <v>7.199999999999999</v>
       </c>
       <c r="I111" t="s">
         <v>711</v>
       </c>
-      <c r="J111">
-        <v>70</v>
-      </c>
-      <c r="K111">
-        <v>20</v>
-      </c>
-      <c r="L111">
-        <v>50</v>
-      </c>
-      <c r="M111">
-        <v>2</v>
-      </c>
-      <c r="N111">
-        <v>3</v>
-      </c>
-      <c r="O111">
-        <v>9.9499999999999993</v>
+      <c r="J111" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>5.25</v>
       </c>
       <c r="P111" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -8420,8 +8103,8 @@
       <c r="C112" t="s">
         <v>244</v>
       </c>
-      <c r="D112">
-        <v>0</v>
+      <c r="D112" t="n">
+        <v>0.0</v>
       </c>
       <c r="E112" t="s">
         <v>361</v>
@@ -8432,35 +8115,35 @@
       <c r="G112" t="s">
         <v>595</v>
       </c>
-      <c r="H112">
+      <c r="H112" t="n">
         <v>8.1</v>
       </c>
       <c r="I112" t="s">
         <v>712</v>
       </c>
-      <c r="J112">
-        <v>70</v>
-      </c>
-      <c r="K112">
-        <v>20</v>
-      </c>
-      <c r="L112">
-        <v>50</v>
-      </c>
-      <c r="M112">
-        <v>2</v>
-      </c>
-      <c r="N112">
-        <v>3</v>
-      </c>
-      <c r="O112">
-        <v>9.9499999999999993</v>
+      <c r="J112" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>5.25</v>
       </c>
       <c r="P112" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -8470,8 +8153,8 @@
       <c r="C113" t="s">
         <v>245</v>
       </c>
-      <c r="D113">
-        <v>2019</v>
+      <c r="D113" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E113" t="s">
         <v>362</v>
@@ -8482,35 +8165,35 @@
       <c r="G113" t="s">
         <v>596</v>
       </c>
-      <c r="H113">
-        <v>5.0999999999999996</v>
+      <c r="H113" t="n">
+        <v>5.1</v>
       </c>
       <c r="I113" t="s">
         <v>713</v>
       </c>
-      <c r="J113">
-        <v>70</v>
-      </c>
-      <c r="K113">
-        <v>20</v>
-      </c>
-      <c r="L113">
-        <v>50</v>
-      </c>
-      <c r="M113">
-        <v>2</v>
-      </c>
-      <c r="N113">
-        <v>3</v>
-      </c>
-      <c r="O113">
-        <v>9.9499999999999993</v>
+      <c r="J113" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>5.25</v>
       </c>
       <c r="P113" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -8520,8 +8203,8 @@
       <c r="C114" t="s">
         <v>246</v>
       </c>
-      <c r="D114">
-        <v>2017</v>
+      <c r="D114" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E114" t="s">
         <v>363</v>
@@ -8532,35 +8215,35 @@
       <c r="G114" t="s">
         <v>597</v>
       </c>
-      <c r="H114">
+      <c r="H114" t="n">
         <v>4.7</v>
       </c>
       <c r="I114" t="s">
         <v>714</v>
       </c>
-      <c r="J114">
-        <v>70</v>
-      </c>
-      <c r="K114">
-        <v>20</v>
-      </c>
-      <c r="L114">
-        <v>50</v>
-      </c>
-      <c r="M114">
-        <v>2</v>
-      </c>
-      <c r="N114">
-        <v>3</v>
-      </c>
-      <c r="O114">
-        <v>9.9499999999999993</v>
+      <c r="J114" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>5.25</v>
       </c>
       <c r="P114" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -8570,8 +8253,8 @@
       <c r="C115" t="s">
         <v>247</v>
       </c>
-      <c r="D115">
-        <v>2016</v>
+      <c r="D115" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E115" t="s">
         <v>364</v>
@@ -8582,35 +8265,35 @@
       <c r="G115" t="s">
         <v>598</v>
       </c>
-      <c r="H115">
-        <v>5.0999999999999996</v>
+      <c r="H115" t="n">
+        <v>5.1</v>
       </c>
       <c r="I115" t="s">
         <v>715</v>
       </c>
-      <c r="J115">
-        <v>70</v>
-      </c>
-      <c r="K115">
-        <v>20</v>
-      </c>
-      <c r="L115">
-        <v>50</v>
-      </c>
-      <c r="M115">
-        <v>2</v>
-      </c>
-      <c r="N115">
-        <v>3</v>
-      </c>
-      <c r="O115">
-        <v>9.9499999999999993</v>
+      <c r="J115" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>5.25</v>
       </c>
       <c r="P115" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -8620,8 +8303,8 @@
       <c r="C116" t="s">
         <v>248</v>
       </c>
-      <c r="D116">
-        <v>2016</v>
+      <c r="D116" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E116" t="s">
         <v>365</v>
@@ -8632,35 +8315,35 @@
       <c r="G116" t="s">
         <v>599</v>
       </c>
-      <c r="H116">
+      <c r="H116" t="n">
         <v>4.3</v>
       </c>
       <c r="I116" t="s">
         <v>716</v>
       </c>
-      <c r="J116">
-        <v>70</v>
-      </c>
-      <c r="K116">
-        <v>20</v>
-      </c>
-      <c r="L116">
-        <v>50</v>
-      </c>
-      <c r="M116">
-        <v>2</v>
-      </c>
-      <c r="N116">
-        <v>3</v>
-      </c>
-      <c r="O116">
-        <v>9.9499999999999993</v>
+      <c r="J116" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>5.25</v>
       </c>
       <c r="P116" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -8670,8 +8353,8 @@
       <c r="C117" t="s">
         <v>249</v>
       </c>
-      <c r="D117">
-        <v>2017</v>
+      <c r="D117" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E117" t="s">
         <v>366</v>
@@ -8682,35 +8365,35 @@
       <c r="G117" t="s">
         <v>600</v>
       </c>
-      <c r="H117">
+      <c r="H117" t="n">
         <v>4.2</v>
       </c>
       <c r="I117" t="s">
         <v>717</v>
       </c>
-      <c r="J117">
-        <v>70</v>
-      </c>
-      <c r="K117">
-        <v>20</v>
-      </c>
-      <c r="L117">
-        <v>50</v>
-      </c>
-      <c r="M117">
-        <v>2</v>
-      </c>
-      <c r="N117">
-        <v>3</v>
-      </c>
-      <c r="O117">
-        <v>9.9499999999999993</v>
+      <c r="J117" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>5.25</v>
       </c>
       <c r="P117" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -8720,8 +8403,8 @@
       <c r="C118" t="s">
         <v>250</v>
       </c>
-      <c r="D118">
-        <v>2016</v>
+      <c r="D118" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E118" t="s">
         <v>367</v>
@@ -8732,35 +8415,35 @@
       <c r="G118" t="s">
         <v>601</v>
       </c>
-      <c r="H118">
+      <c r="H118" t="n">
         <v>4.3</v>
       </c>
       <c r="I118" t="s">
         <v>718</v>
       </c>
-      <c r="J118">
-        <v>70</v>
-      </c>
-      <c r="K118">
-        <v>20</v>
-      </c>
-      <c r="L118">
-        <v>50</v>
-      </c>
-      <c r="M118">
-        <v>2</v>
-      </c>
-      <c r="N118">
-        <v>3</v>
-      </c>
-      <c r="O118">
-        <v>9.9499999999999993</v>
+      <c r="J118" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>5.25</v>
       </c>
       <c r="P118" t="s">
         <v>739</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>